--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,67 +18247,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O200">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X200">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K201">
+        <v>3.75</v>
+      </c>
+      <c r="L201">
         <v>3.1</v>
       </c>
-      <c r="L201">
-        <v>3.2</v>
-      </c>
       <c r="M201">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N201">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
         <v>1.95</v>
       </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
+        <v>0.3875</v>
+      </c>
+      <c r="AA201">
         <v>-0.5</v>
       </c>
-      <c r="AA201">
-        <v>0.5</v>
-      </c>
       <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.95</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,76 +18425,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
+        <v>2.15</v>
+      </c>
+      <c r="N202">
         <v>4</v>
       </c>
-      <c r="N202">
-        <v>2</v>
-      </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z202">
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,49 +18514,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N203">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
         <v>1.9</v>
@@ -18565,19 +18565,19 @@
         <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
+        <v>2.375</v>
+      </c>
+      <c r="L206">
         <v>3.3</v>
       </c>
-      <c r="L206">
-        <v>3.2</v>
-      </c>
       <c r="M206">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N206">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -21528,7 +21528,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7841978</v>
+        <v>7842503</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21537,49 +21537,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45338.83333333334</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M237">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21602,7 +21602,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7842503</v>
+        <v>7842504</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21611,49 +21611,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45339.66666666666</v>
+        <v>45339.78125</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K238">
+        <v>2.75</v>
+      </c>
+      <c r="L238">
+        <v>3</v>
+      </c>
+      <c r="M238">
+        <v>2.45</v>
+      </c>
+      <c r="N238">
+        <v>2.7</v>
+      </c>
+      <c r="O238">
+        <v>2.9</v>
+      </c>
+      <c r="P238">
+        <v>2.5</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.8</v>
-      </c>
-      <c r="L238">
-        <v>3.5</v>
-      </c>
-      <c r="M238">
-        <v>3.75</v>
-      </c>
-      <c r="N238">
-        <v>1.85</v>
-      </c>
-      <c r="O238">
-        <v>3.5</v>
-      </c>
-      <c r="P238">
-        <v>3.6</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.9</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>2.025</v>
-      </c>
-      <c r="V238">
-        <v>1.775</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21688,46 +21688,46 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K239">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21750,7 +21750,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842507</v>
+        <v>7842505</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21759,49 +21759,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45339.78125</v>
+        <v>45339.89583333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N240">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21824,7 +21824,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7842505</v>
+        <v>7842502</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21833,49 +21833,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45339.89583333334</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K241">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O241">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R241">
+        <v>1.85</v>
+      </c>
+      <c r="S241">
+        <v>1.95</v>
+      </c>
+      <c r="T241">
+        <v>2</v>
+      </c>
+      <c r="U241">
+        <v>1.925</v>
+      </c>
+      <c r="V241">
         <v>1.875</v>
-      </c>
-      <c r="S241">
-        <v>1.925</v>
-      </c>
-      <c r="T241">
-        <v>2.5</v>
-      </c>
-      <c r="U241">
-        <v>1.85</v>
-      </c>
-      <c r="V241">
-        <v>1.95</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21898,7 +21898,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7842502</v>
+        <v>7842506</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21907,49 +21907,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45340.66666666666</v>
+        <v>45340.78125</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K242">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L242">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M242">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N242">
+        <v>2.8</v>
+      </c>
+      <c r="O242">
+        <v>3</v>
+      </c>
+      <c r="P242">
         <v>2.4</v>
       </c>
-      <c r="O242">
-        <v>3.1</v>
-      </c>
-      <c r="P242">
-        <v>2.75</v>
-      </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S242">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -21964,80 +21964,6 @@
         <v>0</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>7842506</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45340.78125</v>
-      </c>
-      <c r="F243" t="s">
-        <v>39</v>
-      </c>
-      <c r="G243" t="s">
-        <v>41</v>
-      </c>
-      <c r="K243">
-        <v>2.8</v>
-      </c>
-      <c r="L243">
-        <v>3</v>
-      </c>
-      <c r="M243">
-        <v>2.4</v>
-      </c>
-      <c r="N243">
-        <v>2.8</v>
-      </c>
-      <c r="O243">
-        <v>3</v>
-      </c>
-      <c r="P243">
-        <v>2.4</v>
-      </c>
-      <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243">
-        <v>2.05</v>
-      </c>
-      <c r="S243">
-        <v>1.75</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.825</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,67 +18247,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N200">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
+        <v>1.95</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
         <v>1.875</v>
       </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.9</v>
-      </c>
-      <c r="V200">
-        <v>1.9</v>
-      </c>
-      <c r="W200">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
+        <v>2.15</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201">
+        <v>3.6</v>
+      </c>
+      <c r="P201">
+        <v>1.75</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
         <v>1.95</v>
       </c>
-      <c r="N201">
-        <v>2.9</v>
-      </c>
-      <c r="O201">
-        <v>2.875</v>
-      </c>
-      <c r="P201">
-        <v>2.45</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.775</v>
-      </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
+      <c r="V201">
         <v>1.85</v>
       </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z201">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,76 +18425,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K202">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
+        <v>3.25</v>
+      </c>
+      <c r="M202">
+        <v>4</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
         <v>3.2</v>
       </c>
-      <c r="M202">
-        <v>2.15</v>
-      </c>
-      <c r="N202">
-        <v>4</v>
-      </c>
-      <c r="O202">
-        <v>3.6</v>
-      </c>
       <c r="P202">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y202">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
         <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236253</v>
+        <v>6236254</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,49 +18514,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
         <v>1.9</v>
@@ -18565,19 +18565,19 @@
         <v>1.9</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
+        <v>0.4375</v>
+      </c>
+      <c r="AA203">
         <v>-0.5</v>
-      </c>
-      <c r="AA203">
-        <v>0.5125</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N204">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N205">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
+        <v>2.375</v>
+      </c>
+      <c r="L207">
         <v>3.3</v>
       </c>
-      <c r="L207">
-        <v>3.2</v>
-      </c>
       <c r="M207">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -21528,7 +21528,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7842503</v>
+        <v>7842502</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21537,49 +21537,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45339.66666666666</v>
+        <v>45340.66666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M237">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N237">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21602,7 +21602,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7842504</v>
+        <v>7842506</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21611,49 +21611,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45339.78125</v>
+        <v>45340.78125</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K238">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N238">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O238">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P238">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q238">
         <v>0</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21668,302 +21668,6 @@
         <v>0</v>
       </c>
       <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>7842507</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45339.78125</v>
-      </c>
-      <c r="F239" t="s">
-        <v>35</v>
-      </c>
-      <c r="G239" t="s">
-        <v>40</v>
-      </c>
-      <c r="K239">
-        <v>1.727</v>
-      </c>
-      <c r="L239">
-        <v>3.5</v>
-      </c>
-      <c r="M239">
-        <v>4.2</v>
-      </c>
-      <c r="N239">
-        <v>1.75</v>
-      </c>
-      <c r="O239">
-        <v>3.5</v>
-      </c>
-      <c r="P239">
-        <v>4</v>
-      </c>
-      <c r="Q239">
-        <v>-0.5</v>
-      </c>
-      <c r="R239">
-        <v>1.8</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>7842505</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45339.89583333334</v>
-      </c>
-      <c r="F240" t="s">
-        <v>34</v>
-      </c>
-      <c r="G240" t="s">
-        <v>43</v>
-      </c>
-      <c r="K240">
-        <v>1.444</v>
-      </c>
-      <c r="L240">
-        <v>3.75</v>
-      </c>
-      <c r="M240">
-        <v>7</v>
-      </c>
-      <c r="N240">
-        <v>1.533</v>
-      </c>
-      <c r="O240">
-        <v>3.75</v>
-      </c>
-      <c r="P240">
-        <v>5.5</v>
-      </c>
-      <c r="Q240">
-        <v>-1</v>
-      </c>
-      <c r="R240">
-        <v>1.95</v>
-      </c>
-      <c r="S240">
-        <v>1.85</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.95</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>7842502</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45340.66666666666</v>
-      </c>
-      <c r="F241" t="s">
-        <v>36</v>
-      </c>
-      <c r="G241" t="s">
-        <v>37</v>
-      </c>
-      <c r="K241">
-        <v>2.3</v>
-      </c>
-      <c r="L241">
-        <v>3.1</v>
-      </c>
-      <c r="M241">
-        <v>2.875</v>
-      </c>
-      <c r="N241">
-        <v>2.5</v>
-      </c>
-      <c r="O241">
-        <v>3.1</v>
-      </c>
-      <c r="P241">
-        <v>2.625</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241">
-        <v>1.85</v>
-      </c>
-      <c r="S241">
-        <v>1.95</v>
-      </c>
-      <c r="T241">
-        <v>2</v>
-      </c>
-      <c r="U241">
-        <v>1.925</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242">
-        <v>7842506</v>
-      </c>
-      <c r="C242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" t="s">
-        <v>28</v>
-      </c>
-      <c r="E242" s="2">
-        <v>45340.78125</v>
-      </c>
-      <c r="F242" t="s">
-        <v>39</v>
-      </c>
-      <c r="G242" t="s">
-        <v>41</v>
-      </c>
-      <c r="K242">
-        <v>2.8</v>
-      </c>
-      <c r="L242">
-        <v>3</v>
-      </c>
-      <c r="M242">
-        <v>2.4</v>
-      </c>
-      <c r="N242">
-        <v>2.8</v>
-      </c>
-      <c r="O242">
-        <v>3</v>
-      </c>
-      <c r="P242">
-        <v>2.4</v>
-      </c>
-      <c r="Q242">
-        <v>0</v>
-      </c>
-      <c r="R242">
-        <v>2.05</v>
-      </c>
-      <c r="S242">
-        <v>1.75</v>
-      </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>1.975</v>
-      </c>
-      <c r="V242">
-        <v>1.825</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC238"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,58 +17980,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
         <v>1</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L197">
+        <v>3.4</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
         <v>4.2</v>
       </c>
-      <c r="M197">
-        <v>7.5</v>
-      </c>
-      <c r="N197">
-        <v>1.333</v>
-      </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q197">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18040,16 +18040,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,76 +18069,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K198">
+        <v>1.833</v>
+      </c>
+      <c r="L198">
+        <v>3.25</v>
+      </c>
+      <c r="M198">
+        <v>4</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198">
         <v>3.2</v>
       </c>
-      <c r="L198">
-        <v>3.1</v>
-      </c>
-      <c r="M198">
-        <v>2.15</v>
-      </c>
-      <c r="N198">
-        <v>4.5</v>
-      </c>
-      <c r="O198">
-        <v>3.3</v>
-      </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236611</v>
+        <v>6236254</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,58 +18158,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
         <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18218,16 +18218,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,76 +18247,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
+        <v>2.15</v>
+      </c>
+      <c r="N200">
+        <v>4</v>
+      </c>
+      <c r="O200">
+        <v>3.6</v>
+      </c>
+      <c r="P200">
+        <v>1.75</v>
+      </c>
+      <c r="Q200">
+        <v>0.75</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
         <v>1.95</v>
       </c>
-      <c r="N200">
-        <v>2.9</v>
-      </c>
-      <c r="O200">
-        <v>2.875</v>
-      </c>
-      <c r="P200">
-        <v>2.45</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.775</v>
-      </c>
-      <c r="S200">
-        <v>2.025</v>
-      </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
+      <c r="V200">
         <v>1.85</v>
       </c>
-      <c r="V200">
-        <v>1.95</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z200">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,13 +18336,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -18351,40 +18351,40 @@
         <v>46</v>
       </c>
       <c r="K201">
+        <v>3.2</v>
+      </c>
+      <c r="L201">
         <v>3.1</v>
-      </c>
-      <c r="L201">
-        <v>3.2</v>
       </c>
       <c r="M201">
         <v>2.15</v>
       </c>
       <c r="N201">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
         <v>1.75</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
         <v>1.8</v>
       </c>
-      <c r="S201">
-        <v>2</v>
-      </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18396,16 +18396,16 @@
         <v>0.75</v>
       </c>
       <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>0.8</v>
+      </c>
+      <c r="AB201">
         <v>-0.5</v>
       </c>
-      <c r="AA201">
-        <v>0.5</v>
-      </c>
-      <c r="AB201">
-        <v>0.95</v>
-      </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,76 +18425,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O202">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X202">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,67 +18514,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N203">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
+        <v>1.775</v>
+      </c>
+      <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
         <v>1.875</v>
       </c>
-      <c r="S203">
-        <v>1.925</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>1.9</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
-      </c>
-      <c r="W203">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA203">
         <v>-0.5</v>
@@ -18583,7 +18583,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19837,7 +19837,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19849,76 +19849,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.2</v>
+      </c>
+      <c r="M218">
+        <v>3.3</v>
+      </c>
+      <c r="N218">
+        <v>2.15</v>
+      </c>
+      <c r="O218">
         <v>3.1</v>
       </c>
-      <c r="L218">
-        <v>2.875</v>
-      </c>
-      <c r="M218">
-        <v>2.3</v>
-      </c>
-      <c r="N218">
-        <v>3</v>
-      </c>
-      <c r="O218">
-        <v>2.875</v>
-      </c>
       <c r="P218">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S218">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
+        <v>1.975</v>
+      </c>
+      <c r="V218">
         <v>1.825</v>
       </c>
-      <c r="V218">
-        <v>1.975</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X218">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19926,7 +19926,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19938,76 +19938,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F219" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K219">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M219">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N219">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P219">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q219">
+        <v>0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.725</v>
+      </c>
+      <c r="S219">
+        <v>2.075</v>
+      </c>
+      <c r="T219">
+        <v>2</v>
+      </c>
+      <c r="U219">
+        <v>1.825</v>
+      </c>
+      <c r="V219">
+        <v>1.975</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>1.875</v>
+      </c>
+      <c r="Y219">
+        <v>-1</v>
+      </c>
+      <c r="Z219">
+        <v>0.3625</v>
+      </c>
+      <c r="AA219">
         <v>-0.5</v>
       </c>
-      <c r="R219">
-        <v>2.025</v>
-      </c>
-      <c r="S219">
-        <v>1.775</v>
-      </c>
-      <c r="T219">
-        <v>2.25</v>
-      </c>
-      <c r="U219">
-        <v>1.975</v>
-      </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
-      <c r="W219">
-        <v>1.15</v>
-      </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>1.025</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21528,7 +21528,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7842502</v>
+        <v>7841978</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21537,64 +21537,79 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45340.66666666666</v>
+        <v>45338.83333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N237">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
+        <v>1.925</v>
+      </c>
+      <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
         <v>1.85</v>
       </c>
-      <c r="S237">
+      <c r="V237">
         <v>1.95</v>
       </c>
-      <c r="T237">
-        <v>2</v>
-      </c>
-      <c r="U237">
-        <v>1.925</v>
-      </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
       <c r="W237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21602,7 +21617,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7842506</v>
+        <v>7842503</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21611,64 +21626,524 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45340.78125</v>
+        <v>45339.66666666666</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N238">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.8</v>
+      </c>
+      <c r="V238">
+        <v>2</v>
+      </c>
+      <c r="W238">
+        <v>1</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>0.8</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>0.8</v>
+      </c>
+      <c r="AC238">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7842504</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45339.78125</v>
+      </c>
+      <c r="F239" t="s">
+        <v>31</v>
+      </c>
+      <c r="G239" t="s">
+        <v>32</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>44</v>
+      </c>
+      <c r="K239">
+        <v>2.75</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
+        <v>2.45</v>
+      </c>
+      <c r="N239">
+        <v>3.1</v>
+      </c>
+      <c r="O239">
+        <v>2.875</v>
+      </c>
+      <c r="P239">
+        <v>2.3</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>2.05</v>
+      </c>
+      <c r="V239">
+        <v>1.75</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>1.875</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.4</v>
+      </c>
+      <c r="AA239">
+        <v>-0.5</v>
+      </c>
+      <c r="AB239">
+        <v>-0.5</v>
+      </c>
+      <c r="AC239">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7842507</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45339.78125</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>40</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>45</v>
+      </c>
+      <c r="K240">
+        <v>1.727</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>4.2</v>
+      </c>
+      <c r="N240">
+        <v>1.85</v>
+      </c>
+      <c r="O240">
+        <v>3.5</v>
+      </c>
+      <c r="P240">
+        <v>3.6</v>
+      </c>
+      <c r="Q240">
+        <v>-0.5</v>
+      </c>
+      <c r="R240">
+        <v>1.925</v>
+      </c>
+      <c r="S240">
+        <v>1.875</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
+        <v>1.9</v>
+      </c>
+      <c r="W240">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.925</v>
+      </c>
+      <c r="AA240">
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7842505</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45339.89583333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241" t="s">
+        <v>43</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>45</v>
+      </c>
+      <c r="K241">
+        <v>1.444</v>
+      </c>
+      <c r="L241">
+        <v>3.75</v>
+      </c>
+      <c r="M241">
+        <v>7</v>
+      </c>
+      <c r="N241">
+        <v>1.45</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>6</v>
+      </c>
+      <c r="Q241">
+        <v>-1.25</v>
+      </c>
+      <c r="R241">
+        <v>2.025</v>
+      </c>
+      <c r="S241">
+        <v>1.775</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.85</v>
+      </c>
+      <c r="V241">
+        <v>1.95</v>
+      </c>
+      <c r="W241">
+        <v>0.45</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>-0.5</v>
+      </c>
+      <c r="AA241">
+        <v>0.3875</v>
+      </c>
+      <c r="AB241">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7842502</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45340.66666666666</v>
+      </c>
+      <c r="F242" t="s">
+        <v>36</v>
+      </c>
+      <c r="G242" t="s">
+        <v>37</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>46</v>
+      </c>
+      <c r="K242">
+        <v>2.3</v>
+      </c>
+      <c r="L242">
+        <v>3.1</v>
+      </c>
+      <c r="M242">
+        <v>2.875</v>
+      </c>
+      <c r="N242">
+        <v>2.55</v>
+      </c>
+      <c r="O242">
+        <v>2.625</v>
+      </c>
+      <c r="P242">
+        <v>2.875</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>1.8</v>
+      </c>
+      <c r="S242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
         <v>1.975</v>
       </c>
-      <c r="V238">
+      <c r="V242">
         <v>1.825</v>
       </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>1.875</v>
+      </c>
+      <c r="Z242">
+        <v>-1</v>
+      </c>
+      <c r="AA242">
+        <v>1</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7842506</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45340.78125</v>
+      </c>
+      <c r="F243" t="s">
+        <v>39</v>
+      </c>
+      <c r="G243" t="s">
+        <v>41</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>44</v>
+      </c>
+      <c r="K243">
+        <v>2.8</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>2.4</v>
+      </c>
+      <c r="N243">
+        <v>2.5</v>
+      </c>
+      <c r="O243">
+        <v>2.9</v>
+      </c>
+      <c r="P243">
+        <v>2.75</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>1.8</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>1.8</v>
+      </c>
+      <c r="V243">
+        <v>2</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>1.9</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>-0</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K197">
+        <v>1.833</v>
+      </c>
+      <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
         <v>3.2</v>
       </c>
-      <c r="L197">
-        <v>3.4</v>
-      </c>
-      <c r="M197">
-        <v>2</v>
-      </c>
-      <c r="N197">
-        <v>4.2</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
       <c r="P197">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,76 +18069,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M198">
+        <v>2.15</v>
+      </c>
+      <c r="N198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>2</v>
-      </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z198">
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,76 +18247,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K200">
+        <v>3.75</v>
+      </c>
+      <c r="L200">
         <v>3.1</v>
       </c>
-      <c r="L200">
-        <v>3.2</v>
-      </c>
       <c r="M200">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P200">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
         <v>1.95</v>
       </c>
-      <c r="V200">
-        <v>1.85</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
+        <v>0.3875</v>
+      </c>
+      <c r="AA200">
         <v>-0.5</v>
       </c>
-      <c r="AA200">
-        <v>0.5</v>
-      </c>
       <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>0.95</v>
-      </c>
-      <c r="AC200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>3.2</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N201">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O201">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q201">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,40 +18425,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L202">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O202">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18467,7 +18467,7 @@
         <v>1.8</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
         <v>1.925</v>
@@ -18476,13 +18476,13 @@
         <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -18491,10 +18491,10 @@
         <v>0.8</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,76 +18514,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M203">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O203">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P203">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R203">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X203">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
+        <v>2.375</v>
+      </c>
+      <c r="L206">
         <v>3.3</v>
       </c>
-      <c r="L206">
-        <v>3.2</v>
-      </c>
       <c r="M206">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N206">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X239">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N240">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
+        <v>1.8</v>
+      </c>
+      <c r="S240">
+        <v>2</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2.05</v>
+      </c>
+      <c r="V240">
+        <v>1.75</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>1.875</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.4</v>
+      </c>
+      <c r="AA240">
         <v>-0.5</v>
       </c>
-      <c r="R240">
-        <v>1.925</v>
-      </c>
-      <c r="S240">
-        <v>1.875</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
-      <c r="W240">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.925</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,76 +18069,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K198">
+        <v>3.75</v>
+      </c>
+      <c r="L198">
         <v>3.1</v>
       </c>
-      <c r="L198">
-        <v>3.2</v>
-      </c>
       <c r="M198">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N198">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
+        <v>1.85</v>
+      </c>
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.3875</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.5</v>
-      </c>
       <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
         <v>0.95</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,76 +18158,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N199">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z199">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,67 +18247,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O200">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X200">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,40 +18425,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N202">
+        <v>1.333</v>
+      </c>
+      <c r="O202">
         <v>4.5</v>
       </c>
-      <c r="O202">
-        <v>3.3</v>
-      </c>
       <c r="P202">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q202">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18467,7 +18467,7 @@
         <v>1.8</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
         <v>1.925</v>
@@ -18476,13 +18476,13 @@
         <v>1.875</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -18491,10 +18491,10 @@
         <v>0.8</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,40 +18514,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N203">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O203">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q203">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R203">
         <v>2</v>
@@ -18556,7 +18556,7 @@
         <v>1.8</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
         <v>1.925</v>
@@ -18565,13 +18565,13 @@
         <v>1.875</v>
       </c>
       <c r="W203">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z203">
         <v>-1</v>
@@ -18580,10 +18580,10 @@
         <v>0.8</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC203">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
+        <v>2.15</v>
+      </c>
+      <c r="N197">
         <v>4</v>
       </c>
-      <c r="N197">
-        <v>2</v>
-      </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z197">
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,76 +18069,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N198">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O198">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X198">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,76 +18158,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.4375</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.5</v>
-      </c>
       <c r="AB199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,67 +18247,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N200">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
+        <v>1.95</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
         <v>1.875</v>
       </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
-      <c r="U200">
-        <v>1.9</v>
-      </c>
-      <c r="V200">
-        <v>1.9</v>
-      </c>
-      <c r="W200">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,40 +18425,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L202">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O202">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R202">
         <v>2</v>
@@ -18467,7 +18467,7 @@
         <v>1.8</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
         <v>1.925</v>
@@ -18476,13 +18476,13 @@
         <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -18491,10 +18491,10 @@
         <v>0.8</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,76 +18514,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K203">
+        <v>1.833</v>
+      </c>
+      <c r="L203">
+        <v>3.25</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203">
         <v>3.2</v>
       </c>
-      <c r="L203">
-        <v>3.1</v>
-      </c>
-      <c r="M203">
-        <v>2.15</v>
-      </c>
-      <c r="N203">
-        <v>4.5</v>
-      </c>
-      <c r="O203">
-        <v>3.3</v>
-      </c>
       <c r="P203">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q203">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y203">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N204">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N205">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
+        <v>2.375</v>
+      </c>
+      <c r="L207">
         <v>3.3</v>
       </c>
-      <c r="L207">
-        <v>3.2</v>
-      </c>
       <c r="M207">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19837,7 +19837,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19849,76 +19849,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H218">
         <v>1</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K218">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M218">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N218">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P218">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q218">
+        <v>0.25</v>
+      </c>
+      <c r="R218">
+        <v>1.725</v>
+      </c>
+      <c r="S218">
+        <v>2.075</v>
+      </c>
+      <c r="T218">
+        <v>2</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
+        <v>1.975</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
+        <v>1.875</v>
+      </c>
+      <c r="Y218">
+        <v>-1</v>
+      </c>
+      <c r="Z218">
+        <v>0.3625</v>
+      </c>
+      <c r="AA218">
         <v>-0.5</v>
       </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.775</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
-      <c r="U218">
-        <v>1.975</v>
-      </c>
-      <c r="V218">
-        <v>1.825</v>
-      </c>
-      <c r="W218">
-        <v>1.15</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
-      <c r="Y218">
-        <v>-1</v>
-      </c>
-      <c r="Z218">
-        <v>1.025</v>
-      </c>
-      <c r="AA218">
-        <v>-1</v>
-      </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19926,7 +19926,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19938,76 +19938,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>1</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K219">
+        <v>2.1</v>
+      </c>
+      <c r="L219">
+        <v>3.2</v>
+      </c>
+      <c r="M219">
+        <v>3.3</v>
+      </c>
+      <c r="N219">
+        <v>2.15</v>
+      </c>
+      <c r="O219">
         <v>3.1</v>
       </c>
-      <c r="L219">
-        <v>2.875</v>
-      </c>
-      <c r="M219">
-        <v>2.3</v>
-      </c>
-      <c r="N219">
-        <v>3</v>
-      </c>
-      <c r="O219">
-        <v>2.875</v>
-      </c>
       <c r="P219">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
         <v>1.825</v>
       </c>
-      <c r="V219">
-        <v>1.975</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X219">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20015,7 +20015,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20027,10 +20027,10 @@
         <v>45242.75</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20042,46 +20042,46 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N220">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20090,13 +20090,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20104,7 +20104,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20116,10 +20116,10 @@
         <v>45242.75</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20131,46 +20131,46 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O221">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
         <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.65</v>
+      </c>
+      <c r="S221">
+        <v>2.2</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>1.975</v>
       </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20179,13 +20179,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P239">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>2.05</v>
+      </c>
+      <c r="V239">
+        <v>1.75</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>1.875</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.4</v>
+      </c>
+      <c r="AA239">
         <v>-0.5</v>
       </c>
-      <c r="R239">
-        <v>1.925</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
-      <c r="W239">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>0.925</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L240">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N240">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O240">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X240">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236251</v>
+        <v>6236252</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K197">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L197">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M197">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="O197">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P197">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
         <v>1.8</v>
-      </c>
-      <c r="S197">
-        <v>2</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,40 +18069,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N198">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q198">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -18111,7 +18111,7 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
         <v>1.925</v>
@@ -18120,13 +18120,13 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18135,10 +18135,10 @@
         <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,67 +18158,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N199">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>1.95</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>1.875</v>
       </c>
-      <c r="S199">
-        <v>1.925</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>1.9</v>
-      </c>
-      <c r="W199">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA199">
         <v>-0.5</v>
@@ -18227,7 +18227,7 @@
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,67 +18247,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O200">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X200">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA200">
         <v>-0.5</v>
@@ -18316,7 +18316,7 @@
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
+        <v>1.833</v>
+      </c>
+      <c r="L201">
+        <v>3.25</v>
+      </c>
+      <c r="M201">
+        <v>4</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
         <v>3.2</v>
       </c>
-      <c r="L201">
-        <v>3.4</v>
-      </c>
-      <c r="M201">
-        <v>2</v>
-      </c>
-      <c r="N201">
-        <v>4.2</v>
-      </c>
-      <c r="O201">
-        <v>3.8</v>
-      </c>
       <c r="P201">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236612</v>
+        <v>6236251</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,13 +18425,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -18440,40 +18440,40 @@
         <v>46</v>
       </c>
       <c r="K202">
+        <v>3.1</v>
+      </c>
+      <c r="L202">
         <v>3.2</v>
-      </c>
-      <c r="L202">
-        <v>3.1</v>
       </c>
       <c r="M202">
         <v>2.15</v>
       </c>
       <c r="N202">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
         <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18485,16 +18485,16 @@
         <v>0.75</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC202">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,76 +18514,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>1.65</v>
+      </c>
+      <c r="Q203">
+        <v>0.75</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>1.975</v>
+      </c>
+      <c r="W203">
         <v>3.2</v>
       </c>
-      <c r="P203">
-        <v>3.5</v>
-      </c>
-      <c r="Q203">
-        <v>-0.25</v>
-      </c>
-      <c r="R203">
-        <v>1.775</v>
-      </c>
-      <c r="S203">
-        <v>2.025</v>
-      </c>
-      <c r="T203">
-        <v>2.25</v>
-      </c>
-      <c r="U203">
-        <v>1.9</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
       <c r="X203">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
+        <v>2.375</v>
+      </c>
+      <c r="L206">
         <v>3.3</v>
       </c>
-      <c r="L206">
-        <v>3.2</v>
-      </c>
       <c r="M206">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N206">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N207">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -20015,7 +20015,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20027,10 +20027,10 @@
         <v>45242.75</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20042,46 +20042,46 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L220">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O220">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
+        <v>1.65</v>
+      </c>
+      <c r="S220">
+        <v>2.2</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
         <v>1.975</v>
       </c>
-      <c r="S220">
-        <v>1.825</v>
-      </c>
-      <c r="T220">
-        <v>2</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20090,13 +20090,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20104,7 +20104,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20116,10 +20116,10 @@
         <v>45242.75</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20131,46 +20131,46 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q221">
         <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20179,13 +20179,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X239">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N240">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
+        <v>1.8</v>
+      </c>
+      <c r="S240">
+        <v>2</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2.05</v>
+      </c>
+      <c r="V240">
+        <v>1.75</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>1.875</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.4</v>
+      </c>
+      <c r="AA240">
         <v>-0.5</v>
       </c>
-      <c r="R240">
-        <v>1.925</v>
-      </c>
-      <c r="S240">
-        <v>1.875</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
-      <c r="W240">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.925</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22144,6 +22144,154 @@
       </c>
       <c r="AC243">
         <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7859976</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45345.70833333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>38</v>
+      </c>
+      <c r="G244" t="s">
+        <v>34</v>
+      </c>
+      <c r="K244">
+        <v>3.2</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2.15</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244">
+        <v>3.1</v>
+      </c>
+      <c r="P244">
+        <v>2.2</v>
+      </c>
+      <c r="Q244">
+        <v>0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.825</v>
+      </c>
+      <c r="S244">
+        <v>1.975</v>
+      </c>
+      <c r="T244">
+        <v>2</v>
+      </c>
+      <c r="U244">
+        <v>1.85</v>
+      </c>
+      <c r="V244">
+        <v>1.95</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7859977</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45345.83333333334</v>
+      </c>
+      <c r="F245" t="s">
+        <v>37</v>
+      </c>
+      <c r="G245" t="s">
+        <v>39</v>
+      </c>
+      <c r="K245">
+        <v>2.1</v>
+      </c>
+      <c r="L245">
+        <v>3.1</v>
+      </c>
+      <c r="M245">
+        <v>3.2</v>
+      </c>
+      <c r="N245">
+        <v>2.2</v>
+      </c>
+      <c r="O245">
+        <v>3.2</v>
+      </c>
+      <c r="P245">
+        <v>2.875</v>
+      </c>
+      <c r="Q245">
+        <v>-0.25</v>
+      </c>
+      <c r="R245">
+        <v>1.975</v>
+      </c>
+      <c r="S245">
+        <v>1.825</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>1.8</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC245"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K197">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L197">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N197">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P197">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q197">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,40 +18069,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M198">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N198">
+        <v>1.333</v>
+      </c>
+      <c r="O198">
         <v>4.5</v>
       </c>
-      <c r="O198">
-        <v>3.3</v>
-      </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q198">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -18111,7 +18111,7 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
         <v>1.925</v>
@@ -18120,13 +18120,13 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18135,10 +18135,10 @@
         <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,67 +18158,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O199">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X199">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA199">
         <v>-0.5</v>
@@ -18227,7 +18227,7 @@
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,49 +18247,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
         <v>1.9</v>
@@ -18298,19 +18298,19 @@
         <v>1.9</v>
       </c>
       <c r="W200">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB200">
         <v>-1</v>
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O201">
+        <v>3.8</v>
+      </c>
+      <c r="P201">
+        <v>1.65</v>
+      </c>
+      <c r="Q201">
+        <v>0.75</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.825</v>
+      </c>
+      <c r="V201">
+        <v>1.975</v>
+      </c>
+      <c r="W201">
         <v>3.2</v>
       </c>
-      <c r="P201">
-        <v>3.5</v>
-      </c>
-      <c r="Q201">
-        <v>-0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.775</v>
-      </c>
-      <c r="S201">
-        <v>2.025</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.9</v>
-      </c>
-      <c r="V201">
-        <v>1.9</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA201">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,13 +18425,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -18440,40 +18440,40 @@
         <v>46</v>
       </c>
       <c r="K202">
+        <v>3.2</v>
+      </c>
+      <c r="L202">
         <v>3.1</v>
-      </c>
-      <c r="L202">
-        <v>3.2</v>
       </c>
       <c r="M202">
         <v>2.15</v>
       </c>
       <c r="N202">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
         <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
         <v>1.8</v>
       </c>
-      <c r="S202">
-        <v>2</v>
-      </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18485,16 +18485,16 @@
         <v>0.75</v>
       </c>
       <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.8</v>
+      </c>
+      <c r="AB202">
         <v>-0.5</v>
       </c>
-      <c r="AA202">
-        <v>0.5</v>
-      </c>
-      <c r="AB202">
-        <v>0.95</v>
-      </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,76 +18514,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M203">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N203">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P203">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q203">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
+        <v>1.775</v>
+      </c>
+      <c r="S203">
+        <v>2.025</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
         <v>1.95</v>
       </c>
-      <c r="S203">
-        <v>1.85</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>1.825</v>
-      </c>
-      <c r="V203">
-        <v>1.975</v>
-      </c>
       <c r="W203">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
+        <v>0.3875</v>
+      </c>
+      <c r="AA203">
+        <v>-0.5</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.95</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N204">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N205">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -20015,7 +20015,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20027,10 +20027,10 @@
         <v>45242.75</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20042,46 +20042,46 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N220">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20090,13 +20090,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20104,7 +20104,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20116,10 +20116,10 @@
         <v>45242.75</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20131,46 +20131,46 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N221">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O221">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
         <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.65</v>
+      </c>
+      <c r="S221">
+        <v>2.2</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
         <v>1.975</v>
       </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20179,13 +20179,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K239">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N239">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P239">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.8</v>
+      </c>
+      <c r="S239">
+        <v>2</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>2.05</v>
+      </c>
+      <c r="V239">
+        <v>1.75</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>1.875</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.4</v>
+      </c>
+      <c r="AA239">
         <v>-0.5</v>
       </c>
-      <c r="R239">
-        <v>1.925</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
-      <c r="W239">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>0.925</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L240">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N240">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O240">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P240">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X240">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22168,6 +22168,15 @@
       <c r="G244" t="s">
         <v>34</v>
       </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>44</v>
+      </c>
       <c r="K244">
         <v>3.2</v>
       </c>
@@ -22178,46 +22187,52 @@
         <v>2.15</v>
       </c>
       <c r="N244">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O244">
         <v>3.1</v>
       </c>
       <c r="P244">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
+        <v>1.85</v>
+      </c>
+      <c r="S244">
+        <v>1.95</v>
+      </c>
+      <c r="T244">
+        <v>2</v>
+      </c>
+      <c r="U244">
+        <v>1.975</v>
+      </c>
+      <c r="V244">
         <v>1.825</v>
       </c>
-      <c r="S244">
-        <v>1.975</v>
-      </c>
-      <c r="T244">
-        <v>2</v>
-      </c>
-      <c r="U244">
-        <v>1.85</v>
-      </c>
-      <c r="V244">
-        <v>1.95</v>
-      </c>
       <c r="W244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0</v>
+      </c>
+      <c r="AC244">
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22225,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7859977</v>
+        <v>7859978</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22234,43 +22249,43 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45345.83333333334</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K245">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L245">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M245">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N245">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P245">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
         <v>2</v>
@@ -22291,6 +22306,154 @@
         <v>0</v>
       </c>
       <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7859980</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45346.78125</v>
+      </c>
+      <c r="F246" t="s">
+        <v>40</v>
+      </c>
+      <c r="G246" t="s">
+        <v>29</v>
+      </c>
+      <c r="K246">
+        <v>3.8</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>1.95</v>
+      </c>
+      <c r="N246">
+        <v>3.8</v>
+      </c>
+      <c r="O246">
+        <v>3</v>
+      </c>
+      <c r="P246">
+        <v>1.95</v>
+      </c>
+      <c r="Q246">
+        <v>0.5</v>
+      </c>
+      <c r="R246">
+        <v>1.8</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
+        <v>1.85</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7859979</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45346.89583333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>30</v>
+      </c>
+      <c r="G247" t="s">
+        <v>43</v>
+      </c>
+      <c r="K247">
+        <v>2.3</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>2.875</v>
+      </c>
+      <c r="N247">
+        <v>2.3</v>
+      </c>
+      <c r="O247">
+        <v>3</v>
+      </c>
+      <c r="P247">
+        <v>2.875</v>
+      </c>
+      <c r="Q247">
+        <v>-0.25</v>
+      </c>
+      <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
+        <v>1.75</v>
+      </c>
+      <c r="T247">
+        <v>2.25</v>
+      </c>
+      <c r="U247">
+        <v>1.925</v>
+      </c>
+      <c r="V247">
+        <v>1.875</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC247"/>
+  <dimension ref="A1:AC248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K197">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
         <v>3.2</v>
       </c>
-      <c r="M197">
-        <v>2.15</v>
-      </c>
-      <c r="N197">
-        <v>4</v>
-      </c>
-      <c r="O197">
-        <v>3.6</v>
-      </c>
       <c r="P197">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,76 +18158,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N199">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z199">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,10 +18247,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18262,25 +18262,25 @@
         <v>44</v>
       </c>
       <c r="K200">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P200">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
         <v>1.775</v>
@@ -18292,31 +18292,31 @@
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
+        <v>0.3875</v>
+      </c>
+      <c r="AA200">
         <v>-0.5</v>
       </c>
-      <c r="AA200">
-        <v>0.5125</v>
-      </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,67 +18514,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N203">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O203">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X203">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA203">
         <v>-0.5</v>
@@ -18583,7 +18583,7 @@
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O204">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB204">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -22267,31 +22267,31 @@
         <v>2.75</v>
       </c>
       <c r="N245">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O245">
         <v>3</v>
       </c>
       <c r="P245">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22314,7 +22314,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7859980</v>
+        <v>7859979</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22326,46 +22326,46 @@
         <v>45346.78125</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K246">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N246">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="O246">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22388,7 +22388,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7859979</v>
+        <v>7859980</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22397,63 +22397,137 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45346.89583333334</v>
+        <v>45346.78125</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O247">
         <v>3</v>
       </c>
       <c r="P247">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
+        <v>1.975</v>
+      </c>
+      <c r="V247">
+        <v>1.825</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7859981</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45347.70833333334</v>
+      </c>
+      <c r="F248" t="s">
+        <v>41</v>
+      </c>
+      <c r="G248" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248">
+        <v>1.75</v>
+      </c>
+      <c r="L248">
+        <v>3.25</v>
+      </c>
+      <c r="M248">
+        <v>4.5</v>
+      </c>
+      <c r="N248">
+        <v>1.65</v>
+      </c>
+      <c r="O248">
+        <v>3.4</v>
+      </c>
+      <c r="P248">
+        <v>5</v>
+      </c>
+      <c r="Q248">
+        <v>-0.75</v>
+      </c>
+      <c r="R248">
+        <v>1.875</v>
+      </c>
+      <c r="S248">
         <v>1.925</v>
       </c>
-      <c r="V247">
-        <v>1.875</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
+        <v>1.825</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -17968,7 +17968,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,76 +17980,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K197">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L197">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O197">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X197">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18057,7 +18057,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,40 +18069,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N198">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q198">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -18111,7 +18111,7 @@
         <v>1.8</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
         <v>1.925</v>
@@ -18120,13 +18120,13 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z198">
         <v>-1</v>
@@ -18135,10 +18135,10 @@
         <v>0.8</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18146,7 +18146,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18158,76 +18158,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O199">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
         <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.4375</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.5</v>
-      </c>
       <c r="AB199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18235,7 +18235,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6236255</v>
+        <v>6236611</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18247,76 +18247,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L200">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>4.2</v>
+      </c>
+      <c r="O200">
+        <v>3.8</v>
+      </c>
+      <c r="P200">
+        <v>1.65</v>
+      </c>
+      <c r="Q200">
+        <v>0.75</v>
+      </c>
+      <c r="R200">
         <v>1.95</v>
       </c>
-      <c r="N200">
-        <v>2.9</v>
-      </c>
-      <c r="O200">
-        <v>2.875</v>
-      </c>
-      <c r="P200">
-        <v>2.45</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.775</v>
-      </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X200">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18324,7 +18324,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18336,76 +18336,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M201">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N201">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O201">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P201">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
         <v>1.95</v>
       </c>
-      <c r="S201">
-        <v>1.85</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
-      <c r="U201">
-        <v>1.825</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
       <c r="W201">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
+        <v>0.3875</v>
+      </c>
+      <c r="AA201">
+        <v>-0.5</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>0.95</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
-      <c r="AB201">
-        <v>0.825</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18413,7 +18413,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6236612</v>
+        <v>6236251</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18425,13 +18425,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -18440,40 +18440,40 @@
         <v>46</v>
       </c>
       <c r="K202">
+        <v>3.1</v>
+      </c>
+      <c r="L202">
         <v>3.2</v>
-      </c>
-      <c r="L202">
-        <v>3.1</v>
       </c>
       <c r="M202">
         <v>2.15</v>
       </c>
       <c r="N202">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
         <v>1.75</v>
       </c>
       <c r="Q202">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18485,16 +18485,16 @@
         <v>0.75</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB202">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC202">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,49 +18514,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N203">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
         <v>1.9</v>
@@ -18565,19 +18565,19 @@
         <v>1.9</v>
       </c>
       <c r="W203">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB203">
         <v>-1</v>
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,13 +18603,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -18618,40 +18618,40 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N204">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18660,19 +18660,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC204">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,13 +18692,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -18707,40 +18707,40 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N205">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18749,19 +18749,19 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18769,7 +18769,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18781,58 +18781,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N206">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O206">
         <v>3.2</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S206">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18841,16 +18841,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18858,7 +18858,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18870,58 +18870,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
+        <v>2.375</v>
+      </c>
+      <c r="L207">
         <v>3.3</v>
       </c>
-      <c r="L207">
-        <v>3.2</v>
-      </c>
       <c r="M207">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O207">
         <v>3.2</v>
       </c>
       <c r="P207">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18930,16 +18930,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -20015,7 +20015,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20027,10 +20027,10 @@
         <v>45242.75</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20042,46 +20042,46 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L220">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N220">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O220">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
+        <v>1.65</v>
+      </c>
+      <c r="S220">
+        <v>2.2</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
         <v>1.975</v>
       </c>
-      <c r="S220">
-        <v>1.825</v>
-      </c>
-      <c r="T220">
-        <v>2</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y220">
         <v>-1</v>
@@ -20090,13 +20090,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA220">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20104,7 +20104,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20116,10 +20116,10 @@
         <v>45242.75</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H221">
         <v>1</v>
@@ -20131,46 +20131,46 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q221">
         <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20179,13 +20179,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA221">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O239">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X239">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21795,7 +21795,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,76 +21807,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K240">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N240">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P240">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
+        <v>1.8</v>
+      </c>
+      <c r="S240">
+        <v>2</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2.05</v>
+      </c>
+      <c r="V240">
+        <v>1.75</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>1.875</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.4</v>
+      </c>
+      <c r="AA240">
         <v>-0.5</v>
       </c>
-      <c r="R240">
-        <v>1.925</v>
-      </c>
-      <c r="S240">
-        <v>1.875</v>
-      </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
-      <c r="W240">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.925</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22240,7 +22240,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7859978</v>
+        <v>7859977</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22249,64 +22249,79 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45346.66666666666</v>
+        <v>45345.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>44</v>
       </c>
       <c r="K245">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M245">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N245">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
         <v>3</v>
       </c>
       <c r="P245">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R245">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
         <v>0</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB245">
+        <v>-0.5</v>
+      </c>
+      <c r="AC245">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22314,7 +22329,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7859979</v>
+        <v>7859978</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22323,64 +22338,79 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45346.78125</v>
+        <v>45346.66666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G246" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>44</v>
       </c>
       <c r="K246">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L246">
         <v>3</v>
       </c>
       <c r="M246">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N246">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O246">
+        <v>3</v>
+      </c>
+      <c r="P246">
         <v>3.1</v>
-      </c>
-      <c r="P246">
-        <v>2.875</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+      <c r="AC246">
+        <v>0.8</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22388,7 +22418,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7859980</v>
+        <v>7859979</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22397,49 +22427,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45346.78125</v>
+        <v>45346.89583333334</v>
       </c>
       <c r="F247" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K247">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
         <v>3</v>
       </c>
       <c r="M247">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N247">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P247">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q247">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
         <v>0</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC248"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22418,7 +22418,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7859979</v>
+        <v>7859981</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22427,49 +22427,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45346.89583333334</v>
+        <v>45347.70833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M247">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O247">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P247">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R247">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22484,80 +22484,6 @@
         <v>0</v>
       </c>
       <c r="AA247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248">
-        <v>7859981</v>
-      </c>
-      <c r="C248" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" t="s">
-        <v>28</v>
-      </c>
-      <c r="E248" s="2">
-        <v>45347.70833333334</v>
-      </c>
-      <c r="F248" t="s">
-        <v>41</v>
-      </c>
-      <c r="G248" t="s">
-        <v>31</v>
-      </c>
-      <c r="K248">
-        <v>1.75</v>
-      </c>
-      <c r="L248">
-        <v>3.25</v>
-      </c>
-      <c r="M248">
-        <v>4.5</v>
-      </c>
-      <c r="N248">
-        <v>1.65</v>
-      </c>
-      <c r="O248">
-        <v>3.4</v>
-      </c>
-      <c r="P248">
-        <v>5</v>
-      </c>
-      <c r="Q248">
-        <v>-0.75</v>
-      </c>
-      <c r="R248">
-        <v>1.875</v>
-      </c>
-      <c r="S248">
-        <v>1.925</v>
-      </c>
-      <c r="T248">
-        <v>2.25</v>
-      </c>
-      <c r="U248">
-        <v>1.975</v>
-      </c>
-      <c r="V248">
-        <v>1.825</v>
-      </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,73 +8724,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q93">
         <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236252</v>
+        <v>6236255</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8813,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P94">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
+        <v>1.95</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>1.875</v>
       </c>
-      <c r="W94">
-        <v>0.333</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,13 +8991,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -9006,40 +9006,40 @@
         <v>45</v>
       </c>
       <c r="K96">
+        <v>3.1</v>
+      </c>
+      <c r="L96">
         <v>3.2</v>
-      </c>
-      <c r="L96">
-        <v>3.1</v>
       </c>
       <c r="M96">
         <v>2.15</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
         <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9051,16 +9051,16 @@
         <v>0.75</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>3.2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
+        <v>0.5</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
+        <v>1.875</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>0.75</v>
       </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
-      <c r="W97">
-        <v>3.2</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,76 +9169,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,13 +9347,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9362,40 +9362,40 @@
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9404,19 +9404,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,13 +9436,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9451,40 +9451,40 @@
         <v>45</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9493,19 +9493,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -13421,6 +13421,95 @@
         <v>0.95</v>
       </c>
       <c r="AC145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7859982</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45347.83333333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>45</v>
+      </c>
+      <c r="K146">
+        <v>1.727</v>
+      </c>
+      <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>4.5</v>
+      </c>
+      <c r="N146">
+        <v>1.6</v>
+      </c>
+      <c r="O146">
+        <v>3.5</v>
+      </c>
+      <c r="P146">
+        <v>5</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.825</v>
+      </c>
+      <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.85</v>
+      </c>
+      <c r="V146">
+        <v>1.95</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>4</v>
+      </c>
+      <c r="Z146">
+        <v>-1</v>
+      </c>
+      <c r="AA146">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB146">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC146">
         <v>-1</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,73 +8724,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
+        <v>3.1</v>
+      </c>
+      <c r="L93">
         <v>3.2</v>
       </c>
-      <c r="L93">
-        <v>3.4</v>
-      </c>
       <c r="M93">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
         <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
+        <v>-0.5</v>
+      </c>
+      <c r="AA93">
+        <v>0.5</v>
+      </c>
+      <c r="AB93">
         <v>0.95</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8813,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M94">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N94">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
+        <v>3.75</v>
+      </c>
+      <c r="L96">
         <v>3.1</v>
       </c>
-      <c r="L96">
-        <v>3.2</v>
-      </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5</v>
-      </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.95</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>3.2</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,40 +9169,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9211,7 +9211,7 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9220,13 +9220,13 @@
         <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
         <v>-1</v>
@@ -9235,10 +9235,10 @@
         <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,58 +9525,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9585,16 +9585,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,58 +9614,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9674,16 +9674,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,76 +10682,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,10 +10771,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10786,46 +10786,46 @@
         <v>44</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10834,13 +10834,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10848,7 +10848,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10860,10 +10860,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10875,46 +10875,46 @@
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12462,76 +12462,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.05</v>
+      </c>
+      <c r="V135">
+        <v>1.75</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>1.875</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.4</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.925</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,76 +12551,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,76 +8724,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
+        <v>3.25</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
         <v>3.2</v>
       </c>
-      <c r="M93">
-        <v>2.15</v>
-      </c>
-      <c r="N93">
-        <v>4</v>
-      </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,10 +8813,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8828,43 +8828,43 @@
         <v>46</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8873,16 +8873,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,67 +8902,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
+        <v>1.775</v>
+      </c>
+      <c r="S95">
+        <v>2.025</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.875</v>
       </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
         <v>-0.5</v>
@@ -8971,7 +8971,7 @@
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
+        <v>2.15</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>1.75</v>
+      </c>
+      <c r="Q96">
+        <v>0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
         <v>1.95</v>
       </c>
-      <c r="N96">
-        <v>2.9</v>
-      </c>
-      <c r="O96">
-        <v>2.875</v>
-      </c>
-      <c r="P96">
-        <v>2.45</v>
-      </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.775</v>
-      </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,40 +9169,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
+        <v>1.333</v>
+      </c>
+      <c r="O98">
         <v>4.5</v>
       </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9211,7 +9211,7 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9220,13 +9220,13 @@
         <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
@@ -9235,10 +9235,10 @@
         <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,76 +9258,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>-0.5</v>
       </c>
-      <c r="AA99">
-        <v>0.5125</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,13 +9347,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9362,40 +9362,40 @@
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9404,19 +9404,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,13 +9436,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9451,40 +9451,40 @@
         <v>45</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9493,19 +9493,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,58 +9525,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9585,16 +9585,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,58 +9614,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9674,16 +9674,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -13511,6 +13511,406 @@
       </c>
       <c r="AC146">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7889199</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45352.70833333334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>42</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>44</v>
+      </c>
+      <c r="K147">
+        <v>2.6</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>2.5</v>
+      </c>
+      <c r="N147">
+        <v>2.1</v>
+      </c>
+      <c r="O147">
+        <v>2.9</v>
+      </c>
+      <c r="P147">
+        <v>3.3</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>1.8</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>1.9</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>-0.5</v>
+      </c>
+      <c r="AA147">
+        <v>0.4625</v>
+      </c>
+      <c r="AB147">
+        <v>-0.5</v>
+      </c>
+      <c r="AC147">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7889200</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45352.83333333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>3.1</v>
+      </c>
+      <c r="M148">
+        <v>3.4</v>
+      </c>
+      <c r="N148">
+        <v>2.1</v>
+      </c>
+      <c r="O148">
+        <v>3</v>
+      </c>
+      <c r="P148">
+        <v>3.4</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>1.775</v>
+      </c>
+      <c r="S148">
+        <v>2.025</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.85</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>1.1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7889201</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45353.66666666666</v>
+      </c>
+      <c r="F149" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+      <c r="K149">
+        <v>1.909</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>3.75</v>
+      </c>
+      <c r="N149">
+        <v>2.1</v>
+      </c>
+      <c r="O149">
+        <v>3.1</v>
+      </c>
+      <c r="P149">
+        <v>3.4</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.85</v>
+      </c>
+      <c r="S149">
+        <v>1.95</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
+        <v>2.05</v>
+      </c>
+      <c r="V149">
+        <v>1.75</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7889202</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45353.78125</v>
+      </c>
+      <c r="F150" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s">
+        <v>36</v>
+      </c>
+      <c r="K150">
+        <v>2.625</v>
+      </c>
+      <c r="L150">
+        <v>3.1</v>
+      </c>
+      <c r="M150">
+        <v>2.5</v>
+      </c>
+      <c r="N150">
+        <v>2.375</v>
+      </c>
+      <c r="O150">
+        <v>3.25</v>
+      </c>
+      <c r="P150">
+        <v>2.625</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>1.775</v>
+      </c>
+      <c r="S150">
+        <v>2.025</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.85</v>
+      </c>
+      <c r="V150">
+        <v>1.95</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7889204</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45354.70833333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s">
+        <v>35</v>
+      </c>
+      <c r="K151">
+        <v>2.7</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>2.75</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151">
+        <v>2.5</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>1.8</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.8</v>
+      </c>
+      <c r="V151">
+        <v>2</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236253</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,49 +8724,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8775,19 +8775,19 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.4375</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.5125</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,58 +8813,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>46</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
         <v>3.4</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8873,16 +8873,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236255</v>
+        <v>6236253</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,10 +8902,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,25 +8917,25 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P95">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
         <v>1.775</v>
@@ -8947,31 +8947,31 @@
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
+        <v>3.75</v>
+      </c>
+      <c r="L96">
         <v>3.1</v>
       </c>
-      <c r="L96">
-        <v>3.2</v>
-      </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="V96">
-        <v>1.85</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5</v>
-      </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.95</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>3.2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
+        <v>0.5</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
+        <v>1.875</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
         <v>0.75</v>
       </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.825</v>
-      </c>
-      <c r="V97">
-        <v>1.975</v>
-      </c>
-      <c r="W97">
-        <v>3.2</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,76 +9169,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,40 +9258,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N99">
+        <v>1.333</v>
+      </c>
+      <c r="O99">
         <v>4.5</v>
       </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
       <c r="P99">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9300,7 +9300,7 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9309,13 +9309,13 @@
         <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
@@ -9324,10 +9324,10 @@
         <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10759,7 +10759,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10771,10 +10771,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10786,46 +10786,46 @@
         <v>44</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10834,13 +10834,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10848,7 +10848,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10860,10 +10860,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10875,46 +10875,46 @@
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10923,13 +10923,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12462,76 +12462,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12539,7 +12539,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12551,76 +12551,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>1.75</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>1.875</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.925</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13713,6 +13713,15 @@
       <c r="G149" t="s">
         <v>34</v>
       </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>44</v>
+      </c>
       <c r="K149">
         <v>1.909</v>
       </c>
@@ -13726,43 +13735,49 @@
         <v>2.1</v>
       </c>
       <c r="O149">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q149">
         <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB149">
+        <v>1.025</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13770,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7889202</v>
+        <v>7889204</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13779,49 +13794,49 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45353.78125</v>
+        <v>45354.70833333334</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K150">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L150">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M150">
         <v>2.5</v>
       </c>
       <c r="N150">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P150">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q150">
         <v>0</v>
       </c>
       <c r="R150">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13844,7 +13859,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7889204</v>
+        <v>7889205</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13853,43 +13868,43 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45354.70833333334</v>
+        <v>45354.83333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K151">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N151">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="O151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
         <v>1.8</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>UCV</t>
+  </si>
+  <si>
+    <t>Inter de Barinas</t>
   </si>
   <si>
     <t>D</t>
@@ -516,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>2.6</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1.909</v>
@@ -815,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1.75</v>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.15</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1082,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>2.05</v>
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1260,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>2.4</v>
@@ -1349,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1.75</v>
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>2.875</v>
@@ -1616,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.55</v>
@@ -1705,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>1.75</v>
@@ -1794,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.8</v>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1972,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>1.5</v>
@@ -2061,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>3.1</v>
@@ -2150,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2239,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1.909</v>
@@ -2328,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>2.75</v>
@@ -2417,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2506,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>1.95</v>
@@ -2595,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>3.2</v>
@@ -2684,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>3.6</v>
@@ -2773,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.4</v>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>2.15</v>
@@ -2951,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -3040,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>3.8</v>
@@ -3129,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1.666</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3307,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.533</v>
@@ -3396,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>1.615</v>
@@ -3485,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.666</v>
@@ -3574,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>2.2</v>
@@ -3663,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3752,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.8</v>
@@ -3841,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>3.75</v>
@@ -3930,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>2.15</v>
@@ -4019,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>3.75</v>
@@ -4108,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>3.3</v>
@@ -4197,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -4286,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4375,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4464,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.7</v>
@@ -4553,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>2.05</v>
@@ -4642,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1.615</v>
@@ -4731,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1.909</v>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.571</v>
@@ -4909,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.4</v>
@@ -4998,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>1.95</v>
@@ -5087,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>2.8</v>
@@ -5176,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5265,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5354,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.45</v>
@@ -5443,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.75</v>
@@ -5532,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2.75</v>
@@ -5621,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>1.727</v>
@@ -5710,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>4.5</v>
@@ -5799,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.15</v>
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>1.4</v>
@@ -5977,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6066,7 +6069,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>3.1</v>
@@ -6155,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.8</v>
@@ -6244,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>2.15</v>
@@ -6333,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6422,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>1.909</v>
@@ -6511,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.2</v>
@@ -6600,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>2.7</v>
@@ -6689,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>2.45</v>
@@ -6778,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>3</v>
@@ -6867,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>1.666</v>
@@ -6956,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7045,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.45</v>
@@ -7134,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7223,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>2.8</v>
@@ -7312,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>4.333</v>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.6</v>
@@ -7490,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2.5</v>
@@ -7579,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>2.7</v>
@@ -7757,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.8</v>
@@ -7846,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>1.615</v>
@@ -7935,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8024,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>1.666</v>
@@ -8113,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>3.3</v>
@@ -8202,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8291,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>2.2</v>
@@ -8380,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>4</v>
@@ -8469,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>1.533</v>
@@ -8558,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.5</v>
@@ -8647,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>3.4</v>
@@ -8712,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8724,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8801,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P94">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
+        <v>1.775</v>
+      </c>
+      <c r="S94">
+        <v>2.025</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
         <v>1.95</v>
       </c>
-      <c r="S94">
-        <v>1.85</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.825</v>
-      </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
       <c r="W94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.3875</v>
+      </c>
+      <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.95</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0.825</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
+        <v>3.8</v>
+      </c>
+      <c r="P95">
+        <v>1.65</v>
+      </c>
+      <c r="Q95">
+        <v>0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
         <v>3.2</v>
       </c>
-      <c r="P95">
-        <v>3.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
-        <v>1.775</v>
-      </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236612</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
         <v>3.1</v>
       </c>
       <c r="M96">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
+        <v>0.8</v>
+      </c>
+      <c r="AB96">
         <v>-0.5</v>
       </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>45</v>
       </c>
       <c r="K97">
+        <v>1.833</v>
+      </c>
+      <c r="L97">
+        <v>3.25</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
         <v>3.2</v>
       </c>
-      <c r="L97">
-        <v>3.1</v>
-      </c>
-      <c r="M97">
-        <v>2.15</v>
-      </c>
-      <c r="N97">
-        <v>4.5</v>
-      </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.4375</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="AA98">
-        <v>0.5</v>
-      </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9270,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.363</v>
@@ -9359,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.3</v>
@@ -9448,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>2.45</v>
@@ -9513,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9585,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9674,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9804,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9893,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>2.45</v>
@@ -9982,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.8</v>
@@ -10071,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.833</v>
@@ -10160,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.615</v>
@@ -10249,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.1</v>
@@ -10338,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>2.1</v>
@@ -10427,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>3</v>
@@ -10516,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>1.8</v>
@@ -10581,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10783,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10872,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2.3</v>
@@ -10961,7 +10964,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.05</v>
@@ -11050,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>1.95</v>
@@ -11139,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11228,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.75</v>
@@ -11317,7 +11320,7 @@
         <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.3</v>
@@ -11406,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>2.5</v>
@@ -11495,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>1.444</v>
@@ -11584,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>2.15</v>
@@ -11673,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>2.9</v>
@@ -11762,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>3.75</v>
@@ -11851,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>1.615</v>
@@ -11940,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>2.2</v>
@@ -12029,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>3.25</v>
@@ -12118,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>3</v>
@@ -12207,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12296,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>2.2</v>
@@ -12385,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>1.8</v>
@@ -12474,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12563,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>2.75</v>
@@ -12652,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
         <v>1.444</v>
@@ -12741,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>2.3</v>
@@ -12830,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.8</v>
@@ -12919,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>3.2</v>
@@ -13008,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.1</v>
@@ -13097,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>2.4</v>
@@ -13186,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>3.8</v>
@@ -13275,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.3</v>
@@ -13364,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13453,7 +13456,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>1.727</v>
@@ -13542,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>2.6</v>
@@ -13631,7 +13634,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -13720,7 +13723,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>1.909</v>
@@ -13785,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7889204</v>
+        <v>7889202</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13794,64 +13797,79 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45354.70833333334</v>
+        <v>45353.78125</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M150">
         <v>2.5</v>
       </c>
       <c r="N150">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q150">
         <v>0</v>
       </c>
       <c r="R150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
+        <v>1.975</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
         <v>2.25</v>
       </c>
-      <c r="U150">
-        <v>2.05</v>
-      </c>
-      <c r="V150">
-        <v>1.75</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
         <v>0</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13859,72 +13877,413 @@
         <v>149</v>
       </c>
       <c r="B151">
+        <v>7889203</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45353.89583333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>44</v>
+      </c>
+      <c r="G151" t="s">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>46</v>
+      </c>
+      <c r="K151">
+        <v>2.75</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>2.45</v>
+      </c>
+      <c r="N151">
+        <v>2.9</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151">
+        <v>2.375</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.775</v>
+      </c>
+      <c r="S151">
+        <v>2.025</v>
+      </c>
+      <c r="T151">
+        <v>2</v>
+      </c>
+      <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>1.975</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>1.375</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>1.025</v>
+      </c>
+      <c r="AB151">
+        <v>0.825</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7889204</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45354.70833333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>45</v>
+      </c>
+      <c r="K152">
+        <v>2.7</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
+        <v>2.25</v>
+      </c>
+      <c r="O152">
+        <v>2.875</v>
+      </c>
+      <c r="P152">
+        <v>3.3</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
+        <v>1.85</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.05</v>
+      </c>
+      <c r="V152">
+        <v>1.75</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>1.875</v>
+      </c>
+      <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
+        <v>-0.5</v>
+      </c>
+      <c r="AA152">
+        <v>0.425</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
         <v>7889205</v>
       </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="2">
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
         <v>45354.83333333334</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F153" t="s">
         <v>38</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G153" t="s">
         <v>32</v>
       </c>
-      <c r="K151">
+      <c r="H153">
+        <v>3</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153">
         <v>1.533</v>
       </c>
-      <c r="L151">
+      <c r="L153">
         <v>3.75</v>
       </c>
-      <c r="M151">
+      <c r="M153">
         <v>5.5</v>
       </c>
-      <c r="N151">
-        <v>1.666</v>
-      </c>
-      <c r="O151">
-        <v>3.5</v>
-      </c>
-      <c r="P151">
-        <v>4.75</v>
-      </c>
-      <c r="Q151">
-        <v>-0.75</v>
-      </c>
-      <c r="R151">
+      <c r="N153">
+        <v>1.571</v>
+      </c>
+      <c r="O153">
+        <v>3.6</v>
+      </c>
+      <c r="P153">
+        <v>5.25</v>
+      </c>
+      <c r="Q153">
+        <v>-1</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.775</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.825</v>
+      </c>
+      <c r="V153">
+        <v>1.975</v>
+      </c>
+      <c r="W153">
+        <v>0.571</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>1.025</v>
+      </c>
+      <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>0.825</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7920995</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45359.79166666666</v>
+      </c>
+      <c r="F154" t="s">
+        <v>35</v>
+      </c>
+      <c r="G154" t="s">
+        <v>38</v>
+      </c>
+      <c r="K154">
+        <v>1.95</v>
+      </c>
+      <c r="L154">
+        <v>3.1</v>
+      </c>
+      <c r="M154">
+        <v>3.75</v>
+      </c>
+      <c r="N154">
+        <v>1.85</v>
+      </c>
+      <c r="O154">
+        <v>3.2</v>
+      </c>
+      <c r="P154">
+        <v>4</v>
+      </c>
+      <c r="Q154">
+        <v>-0.5</v>
+      </c>
+      <c r="R154">
         <v>1.9</v>
       </c>
-      <c r="S151">
+      <c r="S154">
         <v>1.9</v>
       </c>
-      <c r="T151">
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
+        <v>1.9</v>
+      </c>
+      <c r="V154">
+        <v>1.9</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7920996</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45359.83333333334</v>
+      </c>
+      <c r="F155" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" t="s">
+        <v>41</v>
+      </c>
+      <c r="K155">
+        <v>2.375</v>
+      </c>
+      <c r="L155">
+        <v>3.1</v>
+      </c>
+      <c r="M155">
+        <v>2.8</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>1.833</v>
+      </c>
+      <c r="Q155">
+        <v>0.5</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
         <v>2.25</v>
       </c>
-      <c r="U151">
-        <v>1.8</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
+      <c r="U155">
+        <v>1.9</v>
+      </c>
+      <c r="V155">
+        <v>1.9</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8727,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q93">
         <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,10 +8816,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8831,25 +8831,25 @@
         <v>45</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
         <v>1.775</v>
@@ -8861,31 +8861,31 @@
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
+        <v>0.5</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1.8</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
         <v>0.75</v>
       </c>
-      <c r="R95">
-        <v>1.95</v>
-      </c>
-      <c r="S95">
-        <v>1.85</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
-      <c r="W95">
-        <v>3.2</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236254</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236255</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>1.875</v>
       </c>
-      <c r="W99">
-        <v>0.333</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -14161,6 +14161,15 @@
       <c r="G154" t="s">
         <v>38</v>
       </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>46</v>
+      </c>
       <c r="K154">
         <v>1.95</v>
       </c>
@@ -14171,46 +14180,52 @@
         <v>3.75</v>
       </c>
       <c r="N154">
+        <v>2.15</v>
+      </c>
+      <c r="O154">
+        <v>2.9</v>
+      </c>
+      <c r="P154">
+        <v>3.4</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
         <v>1.85</v>
       </c>
-      <c r="O154">
-        <v>3.2</v>
-      </c>
-      <c r="P154">
-        <v>4</v>
-      </c>
-      <c r="Q154">
-        <v>-0.5</v>
-      </c>
-      <c r="R154">
-        <v>1.9</v>
-      </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
         <v>2</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
+        <v>0.75</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14235,6 +14250,15 @@
       <c r="G155" t="s">
         <v>41</v>
       </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>46</v>
+      </c>
       <c r="K155">
         <v>2.375</v>
       </c>
@@ -14245,45 +14269,421 @@
         <v>2.8</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P155">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
+        <v>1.075</v>
+      </c>
+      <c r="AB155">
+        <v>1.05</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7920965</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45360.66666666666</v>
+      </c>
+      <c r="F156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.2</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>1.833</v>
+      </c>
+      <c r="O156">
+        <v>3.4</v>
+      </c>
+      <c r="P156">
+        <v>4</v>
+      </c>
+      <c r="Q156">
+        <v>-0.5</v>
+      </c>
+      <c r="R156">
+        <v>1.925</v>
+      </c>
+      <c r="S156">
+        <v>1.875</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
+        <v>1.95</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7920998</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45360.79166666666</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>33</v>
+      </c>
+      <c r="K157">
+        <v>3.75</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>1.909</v>
+      </c>
+      <c r="N157">
+        <v>2.875</v>
+      </c>
+      <c r="O157">
+        <v>3</v>
+      </c>
+      <c r="P157">
+        <v>2.4</v>
+      </c>
+      <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.75</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7920997</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45360.79166666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>42</v>
+      </c>
+      <c r="G158" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158">
+        <v>1.833</v>
+      </c>
+      <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4.2</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>3.6</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>1.75</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
+        <v>1.925</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7920999</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45361.66666666666</v>
+      </c>
+      <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>37</v>
+      </c>
+      <c r="K159">
+        <v>2.2</v>
+      </c>
+      <c r="L159">
+        <v>2.875</v>
+      </c>
+      <c r="M159">
+        <v>3.3</v>
+      </c>
+      <c r="N159">
+        <v>2.2</v>
+      </c>
+      <c r="O159">
+        <v>2.875</v>
+      </c>
+      <c r="P159">
+        <v>3.4</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.875</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
+        <v>1.8</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7921000</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45361.83333333334</v>
+      </c>
+      <c r="F160" t="s">
+        <v>40</v>
+      </c>
+      <c r="G160" t="s">
+        <v>30</v>
+      </c>
+      <c r="K160">
+        <v>2.375</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>2.875</v>
+      </c>
+      <c r="N160">
+        <v>2.3</v>
+      </c>
+      <c r="O160">
+        <v>3</v>
+      </c>
+      <c r="P160">
+        <v>3</v>
+      </c>
+      <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>1.85</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236612</v>
+        <v>6236255</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
         <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.875</v>
       </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.4375</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="AA98">
-        <v>0.5</v>
-      </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236255</v>
+        <v>6236612</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L99">
         <v>3.1</v>
       </c>
       <c r="M99">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>-0.5</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14339,6 +14339,15 @@
       <c r="G156" t="s">
         <v>44</v>
       </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156" t="s">
+        <v>46</v>
+      </c>
       <c r="K156">
         <v>2.2</v>
       </c>
@@ -14349,46 +14358,52 @@
         <v>3</v>
       </c>
       <c r="N156">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB156">
+        <v>-0.5</v>
+      </c>
+      <c r="AC156">
+        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14396,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14408,61 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>3.2</v>
       </c>
-      <c r="M157">
-        <v>1.909</v>
-      </c>
-      <c r="N157">
-        <v>2.875</v>
-      </c>
-      <c r="O157">
-        <v>3</v>
-      </c>
-      <c r="P157">
-        <v>2.4</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.75</v>
-      </c>
-      <c r="S157">
-        <v>2.05</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14470,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14482,61 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>2.05</v>
-      </c>
-      <c r="S158">
-        <v>1.75</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.875</v>
-      </c>
-      <c r="V158">
-        <v>1.925</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
+      <c r="AB158">
+        <v>0.825</v>
+      </c>
+      <c r="AC158">
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14561,6 +14606,15 @@
       <c r="G159" t="s">
         <v>37</v>
       </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159" t="s">
+        <v>46</v>
+      </c>
       <c r="K159">
         <v>2.2</v>
       </c>
@@ -14571,46 +14625,52 @@
         <v>3.3</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
         <v>2.875</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.925</v>
-      </c>
-      <c r="S159">
-        <v>1.875</v>
       </c>
       <c r="T159">
         <v>2.25</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB159">
+        <v>1.025</v>
+      </c>
+      <c r="AC159">
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14635,6 +14695,15 @@
       <c r="G160" t="s">
         <v>30</v>
       </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>46</v>
+      </c>
       <c r="K160">
         <v>2.375</v>
       </c>
@@ -14645,46 +14714,52 @@
         <v>2.875</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O160">
         <v>3</v>
       </c>
       <c r="P160">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB160">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC160"/>
+  <dimension ref="A1:AC166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
+        <v>0.5</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>1.8</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
         <v>0.75</v>
       </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.85</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
-      <c r="U93">
-        <v>1.825</v>
-      </c>
-      <c r="V93">
-        <v>1.975</v>
-      </c>
-      <c r="W93">
-        <v>3.2</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236252</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
+        <v>2.15</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <v>3.6</v>
+      </c>
+      <c r="P95">
+        <v>1.75</v>
+      </c>
+      <c r="Q95">
+        <v>0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
         <v>1.95</v>
       </c>
-      <c r="N95">
-        <v>2.9</v>
-      </c>
-      <c r="O95">
-        <v>2.875</v>
-      </c>
-      <c r="P95">
-        <v>2.45</v>
-      </c>
-      <c r="Q95">
-        <v>0.25</v>
-      </c>
-      <c r="R95">
-        <v>1.775</v>
-      </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.4375</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5</v>
-      </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9098,25 +9098,25 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9128,31 +9128,31 @@
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.3875</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="AA97">
-        <v>0.5125</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236254</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,43 +9187,43 @@
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>3.2</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.05</v>
+      </c>
+      <c r="V135">
+        <v>1.75</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>1.875</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.4</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.925</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14760,6 +14760,525 @@
       </c>
       <c r="AC160">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7952892</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45366.70833333334</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161" t="s">
+        <v>46</v>
+      </c>
+      <c r="K161">
+        <v>2.25</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>2.8</v>
+      </c>
+      <c r="O161">
+        <v>3.1</v>
+      </c>
+      <c r="P161">
+        <v>2.3</v>
+      </c>
+      <c r="Q161">
+        <v>0.25</v>
+      </c>
+      <c r="R161">
+        <v>1.75</v>
+      </c>
+      <c r="S161">
+        <v>2.05</v>
+      </c>
+      <c r="T161">
+        <v>2</v>
+      </c>
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
+        <v>-1</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>1.3</v>
+      </c>
+      <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>1.05</v>
+      </c>
+      <c r="AB161">
+        <v>0.825</v>
+      </c>
+      <c r="AC161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7952905</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45366.83333333334</v>
+      </c>
+      <c r="F162" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>47</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
+        <v>2.1</v>
+      </c>
+      <c r="Q162">
+        <v>0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
+        <v>2.025</v>
+      </c>
+      <c r="V162">
+        <v>1.775</v>
+      </c>
+      <c r="W162">
+        <v>2.75</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
+        <v>0.95</v>
+      </c>
+      <c r="AA162">
+        <v>-1</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+      <c r="AC162">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7952893</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45366.83333333334</v>
+      </c>
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" t="s">
+        <v>40</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163">
+        <v>2.1</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>1.8</v>
+      </c>
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>-0.5</v>
+      </c>
+      <c r="AA163">
+        <v>0.3875</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+      <c r="AC163">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7952906</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45367.66666666666</v>
+      </c>
+      <c r="F164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>45</v>
+      </c>
+      <c r="K164">
+        <v>1.666</v>
+      </c>
+      <c r="L164">
+        <v>3.5</v>
+      </c>
+      <c r="M164">
+        <v>4.5</v>
+      </c>
+      <c r="N164">
+        <v>1.75</v>
+      </c>
+      <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
+        <v>4.2</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="T164">
+        <v>2.5</v>
+      </c>
+      <c r="U164">
+        <v>1.975</v>
+      </c>
+      <c r="V164">
+        <v>1.825</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>2.4</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7952907</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45367.78125</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>47</v>
+      </c>
+      <c r="K165">
+        <v>1.571</v>
+      </c>
+      <c r="L165">
+        <v>3.4</v>
+      </c>
+      <c r="M165">
+        <v>5.5</v>
+      </c>
+      <c r="N165">
+        <v>1.666</v>
+      </c>
+      <c r="O165">
+        <v>3.3</v>
+      </c>
+      <c r="P165">
+        <v>4.5</v>
+      </c>
+      <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.975</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>1.975</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA165">
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC165">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7952895</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45368.75</v>
+      </c>
+      <c r="F166" t="s">
+        <v>41</v>
+      </c>
+      <c r="G166" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166">
+        <v>1.833</v>
+      </c>
+      <c r="L166">
+        <v>3.3</v>
+      </c>
+      <c r="M166">
+        <v>3.75</v>
+      </c>
+      <c r="N166">
+        <v>1.8</v>
+      </c>
+      <c r="O166">
+        <v>3.3</v>
+      </c>
+      <c r="P166">
+        <v>3.8</v>
+      </c>
+      <c r="Q166">
+        <v>-0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.85</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC166"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236612</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="AA94">
-        <v>0.5125</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q95">
         <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,49 +8994,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.9</v>
@@ -9045,19 +9045,19 @@
         <v>1.9</v>
       </c>
       <c r="W96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB96">
         <v>-1</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
         <v>1.95</v>
       </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.3875</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.95</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.825</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>1.75</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>1.875</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.925</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>1.9</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.4</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.9</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>3.2</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4.2</v>
+      </c>
+      <c r="N158">
+        <v>1.833</v>
+      </c>
+      <c r="O158">
+        <v>3.1</v>
+      </c>
+      <c r="P158">
+        <v>4.2</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
         <v>3.2</v>
       </c>
-      <c r="M158">
-        <v>1.909</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>1.9</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
       <c r="Z158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7952895</v>
+        <v>7952894</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15221,13 +15221,22 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45368.75</v>
+        <v>45367.89583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
       </c>
       <c r="K166">
         <v>1.833</v>
@@ -15239,45 +15248,1460 @@
         <v>3.75</v>
       </c>
       <c r="N166">
+        <v>2.1</v>
+      </c>
+      <c r="O166">
+        <v>3.1</v>
+      </c>
+      <c r="P166">
+        <v>3.2</v>
+      </c>
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
+        <v>2.05</v>
+      </c>
+      <c r="V166">
+        <v>1.75</v>
+      </c>
+      <c r="W166">
+        <v>1.1</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.875</v>
+      </c>
+      <c r="AA166">
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>-0.5</v>
+      </c>
+      <c r="AC166">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7952895</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45368.75</v>
+      </c>
+      <c r="F167" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>47</v>
+      </c>
+      <c r="K167">
+        <v>1.833</v>
+      </c>
+      <c r="L167">
+        <v>3.3</v>
+      </c>
+      <c r="M167">
+        <v>3.75</v>
+      </c>
+      <c r="N167">
+        <v>1.6</v>
+      </c>
+      <c r="O167">
+        <v>3.5</v>
+      </c>
+      <c r="P167">
+        <v>4.75</v>
+      </c>
+      <c r="Q167">
+        <v>-0.75</v>
+      </c>
+      <c r="R167">
         <v>1.8</v>
       </c>
-      <c r="O166">
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.4</v>
+      </c>
+      <c r="AA167">
+        <v>-0.5</v>
+      </c>
+      <c r="AB167">
+        <v>0.95</v>
+      </c>
+      <c r="AC167">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7958187</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45370.66666666666</v>
+      </c>
+      <c r="F168" t="s">
+        <v>29</v>
+      </c>
+      <c r="G168" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>46</v>
+      </c>
+      <c r="K168">
+        <v>2.5</v>
+      </c>
+      <c r="L168">
+        <v>2.9</v>
+      </c>
+      <c r="M168">
+        <v>2.7</v>
+      </c>
+      <c r="N168">
+        <v>2.8</v>
+      </c>
+      <c r="O168">
+        <v>3</v>
+      </c>
+      <c r="P168">
+        <v>2.3</v>
+      </c>
+      <c r="Q168">
+        <v>0.25</v>
+      </c>
+      <c r="R168">
+        <v>1.75</v>
+      </c>
+      <c r="S168">
+        <v>2.05</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>1.8</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>1.3</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>1.05</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7958188</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45370.78125</v>
+      </c>
+      <c r="F169" t="s">
+        <v>40</v>
+      </c>
+      <c r="G169" t="s">
+        <v>42</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>45</v>
+      </c>
+      <c r="K169">
+        <v>2.4</v>
+      </c>
+      <c r="L169">
+        <v>3.1</v>
+      </c>
+      <c r="M169">
+        <v>2.8</v>
+      </c>
+      <c r="N169">
+        <v>2.2</v>
+      </c>
+      <c r="O169">
+        <v>3.1</v>
+      </c>
+      <c r="P169">
+        <v>3.2</v>
+      </c>
+      <c r="Q169">
+        <v>-0.25</v>
+      </c>
+      <c r="R169">
+        <v>1.9</v>
+      </c>
+      <c r="S169">
+        <v>1.9</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>2.05</v>
+      </c>
+      <c r="V169">
+        <v>1.75</v>
+      </c>
+      <c r="W169">
+        <v>-1</v>
+      </c>
+      <c r="X169">
+        <v>2.1</v>
+      </c>
+      <c r="Y169">
+        <v>-1</v>
+      </c>
+      <c r="Z169">
+        <v>-0.5</v>
+      </c>
+      <c r="AA169">
+        <v>0.45</v>
+      </c>
+      <c r="AB169">
+        <v>-1</v>
+      </c>
+      <c r="AC169">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7958189</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45370.89583333334</v>
+      </c>
+      <c r="F170" t="s">
+        <v>36</v>
+      </c>
+      <c r="G170" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>47</v>
+      </c>
+      <c r="K170">
+        <v>2.3</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>2.625</v>
+      </c>
+      <c r="O170">
+        <v>2.8</v>
+      </c>
+      <c r="P170">
+        <v>2.75</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>2</v>
+      </c>
+      <c r="U170">
+        <v>1.85</v>
+      </c>
+      <c r="V170">
+        <v>1.95</v>
+      </c>
+      <c r="W170">
+        <v>1.625</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0.8</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>7958190</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45371.66666666666</v>
+      </c>
+      <c r="F171" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" t="s">
+        <v>44</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>46</v>
+      </c>
+      <c r="K171">
+        <v>2.25</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>2.3</v>
+      </c>
+      <c r="O171">
+        <v>2.9</v>
+      </c>
+      <c r="P171">
+        <v>3</v>
+      </c>
+      <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>1.825</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>1.8</v>
+      </c>
+      <c r="V171">
+        <v>2</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>2</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.825</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>7958191</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45371.78125</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s">
+        <v>37</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>46</v>
+      </c>
+      <c r="K172">
+        <v>1.615</v>
+      </c>
+      <c r="L172">
+        <v>3.4</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172">
+        <v>1.444</v>
+      </c>
+      <c r="O172">
+        <v>4.2</v>
+      </c>
+      <c r="P172">
+        <v>5.5</v>
+      </c>
+      <c r="Q172">
+        <v>-1.25</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>1.8</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>4.5</v>
+      </c>
+      <c r="Z172">
+        <v>-1</v>
+      </c>
+      <c r="AA172">
+        <v>0.8</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7958193</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45371.89583333334</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" t="s">
+        <v>38</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>45</v>
+      </c>
+      <c r="K173">
+        <v>3.75</v>
+      </c>
+      <c r="L173">
         <v>3.3</v>
       </c>
-      <c r="P166">
-        <v>3.8</v>
-      </c>
-      <c r="Q166">
+      <c r="M173">
+        <v>1.85</v>
+      </c>
+      <c r="N173">
+        <v>3.1</v>
+      </c>
+      <c r="O173">
+        <v>3.2</v>
+      </c>
+      <c r="P173">
+        <v>2.1</v>
+      </c>
+      <c r="Q173">
+        <v>0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.875</v>
+      </c>
+      <c r="S173">
+        <v>1.925</v>
+      </c>
+      <c r="T173">
+        <v>2.25</v>
+      </c>
+      <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
+        <v>1.775</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>2.2</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.4375</v>
+      </c>
+      <c r="AA173">
         <v>-0.5</v>
       </c>
-      <c r="R166">
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7958192</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45371.89583333334</v>
+      </c>
+      <c r="F174" t="s">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>41</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174">
+        <v>1.666</v>
+      </c>
+      <c r="L174">
+        <v>3.4</v>
+      </c>
+      <c r="M174">
+        <v>4.5</v>
+      </c>
+      <c r="N174">
+        <v>1.95</v>
+      </c>
+      <c r="O174">
+        <v>3.25</v>
+      </c>
+      <c r="P174">
+        <v>3.5</v>
+      </c>
+      <c r="Q174">
+        <v>-0.5</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>2.025</v>
+      </c>
+      <c r="V174">
+        <v>1.775</v>
+      </c>
+      <c r="W174">
+        <v>0.95</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA174">
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7994464</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45373.83333333334</v>
+      </c>
+      <c r="F175" t="s">
+        <v>43</v>
+      </c>
+      <c r="G175" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>47</v>
+      </c>
+      <c r="K175">
+        <v>2.3</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>3</v>
+      </c>
+      <c r="N175">
+        <v>2.1</v>
+      </c>
+      <c r="O175">
+        <v>3.1</v>
+      </c>
+      <c r="P175">
+        <v>3.75</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>1.775</v>
+      </c>
+      <c r="V175">
+        <v>2.025</v>
+      </c>
+      <c r="W175">
+        <v>1.1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
+        <v>0.8</v>
+      </c>
+      <c r="AA175">
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7995215</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45374.70833333334</v>
+      </c>
+      <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176">
+        <v>1.833</v>
+      </c>
+      <c r="L176">
+        <v>3.3</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>1.6</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>5</v>
+      </c>
+      <c r="Q176">
+        <v>-0.75</v>
+      </c>
+      <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
+        <v>2</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>1.9</v>
+      </c>
+      <c r="V176">
+        <v>1.9</v>
+      </c>
+      <c r="W176">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.4</v>
+      </c>
+      <c r="AA176">
+        <v>-0.5</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7995216</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45374.83333333334</v>
+      </c>
+      <c r="F177" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>47</v>
+      </c>
+      <c r="K177">
+        <v>1.571</v>
+      </c>
+      <c r="L177">
+        <v>3.3</v>
+      </c>
+      <c r="M177">
+        <v>6</v>
+      </c>
+      <c r="N177">
+        <v>1.444</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
+        <v>7</v>
+      </c>
+      <c r="Q177">
+        <v>-1</v>
+      </c>
+      <c r="R177">
+        <v>1.75</v>
+      </c>
+      <c r="S177">
+        <v>2.05</v>
+      </c>
+      <c r="T177">
+        <v>2.25</v>
+      </c>
+      <c r="U177">
+        <v>1.825</v>
+      </c>
+      <c r="V177">
+        <v>1.975</v>
+      </c>
+      <c r="W177">
+        <v>0.444</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>-0</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7995214</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45375.66666666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>47</v>
+      </c>
+      <c r="K178">
+        <v>1.727</v>
+      </c>
+      <c r="L178">
+        <v>3.2</v>
+      </c>
+      <c r="M178">
+        <v>4.75</v>
+      </c>
+      <c r="N178">
+        <v>1.833</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178">
+        <v>4.5</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
         <v>1.85</v>
       </c>
-      <c r="S166">
+      <c r="S178">
         <v>1.95</v>
       </c>
-      <c r="T166">
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>2.025</v>
+      </c>
+      <c r="V178">
+        <v>1.775</v>
+      </c>
+      <c r="W178">
+        <v>0.833</v>
+      </c>
+      <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>1.025</v>
+      </c>
+      <c r="AC178">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7995213</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45375.78125</v>
+      </c>
+      <c r="F179" t="s">
+        <v>41</v>
+      </c>
+      <c r="G179" t="s">
+        <v>33</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>45</v>
+      </c>
+      <c r="K179">
+        <v>2.8</v>
+      </c>
+      <c r="L179">
+        <v>2.875</v>
+      </c>
+      <c r="M179">
         <v>2.5</v>
       </c>
-      <c r="U166">
+      <c r="N179">
+        <v>2.1</v>
+      </c>
+      <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
+        <v>3.5</v>
+      </c>
+      <c r="Q179">
+        <v>-0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
+        <v>1.775</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>1.9</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>-0.5</v>
+      </c>
+      <c r="AA179">
+        <v>0.5</v>
+      </c>
+      <c r="AB179">
+        <v>-0.5</v>
+      </c>
+      <c r="AC179">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7977858</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45375.89583333334</v>
+      </c>
+      <c r="F180" t="s">
+        <v>44</v>
+      </c>
+      <c r="G180" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>45</v>
+      </c>
+      <c r="K180">
+        <v>3.6</v>
+      </c>
+      <c r="L180">
+        <v>3.3</v>
+      </c>
+      <c r="M180">
+        <v>1.909</v>
+      </c>
+      <c r="N180">
+        <v>3.6</v>
+      </c>
+      <c r="O180">
+        <v>3.2</v>
+      </c>
+      <c r="P180">
+        <v>1.95</v>
+      </c>
+      <c r="Q180">
+        <v>0.5</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.9</v>
+      </c>
+      <c r="V180">
+        <v>1.9</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.2</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0.8</v>
+      </c>
+      <c r="AA180">
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7977856</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45376.75</v>
+      </c>
+      <c r="F181" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" t="s">
+        <v>38</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>47</v>
+      </c>
+      <c r="K181">
+        <v>2.7</v>
+      </c>
+      <c r="L181">
+        <v>2.9</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>1.85</v>
+      </c>
+      <c r="Q181">
+        <v>0.5</v>
+      </c>
+      <c r="R181">
+        <v>1.775</v>
+      </c>
+      <c r="S181">
+        <v>2.025</v>
+      </c>
+      <c r="T181">
+        <v>2</v>
+      </c>
+      <c r="U181">
         <v>1.975</v>
       </c>
-      <c r="V166">
+      <c r="V181">
         <v>1.825</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="X166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
-        <v>0</v>
-      </c>
-      <c r="AA166">
+      <c r="W181">
+        <v>3</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>8019496</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45379.83333333334</v>
+      </c>
+      <c r="F182" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" t="s">
+        <v>30</v>
+      </c>
+      <c r="K182">
+        <v>1.833</v>
+      </c>
+      <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>1.833</v>
+      </c>
+      <c r="O182">
+        <v>3.1</v>
+      </c>
+      <c r="P182">
+        <v>4</v>
+      </c>
+      <c r="Q182">
+        <v>-0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.9</v>
+      </c>
+      <c r="S182">
+        <v>1.9</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>2.025</v>
+      </c>
+      <c r="V182">
+        <v>1.775</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
+        <v>1.833</v>
+      </c>
+      <c r="L94">
+        <v>3.25</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
         <v>3.2</v>
       </c>
-      <c r="L94">
-        <v>3.1</v>
-      </c>
-      <c r="M94">
-        <v>2.15</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
+        <v>0.5</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1.8</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
         <v>0.75</v>
       </c>
-      <c r="R95">
-        <v>1.95</v>
-      </c>
-      <c r="S95">
-        <v>1.85</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
-      <c r="W95">
-        <v>3.2</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O96">
+        <v>3.8</v>
+      </c>
+      <c r="P96">
+        <v>1.65</v>
+      </c>
+      <c r="Q96">
+        <v>0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.95</v>
+      </c>
+      <c r="S96">
+        <v>1.85</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
+        <v>1.825</v>
+      </c>
+      <c r="V96">
+        <v>1.975</v>
+      </c>
+      <c r="W96">
         <v>3.2</v>
       </c>
-      <c r="P96">
-        <v>3.5</v>
-      </c>
-      <c r="Q96">
-        <v>-0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.775</v>
-      </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
-        <v>1.9</v>
-      </c>
-      <c r="V96">
-        <v>1.9</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
       <c r="X96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236255</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>1.875</v>
       </c>
-      <c r="W97">
-        <v>0.333</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -16645,7 +16645,7 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45379.83333333334</v>
+        <v>45379.85416666666</v>
       </c>
       <c r="F182" t="s">
         <v>35</v>
@@ -16653,6 +16653,15 @@
       <c r="G182" t="s">
         <v>30</v>
       </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>47</v>
+      </c>
       <c r="K182">
         <v>1.833</v>
       </c>
@@ -16666,7 +16675,7 @@
         <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P182">
         <v>4</v>
@@ -16675,33 +16684,335 @@
         <v>-0.5</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>1.925</v>
+      </c>
+      <c r="V182">
+        <v>1.875</v>
+      </c>
+      <c r="W182">
+        <v>0.833</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>0.925</v>
+      </c>
+      <c r="AA182">
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7977865</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45380.70833333334</v>
+      </c>
+      <c r="F183" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" t="s">
+        <v>37</v>
+      </c>
+      <c r="K183">
+        <v>2.1</v>
+      </c>
+      <c r="L183">
+        <v>3.1</v>
+      </c>
+      <c r="M183">
+        <v>3.2</v>
+      </c>
+      <c r="N183">
+        <v>2.2</v>
+      </c>
+      <c r="O183">
+        <v>3</v>
+      </c>
+      <c r="P183">
+        <v>3.25</v>
+      </c>
+      <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
         <v>1.9</v>
       </c>
-      <c r="S182">
+      <c r="S183">
         <v>1.9</v>
       </c>
-      <c r="T182">
+      <c r="T183">
         <v>2.25</v>
       </c>
-      <c r="U182">
-        <v>2.025</v>
-      </c>
-      <c r="V182">
-        <v>1.775</v>
-      </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-      <c r="X182">
-        <v>0</v>
-      </c>
-      <c r="Y182">
-        <v>0</v>
-      </c>
-      <c r="Z182">
-        <v>0</v>
-      </c>
-      <c r="AA182">
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>1.8</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7977864</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>43</v>
+      </c>
+      <c r="K184">
+        <v>2.875</v>
+      </c>
+      <c r="L184">
+        <v>2.875</v>
+      </c>
+      <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.75</v>
+      </c>
+      <c r="O184">
+        <v>2.875</v>
+      </c>
+      <c r="P184">
+        <v>2.55</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.975</v>
+      </c>
+      <c r="S184">
+        <v>1.825</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.825</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7977862</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45381.78125</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" t="s">
+        <v>44</v>
+      </c>
+      <c r="K185">
+        <v>1.571</v>
+      </c>
+      <c r="L185">
+        <v>3.6</v>
+      </c>
+      <c r="M185">
+        <v>5.5</v>
+      </c>
+      <c r="N185">
+        <v>1.55</v>
+      </c>
+      <c r="O185">
+        <v>3.6</v>
+      </c>
+      <c r="P185">
+        <v>5.75</v>
+      </c>
+      <c r="Q185">
+        <v>-1</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
+        <v>1.85</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7977863</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>42</v>
+      </c>
+      <c r="K186">
+        <v>2.75</v>
+      </c>
+      <c r="L186">
+        <v>2.875</v>
+      </c>
+      <c r="M186">
+        <v>2.55</v>
+      </c>
+      <c r="N186">
+        <v>2.75</v>
+      </c>
+      <c r="O186">
+        <v>2.875</v>
+      </c>
+      <c r="P186">
+        <v>2.55</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
+        <v>1.825</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -16752,31 +16752,31 @@
         <v>3.2</v>
       </c>
       <c r="N183">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P183">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16912,10 +16912,10 @@
         <v>-1</v>
       </c>
       <c r="R185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T185">
         <v>2.25</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>2.1</v>
       </c>
-      <c r="L162">
-        <v>3</v>
-      </c>
-      <c r="M162">
-        <v>3.25</v>
-      </c>
-      <c r="N162">
-        <v>2.25</v>
-      </c>
-      <c r="O162">
-        <v>3.1</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>2.025</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>3.75</v>
-      </c>
-      <c r="O163">
-        <v>2.875</v>
-      </c>
-      <c r="P163">
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="Q163">
-        <v>0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.95</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>2.75</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7977865</v>
+        <v>7977863</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16734,43 +16734,43 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45380.70833333334</v>
+        <v>45381.89583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K183">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
+        <v>2.55</v>
+      </c>
+      <c r="N183">
         <v>3.2</v>
       </c>
-      <c r="N183">
-        <v>2</v>
-      </c>
       <c r="O183">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P183">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
+        <v>1.775</v>
+      </c>
+      <c r="S183">
         <v>2.025</v>
       </c>
-      <c r="S183">
-        <v>1.775</v>
-      </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>1.975</v>
@@ -16799,7 +16799,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7977864</v>
+        <v>7977380</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16808,49 +16808,49 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.70833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K184">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L184">
         <v>2.875</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N184">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O184">
         <v>2.875</v>
       </c>
       <c r="P184">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V184">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
         <v>0</v>
@@ -16873,7 +16873,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7977862</v>
+        <v>8027687</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16882,49 +16882,49 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45381.78125</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K185">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N185">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P185">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16939,80 +16939,6 @@
         <v>0</v>
       </c>
       <c r="AA185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>7977863</v>
-      </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="2">
-        <v>45381.89583333334</v>
-      </c>
-      <c r="F186" t="s">
-        <v>36</v>
-      </c>
-      <c r="G186" t="s">
-        <v>42</v>
-      </c>
-      <c r="K186">
-        <v>2.75</v>
-      </c>
-      <c r="L186">
-        <v>2.875</v>
-      </c>
-      <c r="M186">
-        <v>2.55</v>
-      </c>
-      <c r="N186">
-        <v>2.75</v>
-      </c>
-      <c r="O186">
-        <v>2.875</v>
-      </c>
-      <c r="P186">
-        <v>2.55</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>1.975</v>
-      </c>
-      <c r="S186">
-        <v>1.825</v>
-      </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.975</v>
-      </c>
-      <c r="V186">
-        <v>1.825</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-      <c r="AA186">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,49 +8816,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
         <v>1.9</v>
@@ -8867,19 +8867,19 @@
         <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.4375</v>
+      </c>
+      <c r="AA94">
         <v>-0.5</v>
-      </c>
-      <c r="AA94">
-        <v>0.5125</v>
       </c>
       <c r="AB94">
         <v>-1</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,40 +8905,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N95">
+        <v>1.333</v>
+      </c>
+      <c r="O95">
         <v>4.5</v>
       </c>
-      <c r="O95">
-        <v>3.3</v>
-      </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
         <v>2</v>
@@ -8947,7 +8947,7 @@
         <v>1.8</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
         <v>1.925</v>
@@ -8956,13 +8956,13 @@
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8971,10 +8971,10 @@
         <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236255</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
         <v>3.1</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
         <v>-0.5</v>
       </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
+        <v>3.75</v>
+      </c>
+      <c r="L98">
         <v>3.1</v>
       </c>
-      <c r="L98">
-        <v>3.2</v>
-      </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>1.95</v>
       </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.3875</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="AA98">
-        <v>0.5</v>
-      </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.95</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236253</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7977863</v>
+        <v>7977865</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16734,34 +16734,43 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45381.89583333334</v>
+        <v>45380.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183" t="s">
+        <v>46</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L183">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M183">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N183">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O183">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q183">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
         <v>1.775</v>
@@ -16770,28 +16779,34 @@
         <v>2.025</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
+        <v>1.825</v>
+      </c>
+      <c r="V183">
         <v>1.975</v>
       </c>
-      <c r="V183">
-        <v>1.825</v>
-      </c>
       <c r="W183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB183">
+        <v>0.825</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16799,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7977380</v>
+        <v>7977864</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16808,64 +16823,79 @@
         <v>28</v>
       </c>
       <c r="E184" s="2">
-        <v>45382.70833333334</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184" t="s">
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L184">
         <v>2.875</v>
       </c>
       <c r="M184">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N184">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O184">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P184">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
         <v>0</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB184">
+        <v>0.925</v>
+      </c>
+      <c r="AC184">
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,10 +16930,10 @@
         <v>4.333</v>
       </c>
       <c r="N185">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O185">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P185">
         <v>4.2</v>
@@ -16912,19 +16942,19 @@
         <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T185">
         <v>2</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
         <v>0</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8727,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q93">
         <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1.8</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
       <c r="W94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8</v>
+      </c>
+      <c r="AB94">
+        <v>-0.5</v>
+      </c>
+      <c r="AC94">
         <v>0.4375</v>
-      </c>
-      <c r="AA94">
-        <v>-0.5</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,10 +8905,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8920,43 +8920,43 @@
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
+        <v>1.775</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
       <c r="W96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
+        <v>-0.5</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.95</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.825</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,40 +9083,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
+        <v>1.333</v>
+      </c>
+      <c r="O97">
         <v>4.5</v>
       </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
         <v>1.925</v>
@@ -9134,13 +9134,13 @@
         <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
@@ -9149,10 +9149,10 @@
         <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
+        <v>2.15</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>1.75</v>
+      </c>
+      <c r="Q98">
+        <v>0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="N98">
-        <v>2.9</v>
-      </c>
-      <c r="O98">
-        <v>2.875</v>
-      </c>
-      <c r="P98">
-        <v>2.45</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>3.2</v>
       </c>
-      <c r="M157">
-        <v>1.909</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
-      </c>
-      <c r="P157">
-        <v>2.375</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.8</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>1.9</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>3.2</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -16903,73 +16903,355 @@
         <v>183</v>
       </c>
       <c r="B185">
+        <v>7977862</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45381.78125</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>46</v>
+      </c>
+      <c r="K185">
+        <v>1.571</v>
+      </c>
+      <c r="L185">
+        <v>3.6</v>
+      </c>
+      <c r="M185">
+        <v>5.5</v>
+      </c>
+      <c r="N185">
+        <v>1.444</v>
+      </c>
+      <c r="O185">
+        <v>3.8</v>
+      </c>
+      <c r="P185">
+        <v>7</v>
+      </c>
+      <c r="Q185">
+        <v>-1.25</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.9</v>
+      </c>
+      <c r="V185">
+        <v>1.9</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>6</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.8</v>
+      </c>
+      <c r="AB185">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC185">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7977863</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>42</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>45</v>
+      </c>
+      <c r="K186">
+        <v>2.75</v>
+      </c>
+      <c r="L186">
+        <v>2.875</v>
+      </c>
+      <c r="M186">
+        <v>2.55</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186">
+        <v>2.7</v>
+      </c>
+      <c r="P186">
+        <v>2.55</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>1.75</v>
+      </c>
+      <c r="T186">
+        <v>2</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>1.7</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>-0</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7977380</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45382.70833333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" t="s">
+        <v>40</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187" t="s">
+        <v>46</v>
+      </c>
+      <c r="K187">
+        <v>3.4</v>
+      </c>
+      <c r="L187">
+        <v>2.875</v>
+      </c>
+      <c r="M187">
+        <v>2.15</v>
+      </c>
+      <c r="N187">
+        <v>3.1</v>
+      </c>
+      <c r="O187">
+        <v>2.8</v>
+      </c>
+      <c r="P187">
+        <v>2.375</v>
+      </c>
+      <c r="Q187">
+        <v>0.25</v>
+      </c>
+      <c r="R187">
+        <v>1.75</v>
+      </c>
+      <c r="S187">
+        <v>2.05</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>1.9</v>
+      </c>
+      <c r="V187">
+        <v>1.9</v>
+      </c>
+      <c r="W187">
+        <v>-1</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>1.375</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
+        <v>1.05</v>
+      </c>
+      <c r="AB187">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
         <v>8027687</v>
       </c>
-      <c r="C185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D185" t="s">
-        <v>28</v>
-      </c>
-      <c r="E185" s="2">
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
         <v>45382.83333333334</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F188" t="s">
         <v>38</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G188" t="s">
         <v>41</v>
       </c>
-      <c r="K185">
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>45</v>
+      </c>
+      <c r="K188">
         <v>1.75</v>
       </c>
-      <c r="L185">
+      <c r="L188">
         <v>3.4</v>
       </c>
-      <c r="M185">
+      <c r="M188">
         <v>4.333</v>
       </c>
-      <c r="N185">
+      <c r="N188">
         <v>1.85</v>
       </c>
-      <c r="O185">
+      <c r="O188">
         <v>3</v>
       </c>
-      <c r="P185">
+      <c r="P188">
         <v>4.2</v>
       </c>
-      <c r="Q185">
+      <c r="Q188">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.9</v>
-      </c>
-      <c r="S185">
-        <v>1.9</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.775</v>
-      </c>
-      <c r="V185">
-        <v>2.025</v>
-      </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-      <c r="X185">
-        <v>0</v>
-      </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
-        <v>0</v>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>2</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>0.8</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8905,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
+        <v>2.15</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
+        <v>1.75</v>
+      </c>
+      <c r="Q96">
+        <v>0.75</v>
+      </c>
+      <c r="R96">
+        <v>1.8</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>2.5</v>
+      </c>
+      <c r="U96">
         <v>1.95</v>
       </c>
-      <c r="N96">
-        <v>2.9</v>
-      </c>
-      <c r="O96">
-        <v>2.875</v>
-      </c>
-      <c r="P96">
-        <v>2.45</v>
-      </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.775</v>
-      </c>
-      <c r="S96">
-        <v>2.025</v>
-      </c>
-      <c r="T96">
-        <v>2.25</v>
-      </c>
-      <c r="U96">
+      <c r="V96">
         <v>1.85</v>
       </c>
-      <c r="V96">
-        <v>1.95</v>
-      </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236255</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>1.875</v>
       </c>
-      <c r="W97">
-        <v>0.333</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
         <v>3.2</v>
       </c>
-      <c r="M98">
-        <v>2.15</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>1.9</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.4</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.9</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>3.2</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4.2</v>
+      </c>
+      <c r="N158">
+        <v>1.833</v>
+      </c>
+      <c r="O158">
+        <v>3.1</v>
+      </c>
+      <c r="P158">
+        <v>4.2</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
         <v>3.2</v>
       </c>
-      <c r="M158">
-        <v>1.909</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>1.9</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
       <c r="Z158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
+        <v>1.833</v>
+      </c>
+      <c r="L94">
+        <v>3.25</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
         <v>3.2</v>
       </c>
-      <c r="L94">
-        <v>3.1</v>
-      </c>
-      <c r="M94">
-        <v>2.15</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236252</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8905,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>3.2</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,13 +8994,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -9009,40 +9009,40 @@
         <v>46</v>
       </c>
       <c r="K96">
+        <v>3.2</v>
+      </c>
+      <c r="L96">
         <v>3.1</v>
-      </c>
-      <c r="L96">
-        <v>3.2</v>
       </c>
       <c r="M96">
         <v>2.15</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
         <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
         <v>1.8</v>
       </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9054,16 +9054,16 @@
         <v>0.75</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.8</v>
+      </c>
+      <c r="AB96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5</v>
-      </c>
-      <c r="AB96">
-        <v>0.95</v>
-      </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,67 +9083,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O97">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X97">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA97">
         <v>-0.5</v>
@@ -9152,7 +9152,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9187,25 +9187,25 @@
         <v>45</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
         <v>1.775</v>
@@ -9217,31 +9217,31 @@
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.3875</v>
+      </c>
+      <c r="AA98">
         <v>-0.5</v>
       </c>
-      <c r="AA98">
-        <v>0.5125</v>
-      </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,58 +9261,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
         <v>4.2</v>
       </c>
-      <c r="M99">
-        <v>7.5</v>
-      </c>
-      <c r="N99">
-        <v>1.333</v>
-      </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9321,16 +9321,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.05</v>
+      </c>
+      <c r="V135">
+        <v>1.75</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>1.875</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.4</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.925</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>2.1</v>
       </c>
-      <c r="L162">
-        <v>3</v>
-      </c>
-      <c r="M162">
-        <v>3.25</v>
-      </c>
-      <c r="N162">
-        <v>2.25</v>
-      </c>
-      <c r="O162">
-        <v>3.1</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>2.025</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>3.75</v>
-      </c>
-      <c r="O163">
-        <v>2.875</v>
-      </c>
-      <c r="P163">
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="Q163">
-        <v>0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.95</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>2.75</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17252,6 +17252,243 @@
       </c>
       <c r="AC188">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>8054623</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45387.70833333334</v>
+      </c>
+      <c r="F189" t="s">
+        <v>43</v>
+      </c>
+      <c r="G189" t="s">
+        <v>35</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>47</v>
+      </c>
+      <c r="K189">
+        <v>2.1</v>
+      </c>
+      <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
+        <v>3.2</v>
+      </c>
+      <c r="N189">
+        <v>2.4</v>
+      </c>
+      <c r="O189">
+        <v>3.1</v>
+      </c>
+      <c r="P189">
+        <v>2.75</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2</v>
+      </c>
+      <c r="U189">
+        <v>2.05</v>
+      </c>
+      <c r="V189">
+        <v>1.75</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.8</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>8054935</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45388.66666666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>29</v>
+      </c>
+      <c r="G190" t="s">
+        <v>34</v>
+      </c>
+      <c r="K190">
+        <v>2.3</v>
+      </c>
+      <c r="L190">
+        <v>3.1</v>
+      </c>
+      <c r="M190">
+        <v>2.875</v>
+      </c>
+      <c r="N190">
+        <v>2.55</v>
+      </c>
+      <c r="O190">
+        <v>3.1</v>
+      </c>
+      <c r="P190">
+        <v>2.5</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.9</v>
+      </c>
+      <c r="V190">
+        <v>1.9</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8054937</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K191">
+        <v>2.25</v>
+      </c>
+      <c r="L191">
+        <v>2.875</v>
+      </c>
+      <c r="M191">
+        <v>3.25</v>
+      </c>
+      <c r="N191">
+        <v>2.05</v>
+      </c>
+      <c r="O191">
+        <v>2.9</v>
+      </c>
+      <c r="P191">
+        <v>3.6</v>
+      </c>
+      <c r="Q191">
+        <v>-0.25</v>
+      </c>
+      <c r="R191">
+        <v>1.8</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
+        <v>1.975</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,40 +8905,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
         <v>2</v>
@@ -8947,7 +8947,7 @@
         <v>1.8</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>1.925</v>
@@ -8956,13 +8956,13 @@
         <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8971,10 +8971,10 @@
         <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,40 +8994,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N96">
+        <v>1.333</v>
+      </c>
+      <c r="O96">
         <v>4.5</v>
       </c>
-      <c r="O96">
-        <v>3.3</v>
-      </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9036,7 +9036,7 @@
         <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
         <v>1.925</v>
@@ -9045,13 +9045,13 @@
         <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
@@ -9060,10 +9060,10 @@
         <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17375,31 +17375,31 @@
         <v>2.875</v>
       </c>
       <c r="N190">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P190">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
         <v>0</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17422,72 +17422,220 @@
         <v>189</v>
       </c>
       <c r="B191">
+        <v>8054936</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45388.78125</v>
+      </c>
+      <c r="F191" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" t="s">
+        <v>32</v>
+      </c>
+      <c r="K191">
+        <v>1.444</v>
+      </c>
+      <c r="L191">
+        <v>3.75</v>
+      </c>
+      <c r="M191">
+        <v>7</v>
+      </c>
+      <c r="N191">
+        <v>1.45</v>
+      </c>
+      <c r="O191">
+        <v>3.75</v>
+      </c>
+      <c r="P191">
+        <v>7</v>
+      </c>
+      <c r="Q191">
+        <v>-1.25</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>2</v>
+      </c>
+      <c r="V191">
+        <v>1.8</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
         <v>8054937</v>
       </c>
-      <c r="C191" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" t="s">
-        <v>28</v>
-      </c>
-      <c r="E191" s="2">
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
         <v>45388.89583333334</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F192" t="s">
         <v>40</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G192" t="s">
         <v>36</v>
       </c>
-      <c r="K191">
+      <c r="K192">
         <v>2.25</v>
       </c>
-      <c r="L191">
+      <c r="L192">
         <v>2.875</v>
       </c>
-      <c r="M191">
+      <c r="M192">
         <v>3.25</v>
       </c>
-      <c r="N191">
+      <c r="N192">
+        <v>2.1</v>
+      </c>
+      <c r="O192">
+        <v>2.9</v>
+      </c>
+      <c r="P192">
+        <v>3.6</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.825</v>
+      </c>
+      <c r="S192">
+        <v>1.975</v>
+      </c>
+      <c r="T192">
+        <v>2</v>
+      </c>
+      <c r="U192">
+        <v>1.85</v>
+      </c>
+      <c r="V192">
+        <v>1.95</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>8054938</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="K193">
+        <v>3</v>
+      </c>
+      <c r="L193">
+        <v>2.875</v>
+      </c>
+      <c r="M193">
+        <v>2.375</v>
+      </c>
+      <c r="N193">
+        <v>2.5</v>
+      </c>
+      <c r="O193">
+        <v>2.875</v>
+      </c>
+      <c r="P193">
+        <v>2.75</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
         <v>2.05</v>
       </c>
-      <c r="O191">
-        <v>2.9</v>
-      </c>
-      <c r="P191">
-        <v>3.6</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.8</v>
-      </c>
-      <c r="S191">
-        <v>2</v>
-      </c>
-      <c r="T191">
-        <v>2</v>
-      </c>
-      <c r="U191">
-        <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
+      <c r="V193">
+        <v>1.75</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
+        <v>3.25</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
         <v>3.2</v>
       </c>
-      <c r="M93">
-        <v>2.15</v>
-      </c>
-      <c r="N93">
-        <v>4</v>
-      </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M94">
+        <v>2.15</v>
+      </c>
+      <c r="N94">
         <v>4</v>
       </c>
-      <c r="N94">
-        <v>2</v>
-      </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
         <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1.8</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="S97">
-        <v>1.925</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>1.9</v>
-      </c>
-      <c r="V97">
-        <v>1.9</v>
-      </c>
       <c r="W97">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8</v>
+      </c>
+      <c r="AB97">
+        <v>-0.5</v>
+      </c>
+      <c r="AC97">
         <v>0.4375</v>
-      </c>
-      <c r="AA97">
-        <v>-0.5</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,67 +9172,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA98">
         <v>-0.5</v>
@@ -9241,7 +9241,7 @@
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
         <v>1.95</v>
       </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.825</v>
-      </c>
-      <c r="V99">
-        <v>1.975</v>
-      </c>
       <c r="W99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.3875</v>
+      </c>
+      <c r="AA99">
+        <v>-0.5</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.95</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.825</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>2.1</v>
       </c>
-      <c r="L162">
-        <v>3</v>
-      </c>
-      <c r="M162">
-        <v>3.25</v>
-      </c>
-      <c r="N162">
-        <v>2.25</v>
-      </c>
-      <c r="O162">
-        <v>3.1</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>2.025</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>3.75</v>
-      </c>
-      <c r="O163">
-        <v>2.875</v>
-      </c>
-      <c r="P163">
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="Q163">
-        <v>0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.95</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>2.75</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>8054935</v>
+        <v>7977868</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,34 +17357,43 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45388.66666666666</v>
+        <v>45387.83333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N190">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
         <v>1.8</v>
@@ -17393,28 +17402,34 @@
         <v>2</v>
       </c>
       <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.975</v>
+      </c>
+      <c r="V190">
+        <v>1.825</v>
+      </c>
+      <c r="W190">
         <v>2.5</v>
       </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.875</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>0.825</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17422,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8054936</v>
+        <v>8054935</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17431,64 +17446,79 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45388.78125</v>
+        <v>45388.66666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L191">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N191">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17496,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8054937</v>
+        <v>8054936</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17505,72 +17535,87 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45388.89583333334</v>
+        <v>45388.78125</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L192">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="O192">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB192">
+        <v>1</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8054938</v>
+        <v>8054937</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17579,64 +17624,168 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45389.70833333334</v>
+        <v>45388.89583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>46</v>
       </c>
       <c r="K193">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L193">
         <v>2.875</v>
       </c>
       <c r="M193">
+        <v>3.25</v>
+      </c>
+      <c r="N193">
+        <v>1.952</v>
+      </c>
+      <c r="O193">
+        <v>3.1</v>
+      </c>
+      <c r="P193">
+        <v>4</v>
+      </c>
+      <c r="Q193">
+        <v>-0.5</v>
+      </c>
+      <c r="R193">
+        <v>1.975</v>
+      </c>
+      <c r="S193">
+        <v>1.825</v>
+      </c>
+      <c r="T193">
+        <v>2</v>
+      </c>
+      <c r="U193">
+        <v>1.85</v>
+      </c>
+      <c r="V193">
+        <v>1.95</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>3</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.825</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+      <c r="AC193">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>8054938</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>45</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>2.875</v>
+      </c>
+      <c r="M194">
         <v>2.375</v>
       </c>
-      <c r="N193">
+      <c r="N194">
         <v>2.5</v>
       </c>
-      <c r="O193">
+      <c r="O194">
         <v>2.875</v>
       </c>
-      <c r="P193">
+      <c r="P194">
         <v>2.75</v>
       </c>
-      <c r="Q193">
-        <v>0</v>
-      </c>
-      <c r="R193">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
         <v>1.775</v>
       </c>
-      <c r="S193">
+      <c r="S194">
         <v>2.025</v>
       </c>
-      <c r="T193">
-        <v>2.25</v>
-      </c>
-      <c r="U193">
-        <v>2.05</v>
-      </c>
-      <c r="V193">
-        <v>1.75</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
-        <v>0</v>
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>1.8</v>
+      </c>
+      <c r="V194">
+        <v>2</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>1.875</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>-0</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236253</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,49 +8727,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
         <v>1.9</v>
@@ -8778,19 +8778,19 @@
         <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.4375</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.5125</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
+        <v>3.75</v>
+      </c>
+      <c r="L94">
         <v>3.1</v>
       </c>
-      <c r="L94">
-        <v>3.2</v>
-      </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
         <v>1.95</v>
       </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.3875</v>
+      </c>
+      <c r="AA94">
         <v>-0.5</v>
       </c>
-      <c r="AA94">
-        <v>0.5</v>
-      </c>
       <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.95</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
+        <v>3.1</v>
+      </c>
+      <c r="L95">
         <v>3.2</v>
       </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
         <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
+        <v>-0.5</v>
+      </c>
+      <c r="AA95">
+        <v>0.5</v>
+      </c>
+      <c r="AB95">
         <v>0.95</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,40 +8994,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9036,7 +9036,7 @@
         <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.925</v>
@@ -9045,13 +9045,13 @@
         <v>1.875</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
         <v>-1</v>
@@ -9060,10 +9060,10 @@
         <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,40 +9083,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
+        <v>1.333</v>
+      </c>
+      <c r="O97">
         <v>4.5</v>
       </c>
-      <c r="O97">
-        <v>3.3</v>
-      </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
         <v>1.925</v>
@@ -9134,13 +9134,13 @@
         <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
@@ -9149,10 +9149,10 @@
         <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,58 +9172,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236255</v>
+        <v>6236253</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,25 +9276,25 @@
         <v>45</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
         <v>1.775</v>
@@ -9306,31 +9306,31 @@
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>3.2</v>
       </c>
-      <c r="M157">
-        <v>1.909</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
-      </c>
-      <c r="P157">
-        <v>2.375</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.8</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>1.9</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>3.2</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -17786,6 +17786,95 @@
       </c>
       <c r="AC194">
         <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7977869</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45389.83333333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>41</v>
+      </c>
+      <c r="G195" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
+      </c>
+      <c r="K195">
+        <v>2.3</v>
+      </c>
+      <c r="L195">
+        <v>3.2</v>
+      </c>
+      <c r="M195">
+        <v>2.8</v>
+      </c>
+      <c r="N195">
+        <v>2.05</v>
+      </c>
+      <c r="O195">
+        <v>3.4</v>
+      </c>
+      <c r="P195">
+        <v>3.2</v>
+      </c>
+      <c r="Q195">
+        <v>-0.25</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.9</v>
+      </c>
+      <c r="V195">
+        <v>1.9</v>
+      </c>
+      <c r="W195">
+        <v>1.05</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>0.8</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>1.8</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
-      <c r="U93">
-        <v>1.9</v>
-      </c>
-      <c r="V93">
-        <v>1.9</v>
-      </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>0.8</v>
+      </c>
+      <c r="AB93">
+        <v>-0.5</v>
+      </c>
+      <c r="AC93">
         <v>0.4375</v>
-      </c>
-      <c r="AA93">
-        <v>-0.5</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
-      <c r="AC93">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M94">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N94">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O94">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q95">
         <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
         <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>1.875</v>
       </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236611</v>
+        <v>6236254</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,58 +9172,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
         <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M99">
+        <v>2.15</v>
+      </c>
+      <c r="N99">
         <v>4</v>
       </c>
-      <c r="N99">
-        <v>2</v>
-      </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z99">
         <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>2.1</v>
       </c>
-      <c r="L162">
-        <v>3</v>
-      </c>
-      <c r="M162">
-        <v>3.25</v>
-      </c>
-      <c r="N162">
-        <v>2.25</v>
-      </c>
-      <c r="O162">
-        <v>3.1</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>2.025</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>3.75</v>
-      </c>
-      <c r="O163">
-        <v>2.875</v>
-      </c>
-      <c r="P163">
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="Q163">
-        <v>0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.95</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>2.75</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB163">
         <v>0</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>3.2</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,10 +8816,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8831,43 +8831,43 @@
         <v>47</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95">
+        <v>1.833</v>
+      </c>
+      <c r="L95">
+        <v>3.25</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
         <v>3.2</v>
       </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
-      <c r="M95">
-        <v>2</v>
-      </c>
-      <c r="N95">
-        <v>4.2</v>
-      </c>
-      <c r="O95">
-        <v>3.8</v>
-      </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M96">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N96">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9098,25 +9098,25 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9128,31 +9128,31 @@
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.3875</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="AA97">
-        <v>0.5125</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1.8</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.925</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
-      <c r="V98">
-        <v>1.9</v>
-      </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8</v>
+      </c>
+      <c r="AB98">
+        <v>-0.5</v>
+      </c>
+      <c r="AC98">
         <v>0.4375</v>
-      </c>
-      <c r="AA98">
-        <v>-0.5</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>1.75</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>1.875</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.925</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>1.9</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.4</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.9</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>3.2</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4.2</v>
+      </c>
+      <c r="N158">
+        <v>1.833</v>
+      </c>
+      <c r="O158">
+        <v>3.1</v>
+      </c>
+      <c r="P158">
+        <v>4.2</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
         <v>3.2</v>
       </c>
-      <c r="M158">
-        <v>1.909</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>1.9</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
       <c r="Z158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17875,6 +17875,80 @@
       </c>
       <c r="AC195">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7977874</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45394.83333333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>41</v>
+      </c>
+      <c r="G196" t="s">
+        <v>34</v>
+      </c>
+      <c r="K196">
+        <v>1.615</v>
+      </c>
+      <c r="L196">
+        <v>3.5</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.666</v>
+      </c>
+      <c r="O196">
+        <v>3.5</v>
+      </c>
+      <c r="P196">
+        <v>4.333</v>
+      </c>
+      <c r="Q196">
+        <v>-0.75</v>
+      </c>
+      <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
+        <v>1.833</v>
+      </c>
+      <c r="L93">
+        <v>3.25</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
         <v>3.2</v>
       </c>
-      <c r="L93">
-        <v>3.4</v>
-      </c>
-      <c r="M93">
-        <v>2</v>
-      </c>
-      <c r="N93">
-        <v>4.2</v>
-      </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
       <c r="P93">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1.8</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="S94">
-        <v>1.925</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>1.9</v>
-      </c>
       <c r="W94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8</v>
+      </c>
+      <c r="AB94">
+        <v>-0.5</v>
+      </c>
+      <c r="AC94">
         <v>0.4375</v>
-      </c>
-      <c r="AA94">
-        <v>-0.5</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
-      <c r="AC94">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
+        <v>3.8</v>
+      </c>
+      <c r="P95">
+        <v>1.65</v>
+      </c>
+      <c r="Q95">
+        <v>0.75</v>
+      </c>
+      <c r="R95">
+        <v>1.95</v>
+      </c>
+      <c r="S95">
+        <v>1.85</v>
+      </c>
+      <c r="T95">
+        <v>2.5</v>
+      </c>
+      <c r="U95">
+        <v>1.825</v>
+      </c>
+      <c r="V95">
+        <v>1.975</v>
+      </c>
+      <c r="W95">
         <v>3.2</v>
       </c>
-      <c r="P95">
-        <v>3.5</v>
-      </c>
-      <c r="Q95">
-        <v>-0.25</v>
-      </c>
-      <c r="R95">
-        <v>1.775</v>
-      </c>
-      <c r="S95">
-        <v>2.025</v>
-      </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
       <c r="X95">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236252</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
+        <v>1.95</v>
+      </c>
+      <c r="W96">
+        <v>-1</v>
+      </c>
+      <c r="X96">
         <v>1.875</v>
       </c>
-      <c r="W96">
-        <v>0.333</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,67 +9083,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O97">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X97">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA97">
         <v>-0.5</v>
@@ -9152,7 +9152,7 @@
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,40 +9172,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
+        <v>1.333</v>
+      </c>
+      <c r="O98">
         <v>4.5</v>
       </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9214,7 +9214,7 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9223,13 +9223,13 @@
         <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
@@ -9238,10 +9238,10 @@
         <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -17909,45 +17909,193 @@
         <v>4.75</v>
       </c>
       <c r="N196">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O196">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q196">
         <v>-0.75</v>
       </c>
       <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
+        <v>1.9</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.825</v>
+      </c>
+      <c r="V196">
+        <v>1.975</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7977384</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45395.70833333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>29</v>
+      </c>
+      <c r="K197">
+        <v>1.615</v>
+      </c>
+      <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197">
+        <v>1.727</v>
+      </c>
+      <c r="O197">
+        <v>3.4</v>
+      </c>
+      <c r="P197">
+        <v>4.5</v>
+      </c>
+      <c r="Q197">
+        <v>-0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.95</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>2.25</v>
+      </c>
+      <c r="U197">
+        <v>1.9</v>
+      </c>
+      <c r="V197">
+        <v>1.9</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7977871</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" t="s">
+        <v>44</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>1.8</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
+        <v>3.75</v>
+      </c>
+      <c r="Q198">
+        <v>-0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.775</v>
+      </c>
+      <c r="S198">
+        <v>2.025</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
         <v>1.875</v>
       </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
-      <c r="T196">
-        <v>2.5</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <v>0</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
-      <c r="AA196">
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,10 +8727,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8742,25 +8742,25 @@
         <v>45</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
         <v>1.775</v>
@@ -8772,31 +8772,31 @@
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.3875</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="AA93">
-        <v>0.5125</v>
-      </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,40 +8816,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="N94">
+        <v>1.333</v>
+      </c>
+      <c r="O94">
         <v>4.5</v>
       </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R94">
         <v>2</v>
@@ -8858,7 +8858,7 @@
         <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
         <v>1.925</v>
@@ -8867,13 +8867,13 @@
         <v>1.875</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8882,10 +8882,10 @@
         <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,73 +8905,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
+        <v>3.1</v>
+      </c>
+      <c r="L95">
         <v>3.2</v>
       </c>
-      <c r="L95">
-        <v>3.4</v>
-      </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
         <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z95">
+        <v>-0.5</v>
+      </c>
+      <c r="AA95">
+        <v>0.5</v>
+      </c>
+      <c r="AB95">
         <v>0.95</v>
-      </c>
-      <c r="AA95">
-        <v>-1</v>
-      </c>
-      <c r="AB95">
-        <v>0.825</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236611</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4.2</v>
+      </c>
+      <c r="O96">
+        <v>3.8</v>
+      </c>
+      <c r="P96">
+        <v>1.65</v>
+      </c>
+      <c r="Q96">
+        <v>0.75</v>
+      </c>
+      <c r="R96">
         <v>1.95</v>
       </c>
-      <c r="N96">
-        <v>2.9</v>
-      </c>
-      <c r="O96">
-        <v>2.875</v>
-      </c>
-      <c r="P96">
-        <v>2.45</v>
-      </c>
-      <c r="Q96">
-        <v>0.25</v>
-      </c>
-      <c r="R96">
-        <v>1.775</v>
-      </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,49 +9083,49 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
         <v>1.9</v>
@@ -9134,19 +9134,19 @@
         <v>1.9</v>
       </c>
       <c r="W97">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,43 +9187,43 @@
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,13 +9261,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -9276,40 +9276,40 @@
         <v>46</v>
       </c>
       <c r="K99">
+        <v>3.2</v>
+      </c>
+      <c r="L99">
         <v>3.1</v>
-      </c>
-      <c r="L99">
-        <v>3.2</v>
       </c>
       <c r="M99">
         <v>2.15</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
         <v>1.75</v>
       </c>
       <c r="Q99">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9321,16 +9321,16 @@
         <v>0.75</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.8</v>
+      </c>
+      <c r="AB99">
         <v>-0.5</v>
       </c>
-      <c r="AA99">
-        <v>0.5</v>
-      </c>
-      <c r="AB99">
-        <v>0.95</v>
-      </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
+        <v>2.1</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
         <v>3.1</v>
       </c>
-      <c r="L114">
-        <v>2.875</v>
-      </c>
-      <c r="M114">
-        <v>2.3</v>
-      </c>
-      <c r="N114">
-        <v>3</v>
-      </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="V114">
-        <v>1.975</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q115">
+        <v>0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.725</v>
+      </c>
+      <c r="S115">
+        <v>2.075</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.825</v>
+      </c>
+      <c r="V115">
+        <v>1.975</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>1.875</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.3625</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.025</v>
-      </c>
-      <c r="S115">
-        <v>1.775</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
-      <c r="W115">
-        <v>1.15</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>1.025</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>3.2</v>
       </c>
-      <c r="M157">
-        <v>1.909</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
-      </c>
-      <c r="P157">
-        <v>2.375</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.8</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>1.9</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>3.2</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7977874</v>
+        <v>7977384</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17891,13 +17891,13 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45394.83333333334</v>
+        <v>45395.70833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K196">
         <v>1.615</v>
@@ -17906,34 +17906,34 @@
         <v>3.5</v>
       </c>
       <c r="M196">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N196">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O196">
+        <v>3.1</v>
+      </c>
+      <c r="P196">
         <v>3.3</v>
       </c>
-      <c r="P196">
-        <v>4.75</v>
-      </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17956,7 +17956,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7977384</v>
+        <v>7977871</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17965,49 +17965,49 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45395.70833333334</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K197">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L197">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N197">
         <v>1.727</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q197">
         <v>-0.75</v>
       </c>
       <c r="R197">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V197">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18030,7 +18030,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7977871</v>
+        <v>7977875</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18039,63 +18039,211 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45395.83333333334</v>
+        <v>45396.66666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198">
+        <v>3.1</v>
+      </c>
+      <c r="P198">
+        <v>2.25</v>
+      </c>
+      <c r="Q198">
+        <v>0.25</v>
+      </c>
+      <c r="R198">
         <v>1.8</v>
       </c>
-      <c r="O198">
-        <v>3.5</v>
-      </c>
-      <c r="P198">
-        <v>3.75</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.775</v>
-      </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
+        <v>1.975</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7977873</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45396.78125</v>
+      </c>
+      <c r="F199" t="s">
+        <v>35</v>
+      </c>
+      <c r="G199" t="s">
+        <v>42</v>
+      </c>
+      <c r="K199">
+        <v>1.909</v>
+      </c>
+      <c r="L199">
+        <v>3.2</v>
+      </c>
+      <c r="M199">
+        <v>3.75</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199">
+        <v>3.1</v>
+      </c>
+      <c r="P199">
+        <v>3.5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>1.875</v>
+      </c>
+      <c r="V199">
         <v>1.925</v>
       </c>
-      <c r="V198">
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7977383</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200" t="s">
+        <v>30</v>
+      </c>
+      <c r="K200">
+        <v>1.666</v>
+      </c>
+      <c r="L200">
+        <v>3.6</v>
+      </c>
+      <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.7</v>
+      </c>
+      <c r="O200">
+        <v>3.6</v>
+      </c>
+      <c r="P200">
+        <v>4.333</v>
+      </c>
+      <c r="Q200">
+        <v>-0.75</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.85</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
         <v>1.875</v>
       </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
-      <c r="AA198">
+      <c r="V200">
+        <v>1.925</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC200"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236255</v>
+        <v>6236612</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
         <v>3.1</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
+        <v>0.8</v>
+      </c>
+      <c r="AB93">
         <v>-0.5</v>
       </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>47</v>
       </c>
       <c r="K94">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
         <v>4.2</v>
       </c>
-      <c r="M94">
-        <v>7.5</v>
-      </c>
-      <c r="N94">
-        <v>1.333</v>
-      </c>
       <c r="O94">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q94">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q95">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
+        <v>0.4375</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="AA95">
-        <v>0.5</v>
-      </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,73 +8994,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
+        <v>3.1</v>
+      </c>
+      <c r="L96">
         <v>3.2</v>
       </c>
-      <c r="L96">
-        <v>3.4</v>
-      </c>
       <c r="M96">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
         <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
+        <v>-0.5</v>
+      </c>
+      <c r="AA96">
+        <v>0.5</v>
+      </c>
+      <c r="AB96">
         <v>0.95</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9098,25 +9098,25 @@
         <v>45</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P97">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
         <v>1.775</v>
@@ -9128,31 +9128,31 @@
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>0.3875</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="AA97">
-        <v>0.5125</v>
-      </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236254</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,10 +9172,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9187,43 +9187,43 @@
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
+        <v>1.833</v>
+      </c>
+      <c r="L99">
+        <v>3.25</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
         <v>3.2</v>
       </c>
-      <c r="L99">
-        <v>3.1</v>
-      </c>
-      <c r="M99">
-        <v>2.15</v>
-      </c>
-      <c r="N99">
-        <v>4.5</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
       <c r="P99">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7977384</v>
+        <v>7977874</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17891,13 +17891,22 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45395.70833333334</v>
+        <v>45394.83333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
       </c>
       <c r="K196">
         <v>1.615</v>
@@ -17906,49 +17915,55 @@
         <v>3.5</v>
       </c>
       <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
+        <v>1.615</v>
+      </c>
+      <c r="O196">
+        <v>3.4</v>
+      </c>
+      <c r="P196">
         <v>5</v>
       </c>
-      <c r="N196">
-        <v>2.1</v>
-      </c>
-      <c r="O196">
-        <v>3.1</v>
-      </c>
-      <c r="P196">
-        <v>3.3</v>
-      </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
         <v>1.825</v>
       </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.75</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
-      </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.825</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17956,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7977871</v>
+        <v>7977873</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17965,49 +17980,49 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45395.83333333334</v>
+        <v>45396.78125</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M197">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N197">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O197">
+        <v>2.9</v>
+      </c>
+      <c r="P197">
         <v>3.8</v>
       </c>
-      <c r="P197">
-        <v>3.6</v>
-      </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
         <v>1.975</v>
       </c>
-      <c r="S197">
+      <c r="V197">
         <v>1.825</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
-      <c r="U197">
-        <v>1.875</v>
-      </c>
-      <c r="V197">
-        <v>1.925</v>
       </c>
       <c r="W197">
         <v>0</v>
@@ -18030,7 +18045,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7977875</v>
+        <v>7977872</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18039,49 +18054,49 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45396.66666666666</v>
+        <v>45396.89583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O198">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P198">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -18104,7 +18119,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7977873</v>
+        <v>7977383</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18113,43 +18128,43 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45396.78125</v>
+        <v>45397.83333333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O199">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
         <v>1.875</v>
@@ -18170,80 +18185,6 @@
         <v>0</v>
       </c>
       <c r="AA199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>7977383</v>
-      </c>
-      <c r="C200" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" t="s">
-        <v>28</v>
-      </c>
-      <c r="E200" s="2">
-        <v>45397.83333333334</v>
-      </c>
-      <c r="F200" t="s">
-        <v>38</v>
-      </c>
-      <c r="G200" t="s">
-        <v>30</v>
-      </c>
-      <c r="K200">
-        <v>1.666</v>
-      </c>
-      <c r="L200">
-        <v>3.6</v>
-      </c>
-      <c r="M200">
-        <v>4.5</v>
-      </c>
-      <c r="N200">
-        <v>1.7</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>4.333</v>
-      </c>
-      <c r="Q200">
-        <v>-0.75</v>
-      </c>
-      <c r="R200">
-        <v>1.95</v>
-      </c>
-      <c r="S200">
-        <v>1.85</v>
-      </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
-        <v>1.875</v>
-      </c>
-      <c r="V200">
-        <v>1.925</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
-      </c>
-      <c r="AA200">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236612</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,13 +8727,13 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -8742,40 +8742,40 @@
         <v>46</v>
       </c>
       <c r="K93">
+        <v>3.1</v>
+      </c>
+      <c r="L93">
         <v>3.2</v>
-      </c>
-      <c r="L93">
-        <v>3.1</v>
       </c>
       <c r="M93">
         <v>2.15</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
         <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>0.75</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
+        <v>0.5</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>1.8</v>
+      </c>
+      <c r="T94">
+        <v>2.25</v>
+      </c>
+      <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
+        <v>1.875</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
         <v>0.75</v>
       </c>
-      <c r="R94">
-        <v>1.95</v>
-      </c>
-      <c r="S94">
-        <v>1.85</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.825</v>
-      </c>
-      <c r="V94">
-        <v>1.975</v>
-      </c>
-      <c r="W94">
-        <v>3.2</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,67 +8905,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
+        <v>1.775</v>
+      </c>
+      <c r="S95">
+        <v>2.025</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.85</v>
+      </c>
+      <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.875</v>
       </c>
-      <c r="S95">
-        <v>1.925</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.9</v>
-      </c>
-      <c r="V95">
-        <v>1.9</v>
-      </c>
-      <c r="W95">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
         <v>-0.5</v>
@@ -8974,7 +8974,7 @@
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.4375</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5</v>
-      </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,58 +9172,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L98">
+        <v>3.4</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
         <v>4.2</v>
       </c>
-      <c r="M98">
-        <v>7.5</v>
-      </c>
-      <c r="N98">
-        <v>1.333</v>
-      </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,16 +9232,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
+        <v>0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.725</v>
+      </c>
+      <c r="S114">
+        <v>2.075</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
+        <v>-1</v>
+      </c>
+      <c r="X114">
+        <v>1.875</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.3625</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
-      <c r="W114">
-        <v>1.15</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>1.025</v>
-      </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
+        <v>2.1</v>
+      </c>
+      <c r="L115">
+        <v>3.2</v>
+      </c>
+      <c r="M115">
+        <v>3.3</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
         <v>3.1</v>
       </c>
-      <c r="L115">
-        <v>2.875</v>
-      </c>
-      <c r="M115">
-        <v>2.3</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115">
-        <v>2.875</v>
-      </c>
       <c r="P115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>1.975</v>
+      </c>
+      <c r="V115">
         <v>1.825</v>
       </c>
-      <c r="V115">
-        <v>1.975</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.8</v>
+      </c>
+      <c r="N162">
+        <v>3.75</v>
+      </c>
+      <c r="O162">
+        <v>2.875</v>
+      </c>
+      <c r="P162">
         <v>2.1</v>
       </c>
-      <c r="L162">
-        <v>3</v>
-      </c>
-      <c r="M162">
-        <v>3.25</v>
-      </c>
-      <c r="N162">
-        <v>2.25</v>
-      </c>
-      <c r="O162">
-        <v>3.1</v>
-      </c>
-      <c r="P162">
-        <v>2.9</v>
-      </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>1.85</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>2.025</v>
       </c>
-      <c r="S162">
+      <c r="V162">
         <v>1.775</v>
       </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.8</v>
-      </c>
-      <c r="V162">
-        <v>2</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M163">
+        <v>3.25</v>
+      </c>
+      <c r="N163">
+        <v>2.25</v>
+      </c>
+      <c r="O163">
+        <v>3.1</v>
+      </c>
+      <c r="P163">
+        <v>2.9</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.775</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>1.8</v>
       </c>
-      <c r="N163">
-        <v>3.75</v>
-      </c>
-      <c r="O163">
-        <v>2.875</v>
-      </c>
-      <c r="P163">
+      <c r="V163">
+        <v>2</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
         <v>2.1</v>
       </c>
-      <c r="Q163">
-        <v>0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.95</v>
-      </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>2.75</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB163">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,46 +15847,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
         <v>2.25</v>
@@ -15898,19 +15898,19 @@
         <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,46 +15936,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="L174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T174">
         <v>2.25</v>
@@ -15987,19 +15987,19 @@
         <v>1.775</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
         <v>-1</v>
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7977873</v>
+        <v>7977384</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17980,28 +17980,37 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45396.78125</v>
+        <v>45395.70833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197" t="s">
+        <v>47</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L197">
+        <v>3.5</v>
+      </c>
+      <c r="M197">
+        <v>5</v>
+      </c>
+      <c r="N197">
+        <v>1.85</v>
+      </c>
+      <c r="O197">
         <v>3.2</v>
-      </c>
-      <c r="M197">
-        <v>3.75</v>
-      </c>
-      <c r="N197">
-        <v>1.95</v>
-      </c>
-      <c r="O197">
-        <v>2.9</v>
       </c>
       <c r="P197">
         <v>3.8</v>
@@ -18010,34 +18019,40 @@
         <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>1</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18045,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7977872</v>
+        <v>7977871</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18054,138 +18069,79 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45396.89583333334</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N198">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O198">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
+        <v>1.975</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>1.95</v>
+      </c>
+      <c r="V198">
         <v>1.85</v>
       </c>
-      <c r="S198">
-        <v>1.95</v>
-      </c>
-      <c r="T198">
-        <v>2</v>
-      </c>
-      <c r="U198">
-        <v>1.925</v>
-      </c>
-      <c r="V198">
-        <v>1.875</v>
-      </c>
       <c r="W198">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>7977383</v>
-      </c>
-      <c r="C199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" t="s">
-        <v>28</v>
-      </c>
-      <c r="E199" s="2">
-        <v>45397.83333333334</v>
-      </c>
-      <c r="F199" t="s">
-        <v>38</v>
-      </c>
-      <c r="G199" t="s">
-        <v>30</v>
-      </c>
-      <c r="K199">
-        <v>1.666</v>
-      </c>
-      <c r="L199">
-        <v>3.6</v>
-      </c>
-      <c r="M199">
-        <v>4.5</v>
-      </c>
-      <c r="N199">
-        <v>1.7</v>
-      </c>
-      <c r="O199">
-        <v>3.6</v>
-      </c>
-      <c r="P199">
-        <v>4.333</v>
-      </c>
-      <c r="Q199">
-        <v>-0.75</v>
-      </c>
-      <c r="R199">
-        <v>1.95</v>
-      </c>
-      <c r="S199">
-        <v>1.85</v>
-      </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.875</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
-      </c>
-      <c r="AA199">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0.475</v>
+      </c>
+      <c r="AC198">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
+        <v>1.833</v>
+      </c>
+      <c r="L94">
+        <v>3.25</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
         <v>3.2</v>
       </c>
-      <c r="L94">
-        <v>3.1</v>
-      </c>
-      <c r="M94">
-        <v>2.15</v>
-      </c>
-      <c r="N94">
-        <v>4.5</v>
-      </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,67 +8905,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O95">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA95">
         <v>-0.5</v>
@@ -8974,7 +8974,7 @@
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,58 +8994,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>47</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
         <v>3.4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,16 +9054,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,40 +9083,40 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
         <v>1.925</v>
@@ -9134,13 +9134,13 @@
         <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z97">
         <v>-1</v>
@@ -9149,10 +9149,10 @@
         <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O98">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P98">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
+        <v>2.025</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>1.95</v>
       </c>
-      <c r="S98">
-        <v>1.85</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.825</v>
-      </c>
-      <c r="V98">
-        <v>1.975</v>
-      </c>
       <c r="W98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.3875</v>
+      </c>
+      <c r="AA98">
+        <v>-0.5</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.95</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.825</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.05</v>
+      </c>
+      <c r="V135">
+        <v>1.75</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>1.875</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0.4</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>1.9</v>
-      </c>
-      <c r="W135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.925</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -18142,6 +18142,362 @@
       </c>
       <c r="AC198">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7977875</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s">
+        <v>40</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>45</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>3.1</v>
+      </c>
+      <c r="M199">
+        <v>2.25</v>
+      </c>
+      <c r="N199">
+        <v>3.1</v>
+      </c>
+      <c r="O199">
+        <v>3</v>
+      </c>
+      <c r="P199">
+        <v>2.3</v>
+      </c>
+      <c r="Q199">
+        <v>0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>1.975</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
+        <v>1.8</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.4125</v>
+      </c>
+      <c r="AA199">
+        <v>-0.5</v>
+      </c>
+      <c r="AB199">
+        <v>1</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7977873</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45396.78125</v>
+      </c>
+      <c r="F200" t="s">
+        <v>35</v>
+      </c>
+      <c r="G200" t="s">
+        <v>42</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>47</v>
+      </c>
+      <c r="K200">
+        <v>1.909</v>
+      </c>
+      <c r="L200">
+        <v>3.2</v>
+      </c>
+      <c r="M200">
+        <v>3.75</v>
+      </c>
+      <c r="N200">
+        <v>1.95</v>
+      </c>
+      <c r="O200">
+        <v>2.9</v>
+      </c>
+      <c r="P200">
+        <v>3.8</v>
+      </c>
+      <c r="Q200">
+        <v>-0.5</v>
+      </c>
+      <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
+        <v>1.8</v>
+      </c>
+      <c r="W200">
+        <v>0.95</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>1.025</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7977872</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45396.89583333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" t="s">
+        <v>43</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
+      </c>
+      <c r="K201">
+        <v>2.45</v>
+      </c>
+      <c r="L201">
+        <v>2.875</v>
+      </c>
+      <c r="M201">
+        <v>2.875</v>
+      </c>
+      <c r="N201">
+        <v>3.3</v>
+      </c>
+      <c r="O201">
+        <v>2.875</v>
+      </c>
+      <c r="P201">
+        <v>2.25</v>
+      </c>
+      <c r="Q201">
+        <v>0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
+        <v>1.95</v>
+      </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
+      <c r="U201">
+        <v>1.975</v>
+      </c>
+      <c r="V201">
+        <v>1.825</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>1.875</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>0.425</v>
+      </c>
+      <c r="AA201">
+        <v>-0.5</v>
+      </c>
+      <c r="AB201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7977383</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>38</v>
+      </c>
+      <c r="G202" t="s">
+        <v>30</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202" t="s">
+        <v>46</v>
+      </c>
+      <c r="K202">
+        <v>1.666</v>
+      </c>
+      <c r="L202">
+        <v>3.6</v>
+      </c>
+      <c r="M202">
+        <v>4.5</v>
+      </c>
+      <c r="N202">
+        <v>1.7</v>
+      </c>
+      <c r="O202">
+        <v>3.75</v>
+      </c>
+      <c r="P202">
+        <v>4.333</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.775</v>
+      </c>
+      <c r="V202">
+        <v>2.025</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>3.333</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.875</v>
+      </c>
+      <c r="AB202">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
+        <v>3.25</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
         <v>3.2</v>
       </c>
-      <c r="M93">
-        <v>2.15</v>
-      </c>
-      <c r="N93">
-        <v>4</v>
-      </c>
-      <c r="O93">
-        <v>3.6</v>
-      </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
+        <v>-1</v>
+      </c>
+      <c r="AA94">
+        <v>0.8</v>
+      </c>
+      <c r="AB94">
         <v>-0.5</v>
       </c>
-      <c r="AA94">
-        <v>0.5125</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
-      </c>
       <c r="AC94">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,58 +8905,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>1</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N96">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P96">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
+        <v>1.775</v>
+      </c>
+      <c r="S96">
+        <v>2.025</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
+        <v>1.85</v>
+      </c>
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>1.825</v>
-      </c>
-      <c r="V96">
-        <v>1.975</v>
-      </c>
       <c r="W96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
+        <v>0.3875</v>
+      </c>
+      <c r="AA96">
+        <v>-0.5</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.95</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>0.825</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236254</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="O97">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
+        <v>2.15</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
+        <v>1.75</v>
+      </c>
+      <c r="Q98">
+        <v>0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="N98">
-        <v>2.9</v>
-      </c>
-      <c r="O98">
-        <v>2.875</v>
-      </c>
-      <c r="P98">
-        <v>2.45</v>
-      </c>
-      <c r="Q98">
-        <v>0.25</v>
-      </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q157">
+        <v>0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>1.9</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.4</v>
+      </c>
+      <c r="AA157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>1.9</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>3.2</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
-      <c r="AA157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>4.2</v>
+      </c>
+      <c r="N158">
+        <v>1.833</v>
+      </c>
+      <c r="O158">
+        <v>3.1</v>
+      </c>
+      <c r="P158">
+        <v>4.2</v>
+      </c>
+      <c r="Q158">
+        <v>-0.5</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>1.9</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.85</v>
+      </c>
+      <c r="V158">
+        <v>1.95</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
         <v>3.2</v>
       </c>
-      <c r="M158">
-        <v>1.909</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
-      </c>
-      <c r="P158">
-        <v>2.375</v>
-      </c>
-      <c r="Q158">
-        <v>0.25</v>
-      </c>
-      <c r="R158">
-        <v>1.8</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>1.9</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
       <c r="Z158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -18498,6 +18498,154 @@
       </c>
       <c r="AC202">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7977386</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" t="s">
+        <v>37</v>
+      </c>
+      <c r="K203">
+        <v>1.615</v>
+      </c>
+      <c r="L203">
+        <v>3.8</v>
+      </c>
+      <c r="M203">
+        <v>4.333</v>
+      </c>
+      <c r="N203">
+        <v>1.75</v>
+      </c>
+      <c r="O203">
+        <v>3.6</v>
+      </c>
+      <c r="P203">
+        <v>3.8</v>
+      </c>
+      <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.775</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.8</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7977880</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>36</v>
+      </c>
+      <c r="K204">
+        <v>3.75</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>1.909</v>
+      </c>
+      <c r="N204">
+        <v>3.25</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>1.975</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236253</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
+        <v>2.15</v>
+      </c>
+      <c r="N93">
         <v>4</v>
       </c>
-      <c r="N93">
-        <v>2</v>
-      </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z93">
         <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q94">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>3.2</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q95">
+        <v>0.5</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1.8</v>
+      </c>
+      <c r="T95">
+        <v>2.25</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
         <v>0.75</v>
       </c>
-      <c r="R95">
-        <v>1.95</v>
-      </c>
-      <c r="S95">
-        <v>1.85</v>
-      </c>
-      <c r="T95">
-        <v>2.5</v>
-      </c>
-      <c r="U95">
-        <v>1.825</v>
-      </c>
-      <c r="V95">
-        <v>1.975</v>
-      </c>
-      <c r="W95">
-        <v>3.2</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
       <c r="Z95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236254</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9098,43 +9098,43 @@
         <v>47</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="N97">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.6659999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
         <v>3.2</v>
       </c>
-      <c r="M98">
-        <v>2.15</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
       <c r="P98">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,10 +9261,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9276,43 +9276,43 @@
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L99">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9321,16 +9321,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,13 +9350,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -9365,40 +9365,40 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
         <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,19 +9407,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,13 +9439,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -9454,40 +9454,40 @@
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,19 +9496,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7977386</v>
+        <v>8111023</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,138 +18514,79 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45401.83333333334</v>
+        <v>45400.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>47</v>
       </c>
       <c r="K203">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M203">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N203">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>7977880</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45401.83333333334</v>
-      </c>
-      <c r="F204" t="s">
-        <v>34</v>
-      </c>
-      <c r="G204" t="s">
-        <v>36</v>
-      </c>
-      <c r="K204">
-        <v>3.75</v>
-      </c>
-      <c r="L204">
-        <v>3.1</v>
-      </c>
-      <c r="M204">
-        <v>1.909</v>
-      </c>
-      <c r="N204">
-        <v>3.25</v>
-      </c>
-      <c r="O204">
-        <v>3.1</v>
-      </c>
-      <c r="P204">
-        <v>2</v>
-      </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
-        <v>2</v>
-      </c>
-      <c r="S204">
-        <v>1.8</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
-      <c r="U204">
-        <v>1.825</v>
-      </c>
-      <c r="V204">
-        <v>1.975</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.925</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0.4375</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="AA93">
-        <v>0.5</v>
-      </c>
       <c r="AB93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,73 +8816,73 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
+        <v>3.1</v>
+      </c>
+      <c r="L94">
         <v>3.2</v>
       </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
       <c r="M94">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q94">
         <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z94">
+        <v>-0.5</v>
+      </c>
+      <c r="AA94">
+        <v>0.5</v>
+      </c>
+      <c r="AB94">
         <v>0.95</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
-      <c r="AB94">
-        <v>0.825</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236255</v>
+        <v>6236253</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,10 +8994,10 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>45</v>
       </c>
       <c r="K96">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O96">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>1.775</v>
@@ -9039,31 +9039,31 @@
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,58 +9083,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>47</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
+        <v>3.4</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
         <v>4.2</v>
       </c>
-      <c r="M97">
-        <v>7.5</v>
-      </c>
-      <c r="N97">
-        <v>1.333</v>
-      </c>
       <c r="O97">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,67 +9261,67 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="N99">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.775</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
+        <v>1.95</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.925</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
-      <c r="W99">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
         <v>-0.5</v>
@@ -9330,7 +9330,7 @@
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
+        <v>2.375</v>
+      </c>
+      <c r="L102">
         <v>3.3</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45339.78125</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>2.05</v>
+      </c>
+      <c r="V136">
+        <v>1.75</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>1.875</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.925</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,70 +14868,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M162">
+        <v>3.25</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
+        <v>2.9</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>2.025</v>
+      </c>
+      <c r="S162">
+        <v>1.775</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
         <v>1.8</v>
       </c>
-      <c r="N162">
-        <v>3.75</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
+      <c r="V162">
+        <v>2</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
         <v>2.1</v>
       </c>
-      <c r="Q162">
-        <v>0.25</v>
-      </c>
-      <c r="R162">
-        <v>1.95</v>
-      </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>2.025</v>
-      </c>
-      <c r="V162">
-        <v>1.775</v>
-      </c>
-      <c r="W162">
-        <v>2.75</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
         <v>0</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,70 +14957,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>3.6</v>
+      </c>
+      <c r="M163">
+        <v>1.8</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>2.875</v>
+      </c>
+      <c r="P163">
         <v>2.1</v>
       </c>
-      <c r="L163">
-        <v>3</v>
-      </c>
-      <c r="M163">
-        <v>3.25</v>
-      </c>
-      <c r="N163">
-        <v>2.25</v>
-      </c>
-      <c r="O163">
-        <v>3.1</v>
-      </c>
-      <c r="P163">
-        <v>2.9</v>
-      </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
         <v>2.025</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.775</v>
       </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.8</v>
-      </c>
-      <c r="V163">
-        <v>2</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>0</v>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
+        <v>1.65</v>
+      </c>
+      <c r="S117">
+        <v>2.2</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
+        <v>1.825</v>
+      </c>
+      <c r="V117">
         <v>1.975</v>
       </c>
-      <c r="S117">
-        <v>1.825</v>
-      </c>
-      <c r="T117">
-        <v>2</v>
-      </c>
-      <c r="U117">
-        <v>1.925</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -18587,6 +18587,80 @@
       </c>
       <c r="AC203">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7977879</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>43</v>
+      </c>
+      <c r="G204" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204">
+        <v>2.75</v>
+      </c>
+      <c r="L204">
+        <v>2.875</v>
+      </c>
+      <c r="M204">
+        <v>2.55</v>
+      </c>
+      <c r="N204">
+        <v>2.375</v>
+      </c>
+      <c r="O204">
+        <v>2.9</v>
+      </c>
+      <c r="P204">
+        <v>3</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>1.75</v>
+      </c>
+      <c r="T204">
+        <v>1.75</v>
+      </c>
+      <c r="U204">
+        <v>1.775</v>
+      </c>
+      <c r="V204">
+        <v>2.025</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45199.6875</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
+        <v>0.4375</v>
+      </c>
+      <c r="AA94">
         <v>-0.5</v>
       </c>
-      <c r="AA94">
-        <v>0.5</v>
-      </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236612</v>
+        <v>6236255</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L95">
         <v>3.1</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P95">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
+        <v>1.95</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.875</v>
       </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.8</v>
+      </c>
+      <c r="AB96">
         <v>-0.5</v>
       </c>
-      <c r="AA96">
-        <v>0.5125</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
       <c r="AC96">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
+        <v>1.833</v>
+      </c>
+      <c r="L97">
+        <v>3.25</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
         <v>3.2</v>
       </c>
-      <c r="L97">
-        <v>3.4</v>
-      </c>
-      <c r="M97">
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>4.2</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
       <c r="P97">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q97">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45199.6875</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N102">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="O102">
         <v>3.2</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T102">
         <v>2.5</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,58 +9617,58 @@
         <v>45206.6875</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
+        <v>2.375</v>
+      </c>
+      <c r="L103">
         <v>3.3</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W103">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9677,16 +9677,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,10 +10774,10 @@
         <v>45242.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10789,46 +10789,46 @@
         <v>45</v>
       </c>
       <c r="K116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q116">
         <v>-0.25</v>
       </c>
       <c r="R116">
+        <v>1.65</v>
+      </c>
+      <c r="S116">
+        <v>2.2</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
         <v>1.975</v>
       </c>
-      <c r="S116">
-        <v>1.825</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -10837,13 +10837,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,10 +10863,10 @@
         <v>45242.75</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10878,46 +10878,46 @@
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q117">
         <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10926,13 +10926,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>4.2</v>
+      </c>
+      <c r="N157">
+        <v>1.833</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>4.2</v>
+      </c>
+      <c r="Q157">
+        <v>-0.5</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
         <v>3.2</v>
       </c>
-      <c r="M157">
-        <v>1.909</v>
-      </c>
-      <c r="N157">
-        <v>3</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
-      </c>
-      <c r="P157">
-        <v>2.375</v>
-      </c>
-      <c r="Q157">
-        <v>0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.8</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>1.9</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
       <c r="Z157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,76 +14512,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="N158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q158">
+        <v>0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.825</v>
+      </c>
+      <c r="V158">
+        <v>1.975</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>1.9</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.85</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>3.2</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -18594,72 +18594,517 @@
         <v>202</v>
       </c>
       <c r="B204">
+        <v>7977880</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>36</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>46</v>
+      </c>
+      <c r="K204">
+        <v>3.75</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>1.909</v>
+      </c>
+      <c r="N204">
+        <v>3.2</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.05</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>1.05</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.825</v>
+      </c>
+      <c r="AB204">
+        <v>-0.5</v>
+      </c>
+      <c r="AC204">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7977386</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>30</v>
+      </c>
+      <c r="G205" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>47</v>
+      </c>
+      <c r="K205">
+        <v>1.615</v>
+      </c>
+      <c r="L205">
+        <v>3.8</v>
+      </c>
+      <c r="M205">
+        <v>4.333</v>
+      </c>
+      <c r="N205">
+        <v>1.727</v>
+      </c>
+      <c r="O205">
+        <v>3.6</v>
+      </c>
+      <c r="P205">
+        <v>3.8</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.975</v>
+      </c>
+      <c r="V205">
+        <v>1.825</v>
+      </c>
+      <c r="W205">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>1</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7977876</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45401.83333333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>42</v>
+      </c>
+      <c r="G206" t="s">
+        <v>33</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>47</v>
+      </c>
+      <c r="K206">
+        <v>1.65</v>
+      </c>
+      <c r="L206">
+        <v>3.5</v>
+      </c>
+      <c r="M206">
+        <v>4.5</v>
+      </c>
+      <c r="N206">
+        <v>1.8</v>
+      </c>
+      <c r="O206">
+        <v>3.2</v>
+      </c>
+      <c r="P206">
+        <v>4.2</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.775</v>
+      </c>
+      <c r="V206">
+        <v>2.025</v>
+      </c>
+      <c r="W206">
+        <v>0.8</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7977878</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45402.83333333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>44</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
+      </c>
+      <c r="K207">
+        <v>2.25</v>
+      </c>
+      <c r="L207">
+        <v>3.5</v>
+      </c>
+      <c r="M207">
+        <v>2.6</v>
+      </c>
+      <c r="N207">
+        <v>3.6</v>
+      </c>
+      <c r="O207">
+        <v>3.2</v>
+      </c>
+      <c r="P207">
+        <v>1.909</v>
+      </c>
+      <c r="Q207">
+        <v>0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
+        <v>1.95</v>
+      </c>
+      <c r="W207">
+        <v>2.6</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.825</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7977877</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45402.83333333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>47</v>
+      </c>
+      <c r="K208">
+        <v>2.1</v>
+      </c>
+      <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>3</v>
+      </c>
+      <c r="N208">
+        <v>2.75</v>
+      </c>
+      <c r="O208">
+        <v>2.55</v>
+      </c>
+      <c r="P208">
+        <v>2.75</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>2.075</v>
+      </c>
+      <c r="S208">
+        <v>1.725</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.95</v>
+      </c>
+      <c r="V208">
+        <v>1.85</v>
+      </c>
+      <c r="W208">
+        <v>1.75</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>1.075</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
         <v>7977879</v>
       </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
         <v>45403.77083333334</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F209" t="s">
         <v>43</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G209" t="s">
         <v>38</v>
       </c>
-      <c r="K204">
+      <c r="K209">
         <v>2.75</v>
       </c>
-      <c r="L204">
+      <c r="L209">
         <v>2.875</v>
       </c>
-      <c r="M204">
+      <c r="M209">
         <v>2.55</v>
       </c>
-      <c r="N204">
+      <c r="N209">
         <v>2.375</v>
       </c>
-      <c r="O204">
+      <c r="O209">
         <v>2.9</v>
       </c>
-      <c r="P204">
+      <c r="P209">
         <v>3</v>
       </c>
-      <c r="Q204">
+      <c r="Q209">
         <v>-0.25</v>
       </c>
-      <c r="R204">
+      <c r="R209">
         <v>2.05</v>
       </c>
-      <c r="S204">
+      <c r="S209">
         <v>1.75</v>
       </c>
-      <c r="T204">
+      <c r="T209">
         <v>1.75</v>
       </c>
-      <c r="U204">
+      <c r="U209">
         <v>1.775</v>
       </c>
-      <c r="V204">
+      <c r="V209">
         <v>2.025</v>
       </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB208"/>
+  <dimension ref="A1:AB209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,10 +765,10 @@
         <v>2.2</v>
       </c>
       <c r="Y3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
         <v>-1</v>
@@ -851,10 +851,10 @@
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
         <v>0.825</v>
@@ -1023,10 +1023,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-0.5</v>
@@ -1109,10 +1109,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>0.8999999999999999</v>
@@ -1195,10 +1195,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
@@ -1367,10 +1367,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1453,10 +1453,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-0.5</v>
@@ -1625,10 +1625,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.8</v>
@@ -1711,10 +1711,10 @@
         <v>3.75</v>
       </c>
       <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
       </c>
       <c r="AA14">
         <v>0.8500000000000001</v>
@@ -1797,10 +1797,10 @@
         <v>1.9</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1883,10 +1883,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>0.8</v>
@@ -2055,10 +2055,10 @@
         <v>1.4</v>
       </c>
       <c r="Y18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2141,10 +2141,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.825</v>
@@ -2227,10 +2227,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.875</v>
@@ -2313,10 +2313,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z21">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.7749999999999999</v>
@@ -2399,10 +2399,10 @@
         <v>1.875</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>0.8</v>
@@ -2485,10 +2485,10 @@
         <v>1.9</v>
       </c>
       <c r="Y23">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA23">
         <v>0.7749999999999999</v>
@@ -2571,10 +2571,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.7749999999999999</v>
@@ -2657,10 +2657,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2829,10 +2829,10 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2915,10 +2915,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z28">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-0.5</v>
@@ -3087,10 +3087,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3259,10 +3259,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>1</v>
@@ -3345,10 +3345,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-0.5</v>
@@ -3431,10 +3431,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>-1</v>
@@ -3689,10 +3689,10 @@
         <v>1.2</v>
       </c>
       <c r="Y37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>0.8999999999999999</v>
@@ -3775,10 +3775,10 @@
         <v>1.55</v>
       </c>
       <c r="Y38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3861,10 +3861,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>0.4875</v>
@@ -3947,10 +3947,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4119,10 +4119,10 @@
         <v>0.909</v>
       </c>
       <c r="Y42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
         <v>0.9750000000000001</v>
@@ -4205,10 +4205,10 @@
         <v>2.6</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4291,10 +4291,10 @@
         <v>1.15</v>
       </c>
       <c r="Y44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4377,10 +4377,10 @@
         <v>1.7</v>
       </c>
       <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4463,10 +4463,10 @@
         <v>2.2</v>
       </c>
       <c r="Y46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
         <v>0.9750000000000001</v>
@@ -4721,10 +4721,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4807,10 +4807,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>0.7749999999999999</v>
@@ -4979,10 +4979,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z52">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.95</v>
@@ -5151,10 +5151,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>0.925</v>
@@ -5409,10 +5409,10 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5495,10 +5495,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5581,10 +5581,10 @@
         <v>0.8</v>
       </c>
       <c r="Y59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
         <v>0.8500000000000001</v>
@@ -5753,10 +5753,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -5839,10 +5839,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>0.95</v>
@@ -6011,10 +6011,10 @@
         <v>2.6</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
         <v>0.9750000000000001</v>
@@ -6269,10 +6269,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-0.5</v>
@@ -6441,10 +6441,10 @@
         <v>1.25</v>
       </c>
       <c r="Y69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>0.925</v>
@@ -6527,10 +6527,10 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0.825</v>
@@ -6613,10 +6613,10 @@
         <v>0.909</v>
       </c>
       <c r="Y71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6785,10 +6785,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6871,10 +6871,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.8999999999999999</v>
@@ -7043,10 +7043,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.8</v>
@@ -7129,10 +7129,10 @@
         <v>1.15</v>
       </c>
       <c r="Y77">
+        <v>-1</v>
+      </c>
+      <c r="Z77">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z77">
-        <v>-1</v>
       </c>
       <c r="AA77">
         <v>1</v>
@@ -7215,10 +7215,10 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
         <v>0.875</v>
@@ -7301,10 +7301,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>-0.5</v>
@@ -7473,10 +7473,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7559,10 +7559,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>0.925</v>
@@ -7731,10 +7731,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7817,10 +7817,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>1.025</v>
@@ -8075,10 +8075,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z88">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>0.825</v>
@@ -8161,10 +8161,10 @@
         <v>1.15</v>
       </c>
       <c r="Y89">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA89">
         <v>1.05</v>
@@ -8247,10 +8247,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8419,10 +8419,10 @@
         <v>1.3</v>
       </c>
       <c r="Y92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
         <v>0.8999999999999999</v>
@@ -8436,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236251</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8445,73 +8445,73 @@
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J93">
+        <v>3.1</v>
+      </c>
+      <c r="K93">
         <v>3.2</v>
       </c>
-      <c r="K93">
-        <v>3.4</v>
-      </c>
       <c r="L93">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P93">
         <v>0.75</v>
       </c>
       <c r="Q93">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S93">
         <v>2.5</v>
       </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y93">
         <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
         <v>-1</v>
@@ -8522,7 +8522,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236254</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8531,49 +8531,49 @@
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J94">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T94">
         <v>1.9</v>
@@ -8582,19 +8582,19 @@
         <v>1.9</v>
       </c>
       <c r="V94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z94">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8608,7 +8608,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8617,67 +8617,67 @@
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J95">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N95">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q95">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="Z95">
         <v>-0.5</v>
@@ -8686,7 +8686,7 @@
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,7 +8694,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8703,40 +8703,40 @@
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J96">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L96">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="M96">
+        <v>1.333</v>
+      </c>
+      <c r="N96">
         <v>4.5</v>
       </c>
-      <c r="N96">
-        <v>3.3</v>
-      </c>
       <c r="O96">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P96">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>1.8</v>
       </c>
       <c r="S96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T96">
         <v>1.925</v>
@@ -8754,25 +8754,25 @@
         <v>1.875</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8780,7 +8780,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8789,76 +8789,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J97">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="K97">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
+        <v>3.8</v>
+      </c>
+      <c r="O97">
+        <v>1.65</v>
+      </c>
+      <c r="P97">
+        <v>0.75</v>
+      </c>
+      <c r="Q97">
+        <v>1.95</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>2.5</v>
+      </c>
+      <c r="T97">
+        <v>1.825</v>
+      </c>
+      <c r="U97">
+        <v>1.975</v>
+      </c>
+      <c r="V97">
         <v>3.2</v>
       </c>
-      <c r="O97">
-        <v>3.5</v>
-      </c>
-      <c r="P97">
-        <v>-0.25</v>
-      </c>
-      <c r="Q97">
-        <v>1.775</v>
-      </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>2.25</v>
-      </c>
-      <c r="T97">
-        <v>1.9</v>
-      </c>
-      <c r="U97">
-        <v>1.9</v>
-      </c>
-      <c r="V97">
-        <v>-1</v>
-      </c>
       <c r="W97">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z97">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8866,7 +8866,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8875,76 +8875,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98">
+        <v>3.75</v>
+      </c>
+      <c r="K98">
         <v>3.1</v>
       </c>
-      <c r="K98">
-        <v>3.2</v>
-      </c>
       <c r="L98">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="U98">
-        <v>1.85</v>
-      </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>0.95</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8952,7 +8952,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236612</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8961,40 +8961,40 @@
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="N99">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O99">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="P99">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T99">
         <v>1.925</v>
@@ -9012,13 +9012,13 @@
         <v>1.875</v>
       </c>
       <c r="V99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9027,10 +9027,10 @@
         <v>0.8</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9107,10 +9107,10 @@
         <v>3.2</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9193,10 +9193,10 @@
         <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>0.4</v>
@@ -9279,10 +9279,10 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z102">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>0.9750000000000001</v>
@@ -9365,10 +9365,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z103">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9451,10 +9451,10 @@
         <v>1.15</v>
       </c>
       <c r="Y104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA104">
         <v>0.9750000000000001</v>
@@ -9881,10 +9881,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0.825</v>
@@ -9967,10 +9967,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
@@ -10053,10 +10053,10 @@
         <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10139,10 +10139,10 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z112">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
         <v>0.95</v>
@@ -10225,10 +10225,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
         <v>0.7749999999999999</v>
@@ -10242,7 +10242,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7352251</v>
+        <v>7352250</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10251,76 +10251,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K114">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="M114">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P114">
+        <v>0.25</v>
+      </c>
+      <c r="Q114">
+        <v>1.725</v>
+      </c>
+      <c r="R114">
+        <v>2.075</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>1.825</v>
+      </c>
+      <c r="U114">
+        <v>1.975</v>
+      </c>
+      <c r="V114">
+        <v>-1</v>
+      </c>
+      <c r="W114">
+        <v>1.875</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>0.3625</v>
+      </c>
+      <c r="Z114">
         <v>-0.5</v>
       </c>
-      <c r="Q114">
-        <v>2.025</v>
-      </c>
-      <c r="R114">
-        <v>1.775</v>
-      </c>
-      <c r="S114">
-        <v>2.25</v>
-      </c>
-      <c r="T114">
-        <v>1.975</v>
-      </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
-      <c r="V114">
-        <v>1.15</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>-1</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10328,7 +10328,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7352250</v>
+        <v>7352251</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10337,76 +10337,76 @@
         <v>45238.82291666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J115">
+        <v>2.1</v>
+      </c>
+      <c r="K115">
+        <v>3.2</v>
+      </c>
+      <c r="L115">
+        <v>3.3</v>
+      </c>
+      <c r="M115">
+        <v>2.15</v>
+      </c>
+      <c r="N115">
         <v>3.1</v>
       </c>
-      <c r="K115">
-        <v>2.875</v>
-      </c>
-      <c r="L115">
-        <v>2.3</v>
-      </c>
-      <c r="M115">
-        <v>3</v>
-      </c>
-      <c r="N115">
-        <v>2.875</v>
-      </c>
       <c r="O115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T115">
+        <v>1.975</v>
+      </c>
+      <c r="U115">
         <v>1.825</v>
       </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W115">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.3625</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10655,10 +10655,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.95</v>
@@ -10741,10 +10741,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>-0.5</v>
@@ -10913,10 +10913,10 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z121">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
         <v>1</v>
@@ -10999,10 +10999,10 @@
         <v>1.9</v>
       </c>
       <c r="Y122">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
         <v>0.95</v>
@@ -11085,10 +11085,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11171,10 +11171,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0.875</v>
@@ -11343,10 +11343,10 @@
         <v>2</v>
       </c>
       <c r="Y126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA126">
         <v>-1</v>
@@ -11515,10 +11515,10 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11601,10 +11601,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>0.8999999999999999</v>
@@ -11687,10 +11687,10 @@
         <v>1.3</v>
       </c>
       <c r="Y130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -11773,10 +11773,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>1.025</v>
@@ -11859,10 +11859,10 @@
         <v>2.6</v>
       </c>
       <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -11945,10 +11945,10 @@
         <v>3</v>
       </c>
       <c r="Y133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -12031,10 +12031,10 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>0.8</v>
@@ -12203,10 +12203,10 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
         <v>0.8999999999999999</v>
@@ -12289,10 +12289,10 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z137">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA137">
         <v>0.8500000000000001</v>
@@ -12375,10 +12375,10 @@
         <v>1.875</v>
       </c>
       <c r="Y138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12977,10 +12977,10 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA145">
         <v>0.95</v>
@@ -13063,10 +13063,10 @@
         <v>4</v>
       </c>
       <c r="Y146">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
         <v>0.8500000000000001</v>
@@ -13235,10 +13235,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>0.8500000000000001</v>
@@ -13493,10 +13493,10 @@
         <v>1.375</v>
       </c>
       <c r="Y151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
         <v>0.825</v>
@@ -13665,10 +13665,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>0.825</v>
@@ -13751,10 +13751,10 @@
         <v>2.4</v>
       </c>
       <c r="Y154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -13837,10 +13837,10 @@
         <v>1.8</v>
       </c>
       <c r="Y155">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA155">
         <v>1.05</v>
@@ -13923,10 +13923,10 @@
         <v>2.25</v>
       </c>
       <c r="Y156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
         <v>-0.5</v>
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,76 +13949,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K157">
+        <v>3.1</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>1.833</v>
+      </c>
+      <c r="N157">
+        <v>3.1</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>-0.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.9</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.85</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3.2</v>
       </c>
-      <c r="L157">
-        <v>1.909</v>
-      </c>
-      <c r="M157">
-        <v>3</v>
-      </c>
-      <c r="N157">
-        <v>2.9</v>
-      </c>
-      <c r="O157">
-        <v>2.375</v>
-      </c>
-      <c r="P157">
-        <v>0.25</v>
-      </c>
-      <c r="Q157">
-        <v>1.8</v>
-      </c>
-      <c r="R157">
-        <v>2</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.825</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>1.9</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14026,7 +14026,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14035,76 +14035,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
+        <v>0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.8</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>1.9</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.4</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="Q158">
-        <v>1.9</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.85</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>3.2</v>
-      </c>
-      <c r="Y158">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14181,10 +14181,10 @@
         <v>1.2</v>
       </c>
       <c r="Y159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
         <v>1.025</v>
@@ -14267,10 +14267,10 @@
         <v>1.875</v>
       </c>
       <c r="Y160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA160">
         <v>0.8999999999999999</v>
@@ -14353,10 +14353,10 @@
         <v>1.3</v>
       </c>
       <c r="Y161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA161">
         <v>0.825</v>
@@ -14370,7 +14370,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14379,70 +14379,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J162">
+        <v>3.6</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>1.8</v>
+      </c>
+      <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>2.875</v>
+      </c>
+      <c r="O162">
         <v>2.1</v>
       </c>
-      <c r="K162">
-        <v>3</v>
-      </c>
-      <c r="L162">
-        <v>3.25</v>
-      </c>
-      <c r="M162">
-        <v>2.25</v>
-      </c>
-      <c r="N162">
-        <v>3.1</v>
-      </c>
-      <c r="O162">
-        <v>2.9</v>
-      </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q162">
+        <v>1.95</v>
+      </c>
+      <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>2.025</v>
       </c>
-      <c r="R162">
+      <c r="U162">
         <v>1.775</v>
       </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>1.8</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
       <c r="V162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14456,7 +14456,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14465,70 +14465,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L163">
+        <v>3.25</v>
+      </c>
+      <c r="M163">
+        <v>2.25</v>
+      </c>
+      <c r="N163">
+        <v>3.1</v>
+      </c>
+      <c r="O163">
+        <v>2.9</v>
+      </c>
+      <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>2.025</v>
+      </c>
+      <c r="R163">
+        <v>1.775</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>1.8</v>
       </c>
-      <c r="M163">
-        <v>3.75</v>
-      </c>
-      <c r="N163">
-        <v>2.875</v>
-      </c>
-      <c r="O163">
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>-1</v>
+      </c>
+      <c r="W163">
         <v>2.1</v>
       </c>
-      <c r="P163">
-        <v>0.25</v>
-      </c>
-      <c r="Q163">
-        <v>1.95</v>
-      </c>
-      <c r="R163">
-        <v>1.85</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>2.025</v>
-      </c>
-      <c r="U163">
-        <v>1.775</v>
-      </c>
-      <c r="V163">
-        <v>2.75</v>
-      </c>
-      <c r="W163">
-        <v>-1</v>
-      </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -14697,10 +14697,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
         <v>0.9750000000000001</v>
@@ -14783,10 +14783,10 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z166">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -14869,10 +14869,10 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z167">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
         <v>0.95</v>
@@ -14955,10 +14955,10 @@
         <v>1.3</v>
       </c>
       <c r="Y168">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15127,10 +15127,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>0.8500000000000001</v>
@@ -15213,10 +15213,10 @@
         <v>2</v>
       </c>
       <c r="Y171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15299,10 +15299,10 @@
         <v>4.5</v>
       </c>
       <c r="Y172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA172">
         <v>-1</v>
@@ -15316,7 +15316,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15325,46 +15325,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J173">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="K173">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="M173">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P173">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q173">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S173">
         <v>2.25</v>
@@ -15376,19 +15376,19 @@
         <v>1.775</v>
       </c>
       <c r="V173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15402,7 +15402,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15411,46 +15411,46 @@
         <v>45371.89583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J174">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="K174">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L174">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O174">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q174">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R174">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
         <v>2.25</v>
@@ -15462,19 +15462,19 @@
         <v>1.775</v>
       </c>
       <c r="V174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W174">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>-1</v>
@@ -15557,10 +15557,10 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
         <v>-1</v>
@@ -15643,10 +15643,10 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z176">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -15729,10 +15729,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15815,10 +15815,10 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
         <v>1.025</v>
@@ -16073,10 +16073,10 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
@@ -16159,10 +16159,10 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z182">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
         <v>0</v>
@@ -16245,10 +16245,10 @@
         <v>4.25</v>
       </c>
       <c r="Y183">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
         <v>0.825</v>
@@ -16417,10 +16417,10 @@
         <v>6</v>
       </c>
       <c r="Y185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>0.8999999999999999</v>
@@ -16589,10 +16589,10 @@
         <v>1.375</v>
       </c>
       <c r="Y187">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA187">
         <v>0.8999999999999999</v>
@@ -16761,10 +16761,10 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
         <v>0</v>
@@ -16847,10 +16847,10 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
@@ -16933,10 +16933,10 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
         <v>0.8999999999999999</v>
@@ -17105,10 +17105,10 @@
         <v>3</v>
       </c>
       <c r="Y193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA193">
         <v>0</v>
@@ -17277,10 +17277,10 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
         <v>0.8999999999999999</v>
@@ -17363,10 +17363,10 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17449,10 +17449,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>1</v>
@@ -17535,10 +17535,10 @@
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>0.475</v>
@@ -17707,10 +17707,10 @@
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
         <v>-1</v>
@@ -17879,10 +17879,10 @@
         <v>3.333</v>
       </c>
       <c r="Y202">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA202">
         <v>0.7749999999999999</v>
@@ -17965,10 +17965,10 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
         <v>0.925</v>
@@ -18051,10 +18051,10 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18068,7 +18068,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7977386</v>
+        <v>7977880</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18077,76 +18077,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J205">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="K205">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L205">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="M205">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P205">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18154,7 +18154,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977880</v>
+        <v>7977386</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18163,76 +18163,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J206">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="K206">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L206">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M206">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N206">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O206">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>2.5</v>
+      </c>
+      <c r="T206">
         <v>1.975</v>
       </c>
-      <c r="R206">
+      <c r="U206">
         <v>1.825</v>
       </c>
-      <c r="S206">
-        <v>2.25</v>
-      </c>
-      <c r="T206">
-        <v>1.95</v>
-      </c>
-      <c r="U206">
-        <v>1.85</v>
-      </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18309,10 +18309,10 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z207">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
         <v>-1</v>
@@ -18395,16 +18395,102 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7977879</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="E209" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209">
+        <v>2.75</v>
+      </c>
+      <c r="K209">
+        <v>2.875</v>
+      </c>
+      <c r="L209">
+        <v>2.55</v>
+      </c>
+      <c r="M209">
+        <v>2.5</v>
+      </c>
+      <c r="N209">
+        <v>3.2</v>
+      </c>
+      <c r="O209">
+        <v>2.625</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
+        <v>1.85</v>
+      </c>
+      <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
+        <v>2.25</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.8</v>
+      </c>
+      <c r="V209">
+        <v>-1</v>
+      </c>
+      <c r="W209">
+        <v>2.2</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8436,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8445,13 +8445,13 @@
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8460,40 +8460,40 @@
         <v>45</v>
       </c>
       <c r="J93">
+        <v>3.2</v>
+      </c>
+      <c r="K93">
         <v>3.1</v>
-      </c>
-      <c r="K93">
-        <v>3.2</v>
       </c>
       <c r="L93">
         <v>2.15</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O93">
         <v>1.75</v>
       </c>
       <c r="P93">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
         <v>1.8</v>
       </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
       <c r="S93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
         <v>-1</v>
@@ -8505,16 +8505,16 @@
         <v>0.75</v>
       </c>
       <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.8</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="Z93">
-        <v>0.5</v>
-      </c>
-      <c r="AA93">
-        <v>0.95</v>
-      </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8522,7 +8522,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236611</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8531,76 +8531,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J94">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="K94">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
+        <v>3.8</v>
+      </c>
+      <c r="O94">
+        <v>1.65</v>
+      </c>
+      <c r="P94">
+        <v>0.75</v>
+      </c>
+      <c r="Q94">
+        <v>1.95</v>
+      </c>
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
+        <v>2.5</v>
+      </c>
+      <c r="T94">
+        <v>1.825</v>
+      </c>
+      <c r="U94">
+        <v>1.975</v>
+      </c>
+      <c r="V94">
         <v>3.2</v>
       </c>
-      <c r="O94">
-        <v>3.5</v>
-      </c>
-      <c r="P94">
-        <v>-0.25</v>
-      </c>
-      <c r="Q94">
-        <v>1.775</v>
-      </c>
-      <c r="R94">
-        <v>2.025</v>
-      </c>
-      <c r="S94">
-        <v>2.25</v>
-      </c>
-      <c r="T94">
-        <v>1.9</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>-1</v>
-      </c>
       <c r="W94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8608,7 +8608,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8617,76 +8617,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J95">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="K95">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S95">
         <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y95">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,7 +8694,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8703,10 +8703,10 @@
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8718,43 +8718,43 @@
         <v>46</v>
       </c>
       <c r="J96">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="K96">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L96">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -8763,16 +8763,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8780,7 +8780,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8789,76 +8789,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J97">
+        <v>1.833</v>
+      </c>
+      <c r="K97">
+        <v>3.25</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
         <v>3.2</v>
       </c>
-      <c r="K97">
-        <v>3.4</v>
-      </c>
-      <c r="L97">
-        <v>2</v>
-      </c>
-      <c r="M97">
-        <v>4.2</v>
-      </c>
-      <c r="N97">
-        <v>3.8</v>
-      </c>
       <c r="O97">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8866,7 +8866,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8875,76 +8875,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J98">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="M98">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="N98">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O98">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="P98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8952,7 +8952,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236612</v>
+        <v>6236255</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8961,76 +8961,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J99">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K99">
         <v>3.1</v>
       </c>
       <c r="L99">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M99">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N99">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O99">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P99">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
         <v>2.25</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>-1</v>
+      </c>
+      <c r="W99">
         <v>1.875</v>
       </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
       <c r="X99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -10414,7 +10414,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10423,10 +10423,10 @@
         <v>45242.75</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10438,46 +10438,46 @@
         <v>44</v>
       </c>
       <c r="J116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
         <v>-0.25</v>
       </c>
       <c r="Q116">
+        <v>1.65</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>2.25</v>
+      </c>
+      <c r="T116">
+        <v>1.825</v>
+      </c>
+      <c r="U116">
         <v>1.975</v>
       </c>
-      <c r="R116">
-        <v>1.825</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>1.925</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10486,13 +10486,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10500,7 +10500,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10509,10 +10509,10 @@
         <v>45242.75</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10524,46 +10524,46 @@
         <v>44</v>
       </c>
       <c r="J117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
         <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10572,13 +10572,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -12048,7 +12048,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12057,76 +12057,76 @@
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12134,7 +12134,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12143,76 +12143,76 @@
         <v>45339.78125</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="M136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P136">
+        <v>0.25</v>
+      </c>
+      <c r="Q136">
+        <v>1.8</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>2.25</v>
+      </c>
+      <c r="T136">
+        <v>2.05</v>
+      </c>
+      <c r="U136">
+        <v>1.75</v>
+      </c>
+      <c r="V136">
+        <v>-1</v>
+      </c>
+      <c r="W136">
+        <v>1.875</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>0.4</v>
+      </c>
+      <c r="Z136">
         <v>-0.5</v>
       </c>
-      <c r="Q136">
-        <v>1.925</v>
-      </c>
-      <c r="R136">
-        <v>1.875</v>
-      </c>
-      <c r="S136">
-        <v>2.5</v>
-      </c>
-      <c r="T136">
-        <v>1.9</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>0.925</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,76 +13949,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P157">
+        <v>0.25</v>
+      </c>
+      <c r="Q157">
+        <v>1.8</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.825</v>
+      </c>
+      <c r="U157">
+        <v>1.975</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>1.9</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.4</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="Q157">
-        <v>1.9</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.85</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3.2</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14026,7 +14026,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14035,76 +14035,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K158">
+        <v>3.1</v>
+      </c>
+      <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>1.833</v>
+      </c>
+      <c r="N158">
+        <v>3.1</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
+        <v>-0.5</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.85</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>3.2</v>
       </c>
-      <c r="L158">
-        <v>1.909</v>
-      </c>
-      <c r="M158">
-        <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>2.375</v>
-      </c>
-      <c r="P158">
-        <v>0.25</v>
-      </c>
-      <c r="Q158">
-        <v>1.8</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.825</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>1.9</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
       <c r="Y158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14370,7 +14370,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14379,70 +14379,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L162">
+        <v>3.25</v>
+      </c>
+      <c r="M162">
+        <v>2.25</v>
+      </c>
+      <c r="N162">
+        <v>3.1</v>
+      </c>
+      <c r="O162">
+        <v>2.9</v>
+      </c>
+      <c r="P162">
+        <v>-0.25</v>
+      </c>
+      <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>1.8</v>
       </c>
-      <c r="M162">
-        <v>3.75</v>
-      </c>
-      <c r="N162">
-        <v>2.875</v>
-      </c>
-      <c r="O162">
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
         <v>2.1</v>
       </c>
-      <c r="P162">
-        <v>0.25</v>
-      </c>
-      <c r="Q162">
-        <v>1.95</v>
-      </c>
-      <c r="R162">
-        <v>1.85</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>2.025</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.75</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14456,7 +14456,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14465,70 +14465,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J163">
+        <v>3.6</v>
+      </c>
+      <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>1.8</v>
+      </c>
+      <c r="M163">
+        <v>3.75</v>
+      </c>
+      <c r="N163">
+        <v>2.875</v>
+      </c>
+      <c r="O163">
         <v>2.1</v>
       </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>3.25</v>
-      </c>
-      <c r="M163">
-        <v>2.25</v>
-      </c>
-      <c r="N163">
-        <v>3.1</v>
-      </c>
-      <c r="O163">
-        <v>2.9</v>
-      </c>
       <c r="P163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q163">
+        <v>1.95</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>2.025</v>
       </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.775</v>
       </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>1.8</v>
-      </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
       <c r="V163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -17982,7 +17982,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977876</v>
+        <v>7977880</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -17991,76 +17991,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J204">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="K204">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M204">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P204">
+        <v>0.25</v>
+      </c>
+      <c r="Q204">
+        <v>1.975</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>2.25</v>
+      </c>
+      <c r="T204">
+        <v>1.95</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>-1</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>1.05</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.825</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="Q204">
-        <v>1.85</v>
-      </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>1.775</v>
-      </c>
-      <c r="U204">
-        <v>2.025</v>
-      </c>
-      <c r="V204">
-        <v>0.8</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z204">
-        <v>-1</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18068,7 +18068,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7977880</v>
+        <v>7977386</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18077,76 +18077,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J205">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L205">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N205">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2.5</v>
+      </c>
+      <c r="T205">
         <v>1.975</v>
       </c>
-      <c r="R205">
+      <c r="U205">
         <v>1.825</v>
       </c>
-      <c r="S205">
-        <v>2.25</v>
-      </c>
-      <c r="T205">
-        <v>1.95</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
       <c r="V205">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
         <v>0.825</v>
-      </c>
-      <c r="AA205">
-        <v>-0.5</v>
-      </c>
-      <c r="AB205">
-        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18154,7 +18154,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977386</v>
+        <v>7977876</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18163,13 +18163,13 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18178,43 +18178,43 @@
         <v>46</v>
       </c>
       <c r="J206">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="K206">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O206">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q206">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U206">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18223,7 +18223,7 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z206">
         <v>-1</v>
@@ -18232,7 +18232,7 @@
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:28">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8146411</t>
+  </si>
+  <si>
+    <t>8146410</t>
   </si>
   <si>
     <t>Venezuela Primera Division</t>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB209"/>
+  <dimension ref="A1:AB211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +619,16 @@
         <v>6236589</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45099.66666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -699,16 +705,16 @@
         <v>6236185</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45100.80208333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -717,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>1.909</v>
@@ -785,16 +791,16 @@
         <v>6236184</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45100.89583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -803,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>1.75</v>
@@ -871,16 +877,16 @@
         <v>6236186</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45101.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>2.15</v>
@@ -957,16 +963,16 @@
         <v>6799213</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45101.80208333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -975,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1043,16 +1049,16 @@
         <v>6799206</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45101.89583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1061,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1129,16 +1135,16 @@
         <v>6236588</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45102.70833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1215,16 +1221,16 @@
         <v>6236190</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1233,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>2.4</v>
@@ -1301,16 +1307,16 @@
         <v>6236591</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45107.88541666666</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1319,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1387,16 +1393,16 @@
         <v>6837829</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45108.80208333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1405,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1473,16 +1479,16 @@
         <v>6837828</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45108.89583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1491,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>2.875</v>
@@ -1559,16 +1565,16 @@
         <v>6236188</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45109.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1577,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2.55</v>
@@ -1645,16 +1651,16 @@
         <v>6236189</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45109.80208333334</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1663,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -1731,16 +1737,16 @@
         <v>6236187</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45109.89583333334</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1749,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>2.8</v>
@@ -1817,16 +1823,16 @@
         <v>6236594</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45113.79166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1835,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1903,16 +1909,16 @@
         <v>6870184</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1921,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1989,16 +1995,16 @@
         <v>6236195</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45115.70833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2075,16 +2081,16 @@
         <v>6236593</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45115.80208333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2093,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.444</v>
@@ -2161,16 +2167,16 @@
         <v>6236194</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45115.89583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2179,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2247,16 +2253,16 @@
         <v>6236193</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45116.79166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2265,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.75</v>
@@ -2333,16 +2339,16 @@
         <v>6236196</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45116.88541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2351,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2419,16 +2425,16 @@
         <v>6236199</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45121.79166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2437,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2505,16 +2511,16 @@
         <v>6236202</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45121.88541666666</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2523,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>3.2</v>
@@ -2591,16 +2597,16 @@
         <v>6236197</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45122.75</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2609,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>3.6</v>
@@ -2677,16 +2683,16 @@
         <v>6236595</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45122.84375</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2695,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2763,16 +2769,16 @@
         <v>6236198</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2781,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2849,16 +2855,16 @@
         <v>6236201</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45123.80208333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2935,16 +2941,16 @@
         <v>6236200</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45123.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2953,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3021,16 +3027,16 @@
         <v>6236205</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45128.75</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3039,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.666</v>
@@ -3107,17 +3113,17 @@
         <v>6236208</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45128.84027777778</v>
       </c>
       <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3193,16 +3199,16 @@
         <v>6236596</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45129.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3211,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3279,16 +3285,16 @@
         <v>6236204</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45129.80208333334</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.615</v>
@@ -3365,16 +3371,16 @@
         <v>6236207</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45129.89583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3383,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3451,16 +3457,16 @@
         <v>6236203</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45130.75</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3469,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J35">
         <v>2.2</v>
@@ -3537,16 +3543,16 @@
         <v>6904420</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3555,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3623,16 +3629,16 @@
         <v>6236597</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45134.75</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3709,16 +3715,16 @@
         <v>6236213</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3727,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3795,16 +3801,16 @@
         <v>6236598</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45135.80208333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3813,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.15</v>
@@ -3881,16 +3887,16 @@
         <v>6236209</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45135.89583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3899,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3967,16 +3973,16 @@
         <v>6236212</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3985,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>3.3</v>
@@ -4053,16 +4059,16 @@
         <v>6236211</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45136.80208333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4071,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -4139,16 +4145,16 @@
         <v>6236210</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45136.89583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4157,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4225,16 +4231,16 @@
         <v>6236600</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4243,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -4311,16 +4317,16 @@
         <v>6236215</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45143.6875</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4329,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.7</v>
@@ -4397,16 +4403,16 @@
         <v>6236216</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45143.80208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4415,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>2.05</v>
@@ -4483,16 +4489,16 @@
         <v>6236599</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4501,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4569,16 +4575,16 @@
         <v>6236214</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45144.6875</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4587,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>1.909</v>
@@ -4655,16 +4661,16 @@
         <v>6236217</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45144.80208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4673,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>1.571</v>
@@ -4741,16 +4747,16 @@
         <v>7010906</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45144.91666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4759,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4827,16 +4833,16 @@
         <v>6236219</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45149.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4845,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>1.95</v>
@@ -4913,16 +4919,16 @@
         <v>6236223</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45149.83333333334</v>
       </c>
       <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
-      </c>
-      <c r="F52" t="s">
-        <v>37</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4931,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4999,16 +5005,16 @@
         <v>6236224</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45150.6875</v>
       </c>
       <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
         <v>31</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5017,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -5085,16 +5091,16 @@
         <v>6236220</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45150.79861111111</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5103,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5171,16 +5177,16 @@
         <v>6236601</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45150.90625</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5189,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>2.45</v>
@@ -5257,16 +5263,16 @@
         <v>6236221</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45151.70833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5275,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5343,16 +5349,16 @@
         <v>6236222</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45151.81944444445</v>
       </c>
       <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
         <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5361,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.75</v>
@@ -5429,16 +5435,16 @@
         <v>6236225</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5447,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5515,16 +5521,16 @@
         <v>6236229</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45156.81944444445</v>
       </c>
       <c r="E59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5533,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>4.5</v>
@@ -5601,16 +5607,16 @@
         <v>6236602</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5619,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>2.15</v>
@@ -5687,16 +5693,16 @@
         <v>6236228</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45157.77777777778</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5705,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5773,16 +5779,16 @@
         <v>6236603</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45157.88888888889</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5791,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -5859,16 +5865,16 @@
         <v>6236226</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45158.73611111111</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5945,16 +5951,16 @@
         <v>6236227</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45158.84375</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>1.8</v>
@@ -6031,16 +6037,16 @@
         <v>6236230</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45163.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6049,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6117,16 +6123,16 @@
         <v>6236234</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45163.81944444445</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6135,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>2.05</v>
@@ -6203,16 +6209,16 @@
         <v>6236231</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6221,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6289,16 +6295,16 @@
         <v>6236232</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45164.77777777778</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6307,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6375,16 +6381,16 @@
         <v>6236604</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45164.88888888889</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6393,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>2.7</v>
@@ -6461,16 +6467,16 @@
         <v>6236235</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45165.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6479,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>2.45</v>
@@ -6547,16 +6553,16 @@
         <v>7111812</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45165.90625</v>
       </c>
       <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
         <v>42</v>
-      </c>
-      <c r="F71" t="s">
-        <v>40</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6565,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6633,16 +6639,16 @@
         <v>6236605</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45170.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6651,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>1.666</v>
@@ -6719,16 +6725,16 @@
         <v>6236240</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45170.81944444445</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6737,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6805,16 +6811,16 @@
         <v>6236606</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45171.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6823,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6891,16 +6897,16 @@
         <v>6236238</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45171.77777777778</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6909,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>2.5</v>
@@ -6977,16 +6983,16 @@
         <v>6236237</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45171.88888888889</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6995,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>2.8</v>
@@ -7063,16 +7069,16 @@
         <v>6236239</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45172.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7081,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>4.333</v>
@@ -7149,16 +7155,16 @@
         <v>7146850</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45172.79861111111</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7167,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7235,16 +7241,16 @@
         <v>6236607</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45184.75</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7253,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.5</v>
@@ -7321,16 +7327,16 @@
         <v>6236242</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45184.86111111111</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7339,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>1.8</v>
@@ -7407,16 +7413,16 @@
         <v>6236243</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45185.66666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7425,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>2.7</v>
@@ -7493,16 +7499,16 @@
         <v>6236245</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45185.77777777778</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7511,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>2.8</v>
@@ -7579,16 +7585,16 @@
         <v>6236241</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45185.88888888889</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7597,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>1.615</v>
@@ -7665,16 +7671,16 @@
         <v>6236608</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45186.75</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7683,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7751,16 +7757,16 @@
         <v>6236244</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45186.86111111111</v>
       </c>
       <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" t="s">
         <v>37</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7769,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>1.666</v>
@@ -7837,16 +7843,16 @@
         <v>6236246</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45191.75</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7855,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>3.3</v>
@@ -7923,16 +7929,16 @@
         <v>6236609</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45191.86111111111</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -8009,16 +8015,16 @@
         <v>6236249</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45192.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8027,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8095,16 +8101,16 @@
         <v>6236250</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45192.77777777778</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8113,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8181,16 +8187,16 @@
         <v>6236248</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45192.88888888889</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.533</v>
@@ -8267,16 +8273,16 @@
         <v>6236247</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45193.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8285,7 +8291,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.5</v>
@@ -8353,16 +8359,16 @@
         <v>6236610</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45193.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8371,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>3.4</v>
@@ -8436,85 +8442,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236612</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J93">
+        <v>1.833</v>
+      </c>
+      <c r="K93">
+        <v>3.25</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
         <v>3.2</v>
       </c>
-      <c r="K93">
-        <v>3.1</v>
-      </c>
-      <c r="L93">
-        <v>2.15</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>3.3</v>
-      </c>
       <c r="O93">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8522,67 +8528,67 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236611</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J94">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K94">
         <v>3.4</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="P94">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q94">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
         <v>2.5</v>
       </c>
       <c r="T94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8591,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8608,64 +8614,64 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236612</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J95">
+        <v>3.2</v>
+      </c>
+      <c r="K95">
         <v>3.1</v>
-      </c>
-      <c r="K95">
-        <v>3.2</v>
       </c>
       <c r="L95">
         <v>2.15</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O95">
         <v>1.75</v>
       </c>
       <c r="P95">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
         <v>1.8</v>
       </c>
-      <c r="R95">
-        <v>2</v>
-      </c>
       <c r="S95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
         <v>-1</v>
@@ -8677,16 +8683,16 @@
         <v>0.75</v>
       </c>
       <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
+        <v>0.8</v>
+      </c>
+      <c r="AA95">
         <v>-0.5</v>
       </c>
-      <c r="Z95">
-        <v>0.5</v>
-      </c>
-      <c r="AA95">
-        <v>0.95</v>
-      </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,85 +8700,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
         <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>28</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="M96">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P96">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y96">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8780,85 +8786,85 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236253</v>
+        <v>6236252</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J97">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="K97">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="P97">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T97">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W97">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8866,67 +8872,67 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236252</v>
+        <v>6236611</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
         <v>1</v>
       </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J98">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="K98">
+        <v>3.4</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
         <v>4.2</v>
       </c>
-      <c r="L98">
-        <v>7.5</v>
-      </c>
-      <c r="M98">
-        <v>1.333</v>
-      </c>
       <c r="N98">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="P98">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
         <v>2.5</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>0.333</v>
+        <v>3.2</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8935,16 +8941,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8955,16 +8961,16 @@
         <v>6236255</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8973,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>3.75</v>
@@ -9041,16 +9047,16 @@
         <v>6236257</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9059,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9127,16 +9133,16 @@
         <v>6236614</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" t="s">
         <v>38</v>
-      </c>
-      <c r="F101" t="s">
-        <v>36</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9145,7 +9151,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>2.45</v>
@@ -9213,16 +9219,16 @@
         <v>6236616</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -9231,7 +9237,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>3.3</v>
@@ -9299,16 +9305,16 @@
         <v>6236615</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9317,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>2.375</v>
@@ -9385,16 +9391,16 @@
         <v>6236613</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9403,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9471,16 +9477,16 @@
         <v>6236256</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45207.79166666666</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9489,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9557,16 +9563,16 @@
         <v>7352243</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45220.75</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9575,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>2.45</v>
@@ -9643,16 +9649,16 @@
         <v>7352253</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45220.85416666666</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9661,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9729,16 +9735,16 @@
         <v>7352244</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45224.75</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9747,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>1.833</v>
@@ -9815,16 +9821,16 @@
         <v>7352245</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45224.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -9833,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>1.615</v>
@@ -9901,16 +9907,16 @@
         <v>7352246</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45228.75</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9919,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9987,16 +9993,16 @@
         <v>7352247</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45228.85416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10005,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10073,16 +10079,16 @@
         <v>7352248</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45234.75</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10091,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -10159,16 +10165,16 @@
         <v>7352249</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45234.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10177,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>1.8</v>
@@ -10245,16 +10251,16 @@
         <v>7352250</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>3.1</v>
@@ -10331,16 +10337,16 @@
         <v>7352251</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10349,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10414,19 +10420,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45242.75</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10435,49 +10441,49 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J116">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K116">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N116">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O116">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
         <v>-0.25</v>
       </c>
       <c r="Q116">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="R116">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="S116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10486,13 +10492,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10500,19 +10506,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45242.75</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10521,49 +10527,49 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J117">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K117">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N117">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
         <v>-0.25</v>
       </c>
       <c r="Q117">
+        <v>1.65</v>
+      </c>
+      <c r="R117">
+        <v>2.2</v>
+      </c>
+      <c r="S117">
+        <v>2.25</v>
+      </c>
+      <c r="T117">
+        <v>1.825</v>
+      </c>
+      <c r="U117">
         <v>1.975</v>
       </c>
-      <c r="R117">
-        <v>1.825</v>
-      </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>1.925</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10572,13 +10578,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10589,16 +10595,16 @@
         <v>7474667</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45255.75</v>
       </c>
       <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
         <v>34</v>
-      </c>
-      <c r="F118" t="s">
-        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10607,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>2.05</v>
@@ -10675,16 +10681,16 @@
         <v>7776676</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10693,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.95</v>
@@ -10761,16 +10767,16 @@
         <v>7776678</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45324.83333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10779,7 +10785,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10847,16 +10853,16 @@
         <v>7776726</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45325.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10865,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10933,16 +10939,16 @@
         <v>7776733</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45325.78125</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10951,7 +10957,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11019,16 +11025,16 @@
         <v>7777122</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45325.89583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11037,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11105,16 +11111,16 @@
         <v>7776829</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45326.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -11123,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11191,16 +11197,16 @@
         <v>7776830</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45326.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11209,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>2.15</v>
@@ -11277,16 +11283,16 @@
         <v>7790134</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45331.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11295,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>2.9</v>
@@ -11363,16 +11369,16 @@
         <v>7790135</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11381,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>3.75</v>
@@ -11449,16 +11455,16 @@
         <v>7790136</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45332.78125</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11535,16 +11541,16 @@
         <v>7790137</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45332.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11553,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>2.2</v>
@@ -11621,16 +11627,16 @@
         <v>7790138</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45333.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11639,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11707,16 +11713,16 @@
         <v>7790139</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45334.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11725,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>3</v>
@@ -11793,16 +11799,16 @@
         <v>7790140</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45334.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11811,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11879,16 +11885,16 @@
         <v>7841978</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45338.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11897,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11965,16 +11971,16 @@
         <v>7842503</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11983,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12048,22 +12054,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12072,61 +12078,61 @@
         <v>46</v>
       </c>
       <c r="J135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="M135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P135">
+        <v>0.25</v>
+      </c>
+      <c r="Q135">
+        <v>1.8</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>2.25</v>
+      </c>
+      <c r="T135">
+        <v>2.05</v>
+      </c>
+      <c r="U135">
+        <v>1.75</v>
+      </c>
+      <c r="V135">
+        <v>-1</v>
+      </c>
+      <c r="W135">
+        <v>1.875</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>0.4</v>
+      </c>
+      <c r="Z135">
         <v>-0.5</v>
       </c>
-      <c r="Q135">
-        <v>1.925</v>
-      </c>
-      <c r="R135">
-        <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>2.5</v>
-      </c>
-      <c r="T135">
-        <v>1.9</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>0.925</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12134,85 +12140,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12223,16 +12229,16 @@
         <v>7842505</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12241,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12309,16 +12315,16 @@
         <v>7842502</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12327,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12395,16 +12401,16 @@
         <v>7842506</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45340.78125</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12413,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J139">
         <v>2.8</v>
@@ -12481,16 +12487,16 @@
         <v>7859976</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12499,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>3.2</v>
@@ -12567,16 +12573,16 @@
         <v>7859977</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45345.83333333334</v>
       </c>
       <c r="E141" t="s">
+        <v>44</v>
+      </c>
+      <c r="F141" t="s">
         <v>42</v>
-      </c>
-      <c r="F141" t="s">
-        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12653,17 +12659,17 @@
         <v>7859978</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E142" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s">
         <v>39</v>
       </c>
-      <c r="F142" t="s">
-        <v>37</v>
-      </c>
       <c r="G142">
         <v>0</v>
       </c>
@@ -12671,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12739,16 +12745,16 @@
         <v>7859980</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45346.78125</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12757,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12825,16 +12831,16 @@
         <v>7859979</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45346.89583333334</v>
       </c>
       <c r="E144" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" t="s">
         <v>33</v>
-      </c>
-      <c r="F144" t="s">
-        <v>31</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12843,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12911,16 +12917,16 @@
         <v>7859981</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12929,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>1.75</v>
@@ -12997,16 +13003,16 @@
         <v>7859982</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45347.83333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13015,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13083,16 +13089,16 @@
         <v>7889199</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13101,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>2.6</v>
@@ -13169,16 +13175,16 @@
         <v>7889200</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13187,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13255,16 +13261,16 @@
         <v>7889201</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13273,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>1.909</v>
@@ -13341,16 +13347,16 @@
         <v>7889202</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45353.78125</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13359,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13427,16 +13433,16 @@
         <v>7889203</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45353.89583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13445,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13513,16 +13519,16 @@
         <v>7889204</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13531,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>2.7</v>
@@ -13599,16 +13605,16 @@
         <v>7889205</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13617,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13685,16 +13691,16 @@
         <v>7920995</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45359.79166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13703,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>1.95</v>
@@ -13771,16 +13777,16 @@
         <v>7920996</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45359.83333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13789,7 +13795,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>2.375</v>
@@ -13857,16 +13863,16 @@
         <v>7920965</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13875,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13940,85 +13946,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K157">
+        <v>3.1</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>1.833</v>
+      </c>
+      <c r="N157">
+        <v>3.1</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>-0.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.9</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.85</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3.2</v>
       </c>
-      <c r="L157">
-        <v>1.909</v>
-      </c>
-      <c r="M157">
-        <v>3</v>
-      </c>
-      <c r="N157">
-        <v>2.9</v>
-      </c>
-      <c r="O157">
-        <v>2.375</v>
-      </c>
-      <c r="P157">
-        <v>0.25</v>
-      </c>
-      <c r="Q157">
-        <v>1.8</v>
-      </c>
-      <c r="R157">
-        <v>2</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.825</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>1.9</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14026,85 +14032,85 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
+        <v>0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.8</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>1.9</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.4</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="Q158">
-        <v>1.9</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.85</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>3.2</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14115,16 +14121,16 @@
         <v>7920999</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14133,7 +14139,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>2.2</v>
@@ -14201,16 +14207,16 @@
         <v>7921000</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14219,7 +14225,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>2.375</v>
@@ -14287,16 +14293,16 @@
         <v>7952892</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45366.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14305,7 +14311,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>2.25</v>
@@ -14370,79 +14376,79 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J162">
+        <v>3.6</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>1.8</v>
+      </c>
+      <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>2.875</v>
+      </c>
+      <c r="O162">
         <v>2.1</v>
       </c>
-      <c r="K162">
-        <v>3</v>
-      </c>
-      <c r="L162">
-        <v>3.25</v>
-      </c>
-      <c r="M162">
-        <v>2.25</v>
-      </c>
-      <c r="N162">
-        <v>3.1</v>
-      </c>
-      <c r="O162">
-        <v>2.9</v>
-      </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q162">
+        <v>1.95</v>
+      </c>
+      <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>2.025</v>
       </c>
-      <c r="R162">
+      <c r="U162">
         <v>1.775</v>
       </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>1.8</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
       <c r="V162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14456,79 +14462,79 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
         <v>46</v>
       </c>
       <c r="J163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L163">
+        <v>3.25</v>
+      </c>
+      <c r="M163">
+        <v>2.25</v>
+      </c>
+      <c r="N163">
+        <v>3.1</v>
+      </c>
+      <c r="O163">
+        <v>2.9</v>
+      </c>
+      <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>2.025</v>
+      </c>
+      <c r="R163">
+        <v>1.775</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>1.8</v>
       </c>
-      <c r="M163">
-        <v>3.75</v>
-      </c>
-      <c r="N163">
-        <v>2.875</v>
-      </c>
-      <c r="O163">
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>-1</v>
+      </c>
+      <c r="W163">
         <v>2.1</v>
       </c>
-      <c r="P163">
-        <v>0.25</v>
-      </c>
-      <c r="Q163">
-        <v>1.95</v>
-      </c>
-      <c r="R163">
-        <v>1.85</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>2.025</v>
-      </c>
-      <c r="U163">
-        <v>1.775</v>
-      </c>
-      <c r="V163">
-        <v>2.75</v>
-      </c>
-      <c r="W163">
-        <v>-1</v>
-      </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -14545,16 +14551,16 @@
         <v>7952906</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14563,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14631,16 +14637,16 @@
         <v>7952907</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45367.78125</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14649,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>1.571</v>
@@ -14717,16 +14723,16 @@
         <v>7952894</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45367.89583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14735,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>1.833</v>
@@ -14803,16 +14809,16 @@
         <v>7952895</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45368.75</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14821,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.833</v>
@@ -14889,16 +14895,16 @@
         <v>7958187</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45370.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14907,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14975,16 +14981,16 @@
         <v>7958188</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45370.78125</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14993,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15061,16 +15067,16 @@
         <v>7958189</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45370.89583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15079,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2.3</v>
@@ -15147,16 +15153,16 @@
         <v>7958190</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45371.66666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15165,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>2.25</v>
@@ -15233,16 +15239,16 @@
         <v>7958191</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45371.78125</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15251,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.615</v>
@@ -15319,16 +15325,16 @@
         <v>7958193</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15337,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>3.75</v>
@@ -15405,16 +15411,16 @@
         <v>7958192</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15423,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15491,16 +15497,16 @@
         <v>7994464</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45373.83333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15509,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15577,16 +15583,16 @@
         <v>7995215</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45374.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15663,16 +15669,16 @@
         <v>7995216</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15681,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J177">
         <v>1.571</v>
@@ -15749,16 +15755,16 @@
         <v>7995214</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15767,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15835,16 +15841,16 @@
         <v>7995213</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45375.78125</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15853,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>2.8</v>
@@ -15921,16 +15927,16 @@
         <v>7977858</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45375.89583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15939,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J180">
         <v>3.6</v>
@@ -16007,16 +16013,16 @@
         <v>7977856</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45376.75</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16025,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>2.7</v>
@@ -16093,16 +16099,16 @@
         <v>8019496</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45379.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16111,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J182">
         <v>1.833</v>
@@ -16179,16 +16185,16 @@
         <v>7977865</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45380.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16197,7 +16203,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>2.1</v>
@@ -16265,16 +16271,16 @@
         <v>7977864</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16283,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J184">
         <v>2.875</v>
@@ -16351,16 +16357,16 @@
         <v>7977862</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16369,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16437,16 +16443,16 @@
         <v>7977863</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45381.89583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16455,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16523,16 +16529,16 @@
         <v>7977380</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16541,7 +16547,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16609,16 +16615,16 @@
         <v>8027687</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16627,7 +16633,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J188">
         <v>1.75</v>
@@ -16695,16 +16701,16 @@
         <v>8054623</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45387.70833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16713,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16781,16 +16787,16 @@
         <v>7977868</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45387.83333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16799,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16867,16 +16873,16 @@
         <v>8054935</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45388.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16885,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>2.3</v>
@@ -16953,16 +16959,16 @@
         <v>8054936</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45388.78125</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16971,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>1.444</v>
@@ -17039,16 +17045,16 @@
         <v>8054937</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17057,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17125,16 +17131,16 @@
         <v>8054938</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17143,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17211,16 +17217,16 @@
         <v>7977869</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17229,7 +17235,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17297,16 +17303,16 @@
         <v>7977874</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45394.83333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17315,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>1.615</v>
@@ -17383,16 +17389,16 @@
         <v>7977384</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17401,7 +17407,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.615</v>
@@ -17469,16 +17475,16 @@
         <v>7977871</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17487,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -17555,16 +17561,16 @@
         <v>7977875</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17573,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J199">
         <v>3</v>
@@ -17641,16 +17647,16 @@
         <v>7977873</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45396.78125</v>
       </c>
       <c r="E200" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17659,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17727,16 +17733,16 @@
         <v>7977872</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17745,7 +17751,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J201">
         <v>2.45</v>
@@ -17813,16 +17819,16 @@
         <v>7977383</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17831,7 +17837,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J202">
         <v>1.666</v>
@@ -17899,16 +17905,16 @@
         <v>8111023</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45400.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17917,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17982,85 +17988,85 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977880</v>
+        <v>7977876</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J204">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="K204">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L204">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
+        <v>1.8</v>
+      </c>
+      <c r="N204">
         <v>3.2</v>
       </c>
-      <c r="N204">
-        <v>3.1</v>
-      </c>
       <c r="O204">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P204">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q204">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18068,85 +18074,85 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7977386</v>
+        <v>7977880</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J205">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="K205">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L205">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="M205">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P205">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18154,77 +18160,77 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977876</v>
+        <v>7977386</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" t="s">
+        <v>48</v>
+      </c>
+      <c r="J206">
+        <v>1.615</v>
+      </c>
+      <c r="K206">
+        <v>3.8</v>
+      </c>
+      <c r="L206">
+        <v>4.333</v>
+      </c>
+      <c r="M206">
+        <v>1.727</v>
+      </c>
+      <c r="N206">
+        <v>3.6</v>
+      </c>
+      <c r="O206">
+        <v>3.8</v>
+      </c>
+      <c r="P206">
+        <v>-0.75</v>
+      </c>
+      <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>2.5</v>
+      </c>
+      <c r="T206">
+        <v>1.975</v>
+      </c>
+      <c r="U206">
+        <v>1.825</v>
+      </c>
+      <c r="V206">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
         <v>1</v>
       </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206" t="s">
-        <v>46</v>
-      </c>
-      <c r="J206">
-        <v>1.65</v>
-      </c>
-      <c r="K206">
-        <v>3.5</v>
-      </c>
-      <c r="L206">
-        <v>4.5</v>
-      </c>
-      <c r="M206">
-        <v>1.8</v>
-      </c>
-      <c r="N206">
-        <v>3.2</v>
-      </c>
-      <c r="O206">
-        <v>4.2</v>
-      </c>
-      <c r="P206">
-        <v>-0.5</v>
-      </c>
-      <c r="Q206">
-        <v>1.85</v>
-      </c>
-      <c r="R206">
-        <v>1.95</v>
-      </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>1.775</v>
-      </c>
-      <c r="U206">
-        <v>2.025</v>
-      </c>
-      <c r="V206">
-        <v>0.8</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z206">
         <v>-1</v>
       </c>
@@ -18232,7 +18238,7 @@
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18240,19 +18246,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7977877</v>
+        <v>7977878</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18261,46 +18267,46 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J207">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K207">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M207">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N207">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O207">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P207">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q207">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="R207">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T207">
+        <v>1.85</v>
+      </c>
+      <c r="U207">
         <v>1.95</v>
       </c>
-      <c r="U207">
-        <v>1.85</v>
-      </c>
       <c r="V207">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18309,7 +18315,7 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="Z207">
         <v>-1</v>
@@ -18318,7 +18324,7 @@
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18326,19 +18332,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7977878</v>
+        <v>7977877</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18347,46 +18353,46 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J208">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K208">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L208">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N208">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O208">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P208">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q208">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T208">
+        <v>1.95</v>
+      </c>
+      <c r="U208">
         <v>1.85</v>
       </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
       <c r="V208">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18395,7 +18401,7 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="Z208">
         <v>-1</v>
@@ -18404,7 +18410,7 @@
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18415,16 +18421,16 @@
         <v>7977879</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45403.77083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18433,7 +18439,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J209">
         <v>2.75</v>
@@ -18491,6 +18497,136 @@
       </c>
       <c r="AB209">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>27</v>
+      </c>
+      <c r="C210" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45409.70833333334</v>
+      </c>
+      <c r="E210" t="s">
+        <v>41</v>
+      </c>
+      <c r="F210" t="s">
+        <v>44</v>
+      </c>
+      <c r="J210">
+        <v>2.625</v>
+      </c>
+      <c r="K210">
+        <v>2.875</v>
+      </c>
+      <c r="L210">
+        <v>2.625</v>
+      </c>
+      <c r="M210">
+        <v>2.6</v>
+      </c>
+      <c r="N210">
+        <v>2.875</v>
+      </c>
+      <c r="O210">
+        <v>2.625</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
+        <v>1.875</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.025</v>
+      </c>
+      <c r="U210">
+        <v>1.775</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45409.875</v>
+      </c>
+      <c r="E211" t="s">
+        <v>31</v>
+      </c>
+      <c r="F211" t="s">
+        <v>45</v>
+      </c>
+      <c r="J211">
+        <v>1.6</v>
+      </c>
+      <c r="K211">
+        <v>3.8</v>
+      </c>
+      <c r="L211">
+        <v>4.5</v>
+      </c>
+      <c r="M211">
+        <v>1.6</v>
+      </c>
+      <c r="N211">
+        <v>3.8</v>
+      </c>
+      <c r="O211">
+        <v>4.5</v>
+      </c>
+      <c r="P211">
+        <v>-0.75</v>
+      </c>
+      <c r="Q211">
+        <v>1.8</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>2.25</v>
+      </c>
+      <c r="T211">
+        <v>1.925</v>
+      </c>
+      <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>8146410</t>
+  </si>
+  <si>
+    <t>8146407</t>
   </si>
   <si>
     <t>Venezuela Primera Division</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB211"/>
+  <dimension ref="A1:AB212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +622,16 @@
         <v>6236589</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45099.66666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -705,16 +708,16 @@
         <v>6236185</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45100.80208333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>1.909</v>
@@ -791,16 +794,16 @@
         <v>6236184</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45100.89583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.75</v>
@@ -877,16 +880,16 @@
         <v>6236186</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45101.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>2.15</v>
@@ -963,16 +966,16 @@
         <v>6799213</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45101.80208333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1049,16 +1052,16 @@
         <v>6799206</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45101.89583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1135,16 +1138,16 @@
         <v>6236588</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45102.70833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1221,16 +1224,16 @@
         <v>6236190</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1239,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.4</v>
@@ -1307,16 +1310,16 @@
         <v>6236591</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45107.88541666666</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1325,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1393,16 +1396,16 @@
         <v>6837829</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45108.80208333334</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1479,16 +1482,16 @@
         <v>6837828</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45108.89583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1497,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.875</v>
@@ -1565,16 +1568,16 @@
         <v>6236188</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45109.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1583,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>2.55</v>
@@ -1651,16 +1654,16 @@
         <v>6236189</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45109.80208333334</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1669,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -1737,16 +1740,16 @@
         <v>6236187</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45109.89583333334</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
         <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1755,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>2.8</v>
@@ -1823,16 +1826,16 @@
         <v>6236594</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45113.79166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1909,16 +1912,16 @@
         <v>6870184</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1927,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1995,16 +1998,16 @@
         <v>6236195</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45115.70833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2013,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2081,16 +2084,16 @@
         <v>6236593</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45115.80208333334</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2099,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>1.444</v>
@@ -2167,16 +2170,16 @@
         <v>6236194</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45115.89583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2185,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2253,16 +2256,16 @@
         <v>6236193</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45116.79166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2271,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>2.75</v>
@@ -2339,16 +2342,16 @@
         <v>6236196</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45116.88541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2357,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2425,16 +2428,16 @@
         <v>6236199</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45121.79166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2443,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2511,16 +2514,16 @@
         <v>6236202</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45121.88541666666</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2529,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>3.2</v>
@@ -2597,16 +2600,16 @@
         <v>6236197</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45122.75</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2615,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>3.6</v>
@@ -2683,16 +2686,16 @@
         <v>6236595</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45122.84375</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2769,16 +2772,16 @@
         <v>6236198</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2855,16 +2858,16 @@
         <v>6236201</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45123.80208333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2873,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2941,16 +2944,16 @@
         <v>6236200</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45123.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2959,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3027,16 +3030,16 @@
         <v>6236205</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45128.75</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>1.666</v>
@@ -3113,16 +3116,16 @@
         <v>6236208</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45128.84027777778</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3199,16 +3202,16 @@
         <v>6236596</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45129.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3217,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3285,16 +3288,16 @@
         <v>6236204</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45129.80208333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.615</v>
@@ -3371,16 +3374,16 @@
         <v>6236207</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45129.89583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3389,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3457,16 +3460,16 @@
         <v>6236203</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45130.75</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3475,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>2.2</v>
@@ -3543,16 +3546,16 @@
         <v>6904420</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3561,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3629,16 +3632,16 @@
         <v>6236597</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45134.75</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3647,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3715,16 +3718,16 @@
         <v>6236213</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3801,16 +3804,16 @@
         <v>6236598</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45135.80208333334</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3819,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>2.15</v>
@@ -3887,16 +3890,16 @@
         <v>6236209</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45135.89583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3905,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3973,16 +3976,16 @@
         <v>6236212</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3991,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>3.3</v>
@@ -4059,16 +4062,16 @@
         <v>6236211</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45136.80208333334</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4077,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -4145,16 +4148,16 @@
         <v>6236210</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45136.89583333334</v>
       </c>
       <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
         <v>31</v>
-      </c>
-      <c r="F43" t="s">
-        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4163,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4231,16 +4234,16 @@
         <v>6236600</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4249,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -4317,16 +4320,16 @@
         <v>6236215</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45143.6875</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4335,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>2.7</v>
@@ -4403,16 +4406,16 @@
         <v>6236216</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45143.80208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4421,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.05</v>
@@ -4489,16 +4492,16 @@
         <v>6236599</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
         <v>41</v>
-      </c>
-      <c r="F47" t="s">
-        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4507,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4575,16 +4578,16 @@
         <v>6236214</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45144.6875</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4593,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48">
         <v>1.909</v>
@@ -4661,17 +4664,17 @@
         <v>6236217</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45144.80208333334</v>
       </c>
       <c r="E49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s">
         <v>39</v>
       </c>
-      <c r="F49" t="s">
-        <v>38</v>
-      </c>
       <c r="G49">
         <v>2</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>1.571</v>
@@ -4747,16 +4750,16 @@
         <v>7010906</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45144.91666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4833,16 +4836,16 @@
         <v>6236219</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45149.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4851,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51">
         <v>1.95</v>
@@ -4919,16 +4922,16 @@
         <v>6236223</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45149.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4937,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5005,16 +5008,16 @@
         <v>6236224</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45150.6875</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5023,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -5091,16 +5094,16 @@
         <v>6236220</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45150.79861111111</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5109,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5177,16 +5180,16 @@
         <v>6236601</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45150.90625</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5195,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>2.45</v>
@@ -5263,16 +5266,16 @@
         <v>6236221</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45151.70833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5281,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5349,16 +5352,16 @@
         <v>6236222</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45151.81944444445</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5367,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.75</v>
@@ -5435,16 +5438,16 @@
         <v>6236225</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5453,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5521,16 +5524,16 @@
         <v>6236229</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45156.81944444445</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5539,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>4.5</v>
@@ -5607,16 +5610,16 @@
         <v>6236602</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5625,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2.15</v>
@@ -5693,16 +5696,16 @@
         <v>6236228</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45157.77777777778</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5711,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5779,16 +5782,16 @@
         <v>6236603</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45157.88888888889</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5797,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -5865,16 +5868,16 @@
         <v>6236226</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45158.73611111111</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5883,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5951,16 +5954,16 @@
         <v>6236227</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45158.84375</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5969,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>1.8</v>
@@ -6037,16 +6040,16 @@
         <v>6236230</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45163.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6055,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6123,16 +6126,16 @@
         <v>6236234</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45163.81944444445</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6141,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>2.05</v>
@@ -6209,16 +6212,16 @@
         <v>6236231</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6227,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6295,16 +6298,16 @@
         <v>6236232</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45164.77777777778</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6313,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6381,16 +6384,16 @@
         <v>6236604</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45164.88888888889</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6399,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>2.7</v>
@@ -6467,16 +6470,16 @@
         <v>6236235</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45165.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6485,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2.45</v>
@@ -6553,16 +6556,16 @@
         <v>7111812</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45165.90625</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6571,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6639,16 +6642,16 @@
         <v>6236605</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45170.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6657,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>1.666</v>
@@ -6725,16 +6728,16 @@
         <v>6236240</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45170.81944444445</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6743,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6811,16 +6814,16 @@
         <v>6236606</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45171.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6829,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6897,16 +6900,16 @@
         <v>6236238</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45171.77777777778</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>2.5</v>
@@ -6983,16 +6986,16 @@
         <v>6236237</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45171.88888888889</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7001,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>2.8</v>
@@ -7069,16 +7072,16 @@
         <v>6236239</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45172.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7087,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>4.333</v>
@@ -7155,16 +7158,16 @@
         <v>7146850</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45172.79861111111</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7173,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7241,16 +7244,16 @@
         <v>6236607</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45184.75</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7259,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.5</v>
@@ -7327,16 +7330,16 @@
         <v>6236242</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45184.86111111111</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7345,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>1.8</v>
@@ -7413,16 +7416,16 @@
         <v>6236243</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45185.66666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7431,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>2.7</v>
@@ -7499,16 +7502,16 @@
         <v>6236245</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45185.77777777778</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7517,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>2.8</v>
@@ -7585,16 +7588,16 @@
         <v>6236241</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45185.88888888889</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7603,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83">
         <v>1.615</v>
@@ -7671,16 +7674,16 @@
         <v>6236608</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45186.75</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7689,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7757,16 +7760,16 @@
         <v>6236244</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45186.86111111111</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7775,7 +7778,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>1.666</v>
@@ -7843,16 +7846,16 @@
         <v>6236246</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45191.75</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J86">
         <v>3.3</v>
@@ -7929,16 +7932,16 @@
         <v>6236609</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45191.86111111111</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7947,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -8015,16 +8018,16 @@
         <v>6236249</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45192.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8101,16 +8104,16 @@
         <v>6236250</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45192.77777777778</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8187,16 +8190,16 @@
         <v>6236248</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45192.88888888889</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8205,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>1.533</v>
@@ -8273,16 +8276,16 @@
         <v>6236247</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45193.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8291,7 +8294,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>2.5</v>
@@ -8359,16 +8362,16 @@
         <v>6236610</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45193.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8377,7 +8380,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>3.4</v>
@@ -8442,58 +8445,58 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236253</v>
+        <v>6236254</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J93">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K93">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q93">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T93">
         <v>1.9</v>
@@ -8502,19 +8505,19 @@
         <v>1.9</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>0.4375</v>
+      </c>
+      <c r="Z93">
         <v>-0.5</v>
-      </c>
-      <c r="Z93">
-        <v>0.5125</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8528,76 +8531,76 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236254</v>
+        <v>6236255</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="M94">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O94">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="P94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q94">
+        <v>1.775</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>2.25</v>
+      </c>
+      <c r="T94">
+        <v>1.85</v>
+      </c>
+      <c r="U94">
+        <v>1.95</v>
+      </c>
+      <c r="V94">
+        <v>-1</v>
+      </c>
+      <c r="W94">
         <v>1.875</v>
       </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
-      <c r="S94">
-        <v>2.5</v>
-      </c>
-      <c r="T94">
-        <v>1.9</v>
-      </c>
-      <c r="U94">
-        <v>1.9</v>
-      </c>
-      <c r="V94">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="Z94">
         <v>-0.5</v>
@@ -8606,7 +8609,7 @@
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8614,85 +8617,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
         <v>43</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>3.2</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P95">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8700,85 +8703,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
       </c>
       <c r="J96">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="K96">
+        <v>3.25</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
         <v>3.2</v>
       </c>
-      <c r="L96">
-        <v>2.15</v>
-      </c>
-      <c r="M96">
-        <v>4</v>
-      </c>
-      <c r="N96">
-        <v>3.6</v>
-      </c>
       <c r="O96">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q96">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-0.5</v>
       </c>
       <c r="Z96">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8786,85 +8789,85 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
         <v>48</v>
       </c>
       <c r="J97">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="K97">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L97">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="M97">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="P97">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S97">
         <v>2.5</v>
       </c>
       <c r="T97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8872,25 +8875,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
         <v>48</v>
@@ -8899,58 +8902,58 @@
         <v>3.2</v>
       </c>
       <c r="K98">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N98">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O98">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P98">
+        <v>0.5</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>2.25</v>
+      </c>
+      <c r="T98">
+        <v>1.925</v>
+      </c>
+      <c r="U98">
+        <v>1.875</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>0.75</v>
       </c>
-      <c r="Q98">
-        <v>1.95</v>
-      </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>2.5</v>
-      </c>
-      <c r="T98">
-        <v>1.825</v>
-      </c>
-      <c r="U98">
-        <v>1.975</v>
-      </c>
-      <c r="V98">
-        <v>3.2</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8958,85 +8961,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236255</v>
+        <v>6236252</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" t="s">
         <v>33</v>
       </c>
-      <c r="F99" t="s">
-        <v>34</v>
-      </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J99">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="K99">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L99">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="M99">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="N99">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="O99">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="P99">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q99">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9047,16 +9050,16 @@
         <v>6236257</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9065,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9133,16 +9136,16 @@
         <v>6236614</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9151,7 +9154,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>2.45</v>
@@ -9216,67 +9219,67 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6236616</v>
+        <v>6236615</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J102">
+        <v>2.375</v>
+      </c>
+      <c r="K102">
         <v>3.3</v>
       </c>
-      <c r="K102">
-        <v>3.2</v>
-      </c>
       <c r="L102">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="M102">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="N102">
         <v>3.2</v>
       </c>
       <c r="O102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S102">
         <v>2.5</v>
       </c>
       <c r="T102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9285,16 +9288,16 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9302,67 +9305,67 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6236615</v>
+        <v>6236616</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J103">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="K103">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L103">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="M103">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N103">
         <v>3.2</v>
       </c>
       <c r="O103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
         <v>2.5</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9371,16 +9374,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9391,16 +9394,16 @@
         <v>6236613</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9477,16 +9480,16 @@
         <v>6236256</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45207.79166666666</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9495,7 +9498,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9563,16 +9566,16 @@
         <v>7352243</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45220.75</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9581,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>2.45</v>
@@ -9649,16 +9652,16 @@
         <v>7352253</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45220.85416666666</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9667,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9735,16 +9738,16 @@
         <v>7352244</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45224.75</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9753,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.833</v>
@@ -9821,16 +9824,16 @@
         <v>7352245</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45224.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -9839,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>1.615</v>
@@ -9907,16 +9910,16 @@
         <v>7352246</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45228.75</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9925,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9993,16 +9996,16 @@
         <v>7352247</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45228.85416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10011,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10079,16 +10082,16 @@
         <v>7352248</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45234.75</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10097,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -10165,16 +10168,16 @@
         <v>7352249</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45234.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10183,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>1.8</v>
@@ -10251,16 +10254,16 @@
         <v>7352250</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
         <v>37</v>
-      </c>
-      <c r="F114" t="s">
-        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10269,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>3.1</v>
@@ -10337,16 +10340,16 @@
         <v>7352251</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10355,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10420,19 +10423,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7352252</v>
+        <v>7352254</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45242.75</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10441,49 +10444,49 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J116">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K116">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N116">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
         <v>-0.25</v>
       </c>
       <c r="Q116">
+        <v>1.65</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>2.25</v>
+      </c>
+      <c r="T116">
+        <v>1.825</v>
+      </c>
+      <c r="U116">
         <v>1.975</v>
       </c>
-      <c r="R116">
-        <v>1.825</v>
-      </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>1.925</v>
-      </c>
-      <c r="U116">
-        <v>1.875</v>
-      </c>
       <c r="V116">
         <v>-1</v>
       </c>
       <c r="W116">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10492,13 +10495,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z116">
-        <v>0.4125</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10506,19 +10509,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7352254</v>
+        <v>7352252</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45242.75</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,49 +10530,49 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J117">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K117">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
         <v>-0.25</v>
       </c>
       <c r="Q117">
-        <v>1.65</v>
+        <v>1.975</v>
       </c>
       <c r="R117">
-        <v>2.2</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
         <v>-1</v>
       </c>
       <c r="W117">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10578,13 +10581,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z117">
-        <v>0.6000000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10595,16 +10598,16 @@
         <v>7474667</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45255.75</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10613,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>2.05</v>
@@ -10681,16 +10684,16 @@
         <v>7776676</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10699,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.95</v>
@@ -10767,16 +10770,16 @@
         <v>7776678</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45324.83333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10785,7 +10788,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10853,16 +10856,16 @@
         <v>7776726</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45325.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10871,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10939,16 +10942,16 @@
         <v>7776733</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45325.78125</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10957,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11025,16 +11028,16 @@
         <v>7777122</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45325.89583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11043,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11111,16 +11114,16 @@
         <v>7776829</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45326.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -11129,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11197,16 +11200,16 @@
         <v>7776830</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45326.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11215,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>2.15</v>
@@ -11283,16 +11286,16 @@
         <v>7790134</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45331.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11301,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.9</v>
@@ -11369,16 +11372,16 @@
         <v>7790135</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11387,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>3.75</v>
@@ -11455,16 +11458,16 @@
         <v>7790136</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45332.78125</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11473,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11541,16 +11544,16 @@
         <v>7790137</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45332.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11559,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>2.2</v>
@@ -11627,16 +11630,16 @@
         <v>7790138</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45333.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11645,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11713,16 +11716,16 @@
         <v>7790139</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45334.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11731,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>3</v>
@@ -11799,16 +11802,16 @@
         <v>7790140</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45334.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11817,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11885,16 +11888,16 @@
         <v>7841978</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45338.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11971,16 +11974,16 @@
         <v>7842503</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11989,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12054,85 +12057,85 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J135">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L135">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N135">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O135">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T135">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U135">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W135">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12140,10 +12143,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45339.78125</v>
@@ -12152,73 +12155,73 @@
         <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J136">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K136">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="M136">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N136">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P136">
+        <v>0.25</v>
+      </c>
+      <c r="Q136">
+        <v>1.8</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>2.25</v>
+      </c>
+      <c r="T136">
+        <v>2.05</v>
+      </c>
+      <c r="U136">
+        <v>1.75</v>
+      </c>
+      <c r="V136">
+        <v>-1</v>
+      </c>
+      <c r="W136">
+        <v>1.875</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>0.4</v>
+      </c>
+      <c r="Z136">
         <v>-0.5</v>
       </c>
-      <c r="Q136">
-        <v>1.925</v>
-      </c>
-      <c r="R136">
-        <v>1.875</v>
-      </c>
-      <c r="S136">
-        <v>2.5</v>
-      </c>
-      <c r="T136">
-        <v>1.9</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>0.925</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12229,16 +12232,16 @@
         <v>7842505</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12247,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12315,16 +12318,16 @@
         <v>7842502</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12333,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12401,16 +12404,16 @@
         <v>7842506</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45340.78125</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12419,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>2.8</v>
@@ -12487,16 +12490,16 @@
         <v>7859976</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
         <v>37</v>
-      </c>
-      <c r="F140" t="s">
-        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12505,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>3.2</v>
@@ -12573,16 +12576,16 @@
         <v>7859977</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45345.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12591,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12659,16 +12662,16 @@
         <v>7859978</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12677,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12745,16 +12748,16 @@
         <v>7859980</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45346.78125</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12763,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12831,16 +12834,16 @@
         <v>7859979</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45346.89583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12849,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12917,16 +12920,16 @@
         <v>7859981</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12935,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>1.75</v>
@@ -13003,16 +13006,16 @@
         <v>7859982</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45347.83333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13024,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13089,16 +13092,16 @@
         <v>7889199</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J147">
         <v>2.6</v>
@@ -13175,16 +13178,16 @@
         <v>7889200</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13193,7 +13196,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13261,16 +13264,16 @@
         <v>7889201</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13279,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J149">
         <v>1.909</v>
@@ -13347,17 +13350,17 @@
         <v>7889202</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45353.78125</v>
       </c>
       <c r="E150" t="s">
+        <v>39</v>
+      </c>
+      <c r="F150" t="s">
         <v>38</v>
       </c>
-      <c r="F150" t="s">
-        <v>37</v>
-      </c>
       <c r="G150">
         <v>0</v>
       </c>
@@ -13365,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13433,16 +13436,16 @@
         <v>7889203</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45353.89583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13519,16 +13522,16 @@
         <v>7889204</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13537,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.7</v>
@@ -13605,16 +13608,16 @@
         <v>7889205</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13623,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13691,16 +13694,16 @@
         <v>7920995</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45359.79166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13709,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.95</v>
@@ -13777,16 +13780,16 @@
         <v>7920996</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45359.83333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13795,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>2.375</v>
@@ -13863,16 +13866,16 @@
         <v>7920965</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13881,7 +13884,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13946,85 +13949,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
       </c>
       <c r="J157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P157">
+        <v>0.25</v>
+      </c>
+      <c r="Q157">
+        <v>1.8</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.825</v>
+      </c>
+      <c r="U157">
+        <v>1.975</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>1.9</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.4</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="Q157">
-        <v>1.9</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.85</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3.2</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14032,85 +14035,85 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K158">
+        <v>3.1</v>
+      </c>
+      <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>1.833</v>
+      </c>
+      <c r="N158">
+        <v>3.1</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
+        <v>-0.5</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.85</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>3.2</v>
       </c>
-      <c r="L158">
-        <v>1.909</v>
-      </c>
-      <c r="M158">
-        <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>2.375</v>
-      </c>
-      <c r="P158">
-        <v>0.25</v>
-      </c>
-      <c r="Q158">
-        <v>1.8</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.825</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>1.9</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
       <c r="Y158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14121,16 +14124,16 @@
         <v>7920999</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14139,7 +14142,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2.2</v>
@@ -14207,16 +14210,16 @@
         <v>7921000</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14225,7 +14228,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>2.375</v>
@@ -14293,16 +14296,16 @@
         <v>7952892</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
         <v>45366.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14314,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>2.25</v>
@@ -14376,79 +14379,79 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L162">
+        <v>3.25</v>
+      </c>
+      <c r="M162">
+        <v>2.25</v>
+      </c>
+      <c r="N162">
+        <v>3.1</v>
+      </c>
+      <c r="O162">
+        <v>2.9</v>
+      </c>
+      <c r="P162">
+        <v>-0.25</v>
+      </c>
+      <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>1.8</v>
       </c>
-      <c r="M162">
-        <v>3.75</v>
-      </c>
-      <c r="N162">
-        <v>2.875</v>
-      </c>
-      <c r="O162">
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
         <v>2.1</v>
       </c>
-      <c r="P162">
-        <v>0.25</v>
-      </c>
-      <c r="Q162">
-        <v>1.95</v>
-      </c>
-      <c r="R162">
-        <v>1.85</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>2.025</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.75</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14462,79 +14465,79 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J163">
+        <v>3.6</v>
+      </c>
+      <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>1.8</v>
+      </c>
+      <c r="M163">
+        <v>3.75</v>
+      </c>
+      <c r="N163">
+        <v>2.875</v>
+      </c>
+      <c r="O163">
         <v>2.1</v>
       </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>3.25</v>
-      </c>
-      <c r="M163">
-        <v>2.25</v>
-      </c>
-      <c r="N163">
-        <v>3.1</v>
-      </c>
-      <c r="O163">
-        <v>2.9</v>
-      </c>
       <c r="P163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q163">
+        <v>1.95</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>2.025</v>
       </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.775</v>
       </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>1.8</v>
-      </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
       <c r="V163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -14551,16 +14554,16 @@
         <v>7952906</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E164" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" t="s">
         <v>31</v>
-      </c>
-      <c r="F164" t="s">
-        <v>30</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14569,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14637,16 +14640,16 @@
         <v>7952907</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D165" s="2">
         <v>45367.78125</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14655,7 +14658,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.571</v>
@@ -14723,16 +14726,16 @@
         <v>7952894</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2">
         <v>45367.89583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14741,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.833</v>
@@ -14809,16 +14812,16 @@
         <v>7952895</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D167" s="2">
         <v>45368.75</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14827,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J167">
         <v>1.833</v>
@@ -14895,16 +14898,16 @@
         <v>7958187</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2">
         <v>45370.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14913,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14981,16 +14984,16 @@
         <v>7958188</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D169" s="2">
         <v>45370.78125</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14999,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15067,16 +15070,16 @@
         <v>7958189</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D170" s="2">
         <v>45370.89583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15085,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>2.3</v>
@@ -15153,16 +15156,16 @@
         <v>7958190</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D171" s="2">
         <v>45371.66666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>2.25</v>
@@ -15239,16 +15242,16 @@
         <v>7958191</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D172" s="2">
         <v>45371.78125</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15257,7 +15260,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>1.615</v>
@@ -15322,55 +15325,55 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7958193</v>
+        <v>7958192</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D173" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J173">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="K173">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L173">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N173">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O173">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
         <v>2.25</v>
@@ -15382,19 +15385,19 @@
         <v>1.775</v>
       </c>
       <c r="V173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W173">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z173">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15408,10 +15411,10 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7958192</v>
+        <v>7958193</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D174" s="2">
         <v>45371.89583333334</v>
@@ -15420,43 +15423,43 @@
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J174">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="K174">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="M174">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="P174">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q174">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S174">
         <v>2.25</v>
@@ -15468,19 +15471,19 @@
         <v>1.775</v>
       </c>
       <c r="V174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
         <v>-1</v>
@@ -15497,16 +15500,16 @@
         <v>7994464</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D175" s="2">
         <v>45373.83333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15515,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15583,16 +15586,16 @@
         <v>7995215</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D176" s="2">
         <v>45374.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15669,16 +15672,16 @@
         <v>7995216</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D177" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15687,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.571</v>
@@ -15755,16 +15758,16 @@
         <v>7995214</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D178" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15773,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15841,16 +15844,16 @@
         <v>7995213</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D179" s="2">
         <v>45375.78125</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15859,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J179">
         <v>2.8</v>
@@ -15927,16 +15930,16 @@
         <v>7977858</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D180" s="2">
         <v>45375.89583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15945,7 +15948,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>3.6</v>
@@ -16013,16 +16016,16 @@
         <v>7977856</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D181" s="2">
         <v>45376.75</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16031,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>2.7</v>
@@ -16099,16 +16102,16 @@
         <v>8019496</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D182" s="2">
         <v>45379.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16117,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1.833</v>
@@ -16185,16 +16188,16 @@
         <v>7977865</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D183" s="2">
         <v>45380.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16203,7 +16206,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>2.1</v>
@@ -16271,16 +16274,16 @@
         <v>7977864</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D184" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16289,7 +16292,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>2.875</v>
@@ -16357,16 +16360,16 @@
         <v>7977862</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D185" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16375,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16443,16 +16446,16 @@
         <v>7977863</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D186" s="2">
         <v>45381.89583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16529,16 +16532,16 @@
         <v>7977380</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D187" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16547,7 +16550,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16615,16 +16618,16 @@
         <v>8027687</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D188" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16633,7 +16636,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>1.75</v>
@@ -16701,16 +16704,16 @@
         <v>8054623</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D189" s="2">
         <v>45387.70833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16719,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16787,16 +16790,16 @@
         <v>7977868</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D190" s="2">
         <v>45387.83333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16805,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16873,16 +16876,16 @@
         <v>8054935</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D191" s="2">
         <v>45388.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16891,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>2.3</v>
@@ -16959,16 +16962,16 @@
         <v>8054936</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D192" s="2">
         <v>45388.78125</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16977,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J192">
         <v>1.444</v>
@@ -17045,16 +17048,16 @@
         <v>8054937</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D193" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17063,7 +17066,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17131,16 +17134,16 @@
         <v>8054938</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D194" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17149,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17217,16 +17220,16 @@
         <v>7977869</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D195" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17235,7 +17238,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17303,16 +17306,16 @@
         <v>7977874</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D196" s="2">
         <v>45394.83333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17321,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>1.615</v>
@@ -17389,16 +17392,16 @@
         <v>7977384</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D197" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17407,7 +17410,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>1.615</v>
@@ -17475,16 +17478,16 @@
         <v>7977871</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D198" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17493,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -17561,16 +17564,16 @@
         <v>7977875</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D199" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17579,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J199">
         <v>3</v>
@@ -17647,16 +17650,16 @@
         <v>7977873</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D200" s="2">
         <v>45396.78125</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17665,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17733,16 +17736,16 @@
         <v>7977872</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D201" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17751,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J201">
         <v>2.45</v>
@@ -17819,16 +17822,16 @@
         <v>7977383</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D202" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17837,7 +17840,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J202">
         <v>1.666</v>
@@ -17905,16 +17908,16 @@
         <v>8111023</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D203" s="2">
         <v>45400.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17923,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17988,77 +17991,77 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977876</v>
+        <v>7977386</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D204" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" t="s">
+        <v>49</v>
+      </c>
+      <c r="J204">
+        <v>1.615</v>
+      </c>
+      <c r="K204">
+        <v>3.8</v>
+      </c>
+      <c r="L204">
+        <v>4.333</v>
+      </c>
+      <c r="M204">
+        <v>1.727</v>
+      </c>
+      <c r="N204">
+        <v>3.6</v>
+      </c>
+      <c r="O204">
+        <v>3.8</v>
+      </c>
+      <c r="P204">
+        <v>-0.75</v>
+      </c>
+      <c r="Q204">
+        <v>2</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>2.5</v>
+      </c>
+      <c r="T204">
+        <v>1.975</v>
+      </c>
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
         <v>1</v>
       </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204" t="s">
-        <v>48</v>
-      </c>
-      <c r="J204">
-        <v>1.65</v>
-      </c>
-      <c r="K204">
-        <v>3.5</v>
-      </c>
-      <c r="L204">
-        <v>4.5</v>
-      </c>
-      <c r="M204">
-        <v>1.8</v>
-      </c>
-      <c r="N204">
-        <v>3.2</v>
-      </c>
-      <c r="O204">
-        <v>4.2</v>
-      </c>
-      <c r="P204">
-        <v>-0.5</v>
-      </c>
-      <c r="Q204">
-        <v>1.85</v>
-      </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>1.775</v>
-      </c>
-      <c r="U204">
-        <v>2.025</v>
-      </c>
-      <c r="V204">
-        <v>0.8</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z204">
         <v>-1</v>
       </c>
@@ -18066,7 +18069,7 @@
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18077,16 +18080,16 @@
         <v>7977880</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D205" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18095,7 +18098,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>3.75</v>
@@ -18160,67 +18163,67 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977386</v>
+        <v>7977876</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D206" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J206">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="K206">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N206">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O206">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q206">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U206">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18229,7 +18232,7 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z206">
         <v>-1</v>
@@ -18238,7 +18241,7 @@
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18249,16 +18252,16 @@
         <v>7977878</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D207" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18267,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>2.25</v>
@@ -18335,16 +18338,16 @@
         <v>7977877</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D208" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18353,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J208">
         <v>2.1</v>
@@ -18421,16 +18424,16 @@
         <v>7977879</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D209" s="2">
         <v>45403.77083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18439,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J209">
         <v>2.75</v>
@@ -18507,16 +18510,16 @@
         <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D210" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J210">
         <v>2.625</v>
@@ -18572,16 +18575,16 @@
         <v>28</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D211" s="2">
         <v>45409.875</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J211">
         <v>1.6</v>
@@ -18626,6 +18629,71 @@
         <v>0</v>
       </c>
       <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45410.75</v>
+      </c>
+      <c r="E212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+      <c r="J212">
+        <v>2.05</v>
+      </c>
+      <c r="K212">
+        <v>2.875</v>
+      </c>
+      <c r="L212">
+        <v>3.75</v>
+      </c>
+      <c r="M212">
+        <v>1.727</v>
+      </c>
+      <c r="N212">
+        <v>3.1</v>
+      </c>
+      <c r="O212">
+        <v>5</v>
+      </c>
+      <c r="P212">
+        <v>-0.75</v>
+      </c>
+      <c r="Q212">
+        <v>1.975</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>1.85</v>
+      </c>
+      <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
+        <v>0</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8445,7 +8445,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -8454,58 +8454,58 @@
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
         <v>1</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
       </c>
       <c r="I93" t="s">
         <v>49</v>
       </c>
       <c r="J93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="K93">
         <v>3.4</v>
       </c>
       <c r="L93">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
         <v>2.5</v>
       </c>
       <c r="T93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8531,7 +8531,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236253</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -8540,10 +8540,10 @@
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8555,25 +8555,25 @@
         <v>47</v>
       </c>
       <c r="J94">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L94">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
         <v>1.775</v>
@@ -8585,31 +8585,31 @@
         <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8617,7 +8617,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236611</v>
+        <v>6236254</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -8626,58 +8626,58 @@
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
         <v>49</v>
       </c>
       <c r="J95">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K95">
         <v>3.4</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="N95">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="P95">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
         <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8703,7 +8703,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -8712,76 +8712,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J96">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="K96">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="P96">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q96">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
         <v>2.25</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>0.8</v>
+      </c>
+      <c r="AA96">
         <v>-0.5</v>
       </c>
-      <c r="Z96">
-        <v>0.5125</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8875,7 +8875,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236612</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -8884,76 +8884,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J98">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K98">
         <v>3.1</v>
       </c>
       <c r="L98">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M98">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P98">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
         <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
         <v>1.875</v>
       </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
       <c r="X98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -9047,7 +9047,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -9056,13 +9056,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9071,40 +9071,40 @@
         <v>48</v>
       </c>
       <c r="J100">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L100">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M100">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S100">
         <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V100">
         <v>-1</v>
@@ -9113,19 +9113,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9133,7 +9133,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -9142,13 +9142,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9157,40 +9157,40 @@
         <v>48</v>
       </c>
       <c r="J101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="K101">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L101">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N101">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
         <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
         <v>-1</v>
@@ -9199,19 +9199,19 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -12057,7 +12057,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7842507</v>
+        <v>7842504</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -12066,76 +12066,76 @@
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J135">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K135">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="M135">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P135">
+        <v>0.25</v>
+      </c>
+      <c r="Q135">
+        <v>1.8</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>2.25</v>
+      </c>
+      <c r="T135">
+        <v>2.05</v>
+      </c>
+      <c r="U135">
+        <v>1.75</v>
+      </c>
+      <c r="V135">
+        <v>-1</v>
+      </c>
+      <c r="W135">
+        <v>1.875</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>0.4</v>
+      </c>
+      <c r="Z135">
         <v>-0.5</v>
       </c>
-      <c r="Q135">
-        <v>1.925</v>
-      </c>
-      <c r="R135">
-        <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>2.5</v>
-      </c>
-      <c r="T135">
-        <v>1.9</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>0.925</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12143,7 +12143,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7842504</v>
+        <v>7842507</v>
       </c>
       <c r="C136" t="s">
         <v>30</v>
@@ -12152,76 +12152,76 @@
         <v>45339.78125</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J136">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L136">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N136">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W136">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -14379,7 +14379,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -14388,70 +14388,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J162">
+        <v>3.6</v>
+      </c>
+      <c r="K162">
+        <v>3.6</v>
+      </c>
+      <c r="L162">
+        <v>1.8</v>
+      </c>
+      <c r="M162">
+        <v>3.75</v>
+      </c>
+      <c r="N162">
+        <v>2.875</v>
+      </c>
+      <c r="O162">
         <v>2.1</v>
       </c>
-      <c r="K162">
-        <v>3</v>
-      </c>
-      <c r="L162">
-        <v>3.25</v>
-      </c>
-      <c r="M162">
-        <v>2.25</v>
-      </c>
-      <c r="N162">
-        <v>3.1</v>
-      </c>
-      <c r="O162">
-        <v>2.9</v>
-      </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q162">
+        <v>1.95</v>
+      </c>
+      <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>2.025</v>
       </c>
-      <c r="R162">
+      <c r="U162">
         <v>1.775</v>
       </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>1.8</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
       <c r="V162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W162">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z162">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14465,7 +14465,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -14474,70 +14474,70 @@
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J163">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K163">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L163">
+        <v>3.25</v>
+      </c>
+      <c r="M163">
+        <v>2.25</v>
+      </c>
+      <c r="N163">
+        <v>3.1</v>
+      </c>
+      <c r="O163">
+        <v>2.9</v>
+      </c>
+      <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>2.025</v>
+      </c>
+      <c r="R163">
+        <v>1.775</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>1.8</v>
       </c>
-      <c r="M163">
-        <v>3.75</v>
-      </c>
-      <c r="N163">
-        <v>2.875</v>
-      </c>
-      <c r="O163">
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>-1</v>
+      </c>
+      <c r="W163">
         <v>2.1</v>
       </c>
-      <c r="P163">
-        <v>0.25</v>
-      </c>
-      <c r="Q163">
-        <v>1.95</v>
-      </c>
-      <c r="R163">
-        <v>1.85</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>2.025</v>
-      </c>
-      <c r="U163">
-        <v>1.775</v>
-      </c>
-      <c r="V163">
-        <v>2.75</v>
-      </c>
-      <c r="W163">
-        <v>-1</v>
-      </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -17991,7 +17991,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977386</v>
+        <v>7977876</v>
       </c>
       <c r="C204" t="s">
         <v>30</v>
@@ -18000,13 +18000,13 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18015,43 +18015,43 @@
         <v>49</v>
       </c>
       <c r="J204">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="K204">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L204">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N204">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V204">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18060,7 +18060,7 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z204">
         <v>-1</v>
@@ -18069,7 +18069,7 @@
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18077,7 +18077,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7977880</v>
+        <v>7977386</v>
       </c>
       <c r="C205" t="s">
         <v>30</v>
@@ -18086,76 +18086,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J205">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="K205">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="L205">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N205">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2.5</v>
+      </c>
+      <c r="T205">
         <v>1.975</v>
       </c>
-      <c r="R205">
+      <c r="U205">
         <v>1.825</v>
       </c>
-      <c r="S205">
-        <v>2.25</v>
-      </c>
-      <c r="T205">
-        <v>1.95</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
       <c r="V205">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
         <v>0.825</v>
-      </c>
-      <c r="AA205">
-        <v>-0.5</v>
-      </c>
-      <c r="AB205">
-        <v>0.425</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18163,7 +18163,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977876</v>
+        <v>7977880</v>
       </c>
       <c r="C206" t="s">
         <v>30</v>
@@ -18172,76 +18172,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J206">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="K206">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M206">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O206">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P206">
+        <v>0.25</v>
+      </c>
+      <c r="Q206">
+        <v>1.975</v>
+      </c>
+      <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
+        <v>2.25</v>
+      </c>
+      <c r="T206">
+        <v>1.95</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>-1</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>1.05</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.825</v>
+      </c>
+      <c r="AA206">
         <v>-0.5</v>
       </c>
-      <c r="Q206">
-        <v>1.85</v>
-      </c>
-      <c r="R206">
-        <v>1.95</v>
-      </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>1.775</v>
-      </c>
-      <c r="U206">
-        <v>2.025</v>
-      </c>
-      <c r="V206">
-        <v>0.8</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z206">
-        <v>-1</v>
-      </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
       <c r="AB206">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18249,7 +18249,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7977878</v>
+        <v>7977877</v>
       </c>
       <c r="C207" t="s">
         <v>30</v>
@@ -18258,10 +18258,10 @@
         <v>45402.83333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18273,43 +18273,43 @@
         <v>49</v>
       </c>
       <c r="J207">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K207">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L207">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N207">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O207">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P207">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T207">
+        <v>1.95</v>
+      </c>
+      <c r="U207">
         <v>1.85</v>
       </c>
-      <c r="U207">
-        <v>1.95</v>
-      </c>
       <c r="V207">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18318,7 +18318,7 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="Z207">
         <v>-1</v>
@@ -18327,7 +18327,7 @@
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18335,7 +18335,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7977877</v>
+        <v>7977878</v>
       </c>
       <c r="C208" t="s">
         <v>30</v>
@@ -18344,10 +18344,10 @@
         <v>45402.83333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18359,43 +18359,43 @@
         <v>49</v>
       </c>
       <c r="J208">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K208">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M208">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O208">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P208">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q208">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T208">
+        <v>1.85</v>
+      </c>
+      <c r="U208">
         <v>1.95</v>
       </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
       <c r="V208">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18404,7 +18404,7 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="Z208">
         <v>-1</v>
@@ -18413,7 +18413,7 @@
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:28">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8146411</t>
+    <t>8146407</t>
   </si>
   <si>
-    <t>8146410</t>
-  </si>
-  <si>
-    <t>8146407</t>
+    <t>8146406</t>
   </si>
   <si>
     <t>Venezuela Primera Division</t>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB212"/>
+  <dimension ref="A1:AB211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +619,16 @@
         <v>6236589</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45099.66666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -708,16 +705,16 @@
         <v>6236185</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45100.80208333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -726,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>1.909</v>
@@ -794,16 +791,16 @@
         <v>6236184</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45100.89583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>1.75</v>
@@ -880,16 +877,16 @@
         <v>6236186</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45101.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>2.15</v>
@@ -966,16 +963,16 @@
         <v>6799213</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45101.80208333334</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -984,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1052,16 +1049,16 @@
         <v>6799206</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45101.89583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1070,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1138,16 +1135,16 @@
         <v>6236588</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45102.70833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1224,16 +1221,16 @@
         <v>6236190</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1242,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>2.4</v>
@@ -1310,16 +1307,16 @@
         <v>6236591</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45107.88541666666</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1328,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1396,16 +1393,16 @@
         <v>6837829</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45108.80208333334</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1482,16 +1479,16 @@
         <v>6837828</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45108.89583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1500,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>2.875</v>
@@ -1568,16 +1565,16 @@
         <v>6236188</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45109.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1586,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2.55</v>
@@ -1654,16 +1651,16 @@
         <v>6236189</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45109.80208333334</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1672,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -1740,16 +1737,16 @@
         <v>6236187</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45109.89583333334</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1758,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>2.8</v>
@@ -1826,16 +1823,16 @@
         <v>6236594</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45113.79166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1844,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1909,16 @@
         <v>6870184</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1930,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1998,16 +1995,16 @@
         <v>6236195</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45115.70833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2084,16 +2081,16 @@
         <v>6236593</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45115.80208333334</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2102,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.444</v>
@@ -2170,16 +2167,16 @@
         <v>6236194</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45115.89583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2188,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2256,16 +2253,16 @@
         <v>6236193</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45116.79166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2274,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.75</v>
@@ -2342,16 +2339,16 @@
         <v>6236196</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45116.88541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2360,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2428,16 +2425,16 @@
         <v>6236199</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45121.79166666666</v>
       </c>
       <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
         <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2514,16 +2511,16 @@
         <v>6236202</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45121.88541666666</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2532,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>3.2</v>
@@ -2600,16 +2597,16 @@
         <v>6236197</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45122.75</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2618,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>3.6</v>
@@ -2686,16 +2683,16 @@
         <v>6236595</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45122.84375</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2772,16 +2769,16 @@
         <v>6236198</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2790,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2858,16 +2855,16 @@
         <v>6236201</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45123.80208333334</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2944,16 +2941,16 @@
         <v>6236200</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45123.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2962,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3030,16 +3027,16 @@
         <v>6236205</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45128.75</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.666</v>
@@ -3116,16 +3113,16 @@
         <v>6236208</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45128.84027777778</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3202,16 +3199,16 @@
         <v>6236596</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45129.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3220,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3288,16 +3285,16 @@
         <v>6236204</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45129.80208333334</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.615</v>
@@ -3374,16 +3371,16 @@
         <v>6236207</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45129.89583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3392,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3460,16 +3457,16 @@
         <v>6236203</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45130.75</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3478,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35">
         <v>2.2</v>
@@ -3546,16 +3543,16 @@
         <v>6904420</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3632,16 +3629,16 @@
         <v>6236597</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45134.75</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3650,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3718,16 +3715,16 @@
         <v>6236213</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3804,16 +3801,16 @@
         <v>6236598</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45135.80208333334</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3822,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.15</v>
@@ -3890,16 +3887,16 @@
         <v>6236209</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45135.89583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3908,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3976,16 +3973,16 @@
         <v>6236212</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3994,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41">
         <v>3.3</v>
@@ -4062,16 +4059,16 @@
         <v>6236211</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45136.80208333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4080,7 +4077,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -4148,16 +4145,16 @@
         <v>6236210</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45136.89583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4166,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4234,16 +4231,16 @@
         <v>6236600</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
         <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4252,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -4320,16 +4317,16 @@
         <v>6236215</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45143.6875</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4338,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.7</v>
@@ -4406,16 +4403,16 @@
         <v>6236216</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45143.80208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4424,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>2.05</v>
@@ -4492,16 +4489,16 @@
         <v>6236599</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4510,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4578,16 +4575,16 @@
         <v>6236214</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45144.6875</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4596,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>1.909</v>
@@ -4664,16 +4661,16 @@
         <v>6236217</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45144.80208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>1.571</v>
@@ -4750,16 +4747,16 @@
         <v>7010906</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45144.91666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4768,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4836,16 +4833,16 @@
         <v>6236219</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45149.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>1.95</v>
@@ -4922,16 +4919,16 @@
         <v>6236223</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45149.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4940,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5008,16 +5005,16 @@
         <v>6236224</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45150.6875</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -5094,16 +5091,16 @@
         <v>6236220</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45150.79861111111</v>
       </c>
       <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
         <v>35</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5112,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5180,16 +5177,16 @@
         <v>6236601</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45150.90625</v>
       </c>
       <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
         <v>43</v>
-      </c>
-      <c r="F55" t="s">
-        <v>44</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>2.45</v>
@@ -5266,16 +5263,16 @@
         <v>6236221</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45151.70833333334</v>
       </c>
       <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
         <v>37</v>
-      </c>
-      <c r="F56" t="s">
-        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5352,16 +5349,16 @@
         <v>6236222</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45151.81944444445</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J57">
         <v>2.75</v>
@@ -5438,16 +5435,16 @@
         <v>6236225</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5456,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5524,16 +5521,16 @@
         <v>6236229</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45156.81944444445</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5542,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>4.5</v>
@@ -5610,16 +5607,16 @@
         <v>6236602</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>2.15</v>
@@ -5696,17 +5693,17 @@
         <v>6236228</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45157.77777777778</v>
       </c>
       <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
         <v>40</v>
       </c>
-      <c r="F61" t="s">
-        <v>41</v>
-      </c>
       <c r="G61">
         <v>2</v>
       </c>
@@ -5714,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5782,16 +5779,16 @@
         <v>6236603</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45157.88888888889</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5800,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -5868,16 +5865,16 @@
         <v>6236226</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45158.73611111111</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5886,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5954,16 +5951,16 @@
         <v>6236227</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45158.84375</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5972,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>1.8</v>
@@ -6040,16 +6037,16 @@
         <v>6236230</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45163.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6058,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6126,16 +6123,16 @@
         <v>6236234</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45163.81944444445</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6144,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J66">
         <v>2.05</v>
@@ -6212,16 +6209,16 @@
         <v>6236231</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6230,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6298,16 +6295,16 @@
         <v>6236232</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45164.77777777778</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6384,16 +6381,16 @@
         <v>6236604</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45164.88888888889</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6402,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>2.7</v>
@@ -6470,16 +6467,16 @@
         <v>6236235</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45165.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6488,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>2.45</v>
@@ -6556,16 +6553,16 @@
         <v>7111812</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45165.90625</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6574,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6642,16 +6639,16 @@
         <v>6236605</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45170.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6660,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>1.666</v>
@@ -6728,16 +6725,16 @@
         <v>6236240</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45170.81944444445</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6746,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6814,16 +6811,16 @@
         <v>6236606</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45171.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6832,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6900,16 +6897,16 @@
         <v>6236238</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45171.77777777778</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6918,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>2.5</v>
@@ -6986,16 +6983,16 @@
         <v>6236237</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45171.88888888889</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7004,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>2.8</v>
@@ -7072,16 +7069,16 @@
         <v>6236239</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45172.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>4.333</v>
@@ -7158,16 +7155,16 @@
         <v>7146850</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45172.79861111111</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7176,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7244,16 +7241,16 @@
         <v>6236607</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45184.75</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7262,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.5</v>
@@ -7330,16 +7327,16 @@
         <v>6236242</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45184.86111111111</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7348,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>1.8</v>
@@ -7416,16 +7413,16 @@
         <v>6236243</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45185.66666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7434,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>2.7</v>
@@ -7502,16 +7499,16 @@
         <v>6236245</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45185.77777777778</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7520,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>2.8</v>
@@ -7588,16 +7585,16 @@
         <v>6236241</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45185.88888888889</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7606,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>1.615</v>
@@ -7674,16 +7671,16 @@
         <v>6236608</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45186.75</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7692,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7760,16 +7757,16 @@
         <v>6236244</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45186.86111111111</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7778,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>1.666</v>
@@ -7846,16 +7843,16 @@
         <v>6236246</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45191.75</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>3.3</v>
@@ -7932,16 +7929,16 @@
         <v>6236609</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45191.86111111111</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7947,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -8018,16 +8015,16 @@
         <v>6236249</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45192.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8036,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8104,16 +8101,16 @@
         <v>6236250</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45192.77777777778</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8122,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8190,16 +8187,16 @@
         <v>6236248</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45192.88888888889</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.533</v>
@@ -8276,16 +8273,16 @@
         <v>6236247</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45193.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8294,7 +8291,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.5</v>
@@ -8362,16 +8359,16 @@
         <v>6236610</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45193.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8380,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>3.4</v>
@@ -8445,10 +8442,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236253</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45199.6875</v>
@@ -8457,73 +8454,73 @@
         <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J93">
+        <v>1.833</v>
+      </c>
+      <c r="K93">
+        <v>3.25</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
         <v>3.2</v>
       </c>
-      <c r="K93">
-        <v>3.4</v>
-      </c>
-      <c r="L93">
-        <v>2</v>
-      </c>
-      <c r="M93">
-        <v>4.2</v>
-      </c>
-      <c r="N93">
-        <v>3.8</v>
-      </c>
       <c r="O93">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q93">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8531,85 +8528,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236253</v>
+        <v>6236612</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
       </c>
       <c r="J94">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="K94">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="P94">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q94">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
         <v>2.25</v>
       </c>
       <c r="T94">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
+        <v>0.8</v>
+      </c>
+      <c r="AA94">
         <v>-0.5</v>
       </c>
-      <c r="Z94">
-        <v>0.5125</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8617,10 +8614,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236254</v>
+        <v>6236611</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45199.6875</v>
@@ -8629,55 +8626,55 @@
         <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
         <v>1</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="K95">
         <v>3.4</v>
       </c>
       <c r="L95">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O95">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
         <v>2.5</v>
       </c>
       <c r="T95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8686,16 +8683,16 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8703,10 +8700,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236612</v>
+        <v>6236252</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45199.6875</v>
@@ -8715,37 +8712,37 @@
         <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
         <v>48</v>
       </c>
       <c r="J96">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L96">
-        <v>2.15</v>
+        <v>7.5</v>
       </c>
       <c r="M96">
+        <v>1.333</v>
+      </c>
+      <c r="N96">
         <v>4.5</v>
       </c>
-      <c r="N96">
-        <v>3.3</v>
-      </c>
       <c r="O96">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="P96">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -8754,7 +8751,7 @@
         <v>1.8</v>
       </c>
       <c r="S96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T96">
         <v>1.925</v>
@@ -8763,13 +8760,13 @@
         <v>1.875</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -8778,10 +8775,10 @@
         <v>0.8</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8792,16 +8789,16 @@
         <v>6236251</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J97">
         <v>3.1</v>
@@ -8878,17 +8875,17 @@
         <v>6236255</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
         <v>34</v>
       </c>
-      <c r="F98" t="s">
-        <v>35</v>
-      </c>
       <c r="G98">
         <v>0</v>
       </c>
@@ -8896,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>3.75</v>
@@ -8961,19 +8958,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236254</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,46 +8979,46 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J99">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L99">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="N99">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O99">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P99">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
         <v>2.5</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>0.333</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9030,16 +9027,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9050,16 +9047,16 @@
         <v>6236614</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9136,16 +9133,16 @@
         <v>6236257</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9154,7 +9151,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>2.3</v>
@@ -9222,16 +9219,16 @@
         <v>6236615</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9240,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J102">
         <v>2.375</v>
@@ -9308,16 +9305,16 @@
         <v>6236616</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9326,7 +9323,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J103">
         <v>3.3</v>
@@ -9394,16 +9391,16 @@
         <v>6236613</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9412,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9480,16 +9477,16 @@
         <v>6236256</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45207.79166666666</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9498,7 +9495,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9566,16 +9563,16 @@
         <v>7352243</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45220.75</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>2.45</v>
@@ -9652,16 +9649,16 @@
         <v>7352253</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45220.85416666666</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9738,16 +9735,16 @@
         <v>7352244</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45224.75</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9756,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>1.833</v>
@@ -9824,16 +9821,16 @@
         <v>7352245</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45224.85416666666</v>
       </c>
       <c r="E109" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" t="s">
         <v>37</v>
-      </c>
-      <c r="F109" t="s">
-        <v>38</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -9842,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>1.615</v>
@@ -9910,16 +9907,16 @@
         <v>7352246</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45228.75</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9928,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9996,16 +9993,16 @@
         <v>7352247</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45228.85416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10014,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10082,16 +10079,16 @@
         <v>7352248</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45234.75</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10100,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -10168,16 +10165,16 @@
         <v>7352249</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45234.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10186,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J113">
         <v>1.8</v>
@@ -10254,16 +10251,16 @@
         <v>7352250</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>3.1</v>
@@ -10340,16 +10337,16 @@
         <v>7352251</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10426,16 +10423,16 @@
         <v>7352254</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45242.75</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10444,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10512,16 +10509,16 @@
         <v>7352252</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45242.75</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>2.3</v>
@@ -10598,16 +10595,16 @@
         <v>7474667</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45255.75</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>2.05</v>
@@ -10684,16 +10681,16 @@
         <v>7776676</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10702,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.95</v>
@@ -10770,16 +10767,16 @@
         <v>7776678</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45324.83333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10788,7 +10785,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10856,16 +10853,16 @@
         <v>7776726</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45325.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10874,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10942,16 +10939,16 @@
         <v>7776733</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45325.78125</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10960,7 +10957,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11028,16 +11025,16 @@
         <v>7777122</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45325.89583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11046,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11114,16 +11111,16 @@
         <v>7776829</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45326.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -11132,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11200,16 +11197,16 @@
         <v>7776830</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45326.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11218,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>2.15</v>
@@ -11286,16 +11283,16 @@
         <v>7790134</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45331.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11304,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J126">
         <v>2.9</v>
@@ -11372,17 +11369,17 @@
         <v>7790135</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
       </c>
-      <c r="F127" t="s">
-        <v>37</v>
-      </c>
       <c r="G127">
         <v>0</v>
       </c>
@@ -11390,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>3.75</v>
@@ -11458,16 +11455,16 @@
         <v>7790136</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45332.78125</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11544,16 +11541,16 @@
         <v>7790137</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45332.95833333334</v>
       </c>
       <c r="E129" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" t="s">
         <v>42</v>
-      </c>
-      <c r="F129" t="s">
-        <v>43</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>2.2</v>
@@ -11630,16 +11627,16 @@
         <v>7790138</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45333.66666666666</v>
       </c>
       <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
         <v>34</v>
-      </c>
-      <c r="F130" t="s">
-        <v>35</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11648,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11716,16 +11713,16 @@
         <v>7790139</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45334.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11734,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>3</v>
@@ -11802,16 +11799,16 @@
         <v>7790140</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45334.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11820,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11888,16 +11885,16 @@
         <v>7841978</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45338.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11906,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11974,16 +11971,16 @@
         <v>7842503</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11992,7 +11989,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12060,16 +12057,16 @@
         <v>7842504</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12078,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>2.75</v>
@@ -12146,16 +12143,16 @@
         <v>7842507</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12164,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J136">
         <v>1.727</v>
@@ -12232,16 +12229,16 @@
         <v>7842505</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12250,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12318,16 +12315,16 @@
         <v>7842502</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12336,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12404,17 +12401,17 @@
         <v>7842506</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45340.78125</v>
       </c>
       <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" t="s">
         <v>43</v>
       </c>
-      <c r="F139" t="s">
-        <v>44</v>
-      </c>
       <c r="G139">
         <v>0</v>
       </c>
@@ -12422,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J139">
         <v>2.8</v>
@@ -12490,16 +12487,16 @@
         <v>7859976</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12508,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>3.2</v>
@@ -12576,16 +12573,16 @@
         <v>7859977</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45345.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12662,16 +12659,16 @@
         <v>7859978</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12680,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12748,16 +12745,16 @@
         <v>7859980</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45346.78125</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12766,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12834,16 +12831,16 @@
         <v>7859979</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45346.89583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12849,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12920,16 +12917,16 @@
         <v>7859981</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12938,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>1.75</v>
@@ -13006,16 +13003,16 @@
         <v>7859982</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45347.83333333334</v>
       </c>
       <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" t="s">
         <v>32</v>
-      </c>
-      <c r="F146" t="s">
-        <v>33</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13021,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13092,16 +13089,16 @@
         <v>7889199</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>2.6</v>
@@ -13178,16 +13175,16 @@
         <v>7889200</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13264,16 +13261,16 @@
         <v>7889201</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13282,7 +13279,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>1.909</v>
@@ -13350,16 +13347,16 @@
         <v>7889202</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45353.78125</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13436,16 +13433,16 @@
         <v>7889203</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45353.89583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13522,16 +13519,16 @@
         <v>7889204</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13540,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>2.7</v>
@@ -13608,16 +13605,16 @@
         <v>7889205</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13626,7 +13623,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13694,16 +13691,16 @@
         <v>7920995</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45359.79166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13712,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>1.95</v>
@@ -13780,16 +13777,16 @@
         <v>7920996</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45359.83333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13798,7 +13795,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>2.375</v>
@@ -13866,16 +13863,16 @@
         <v>7920965</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13884,7 +13881,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13949,85 +13946,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
       </c>
       <c r="J157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K157">
+        <v>3.1</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>1.833</v>
+      </c>
+      <c r="N157">
+        <v>3.1</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>-0.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.9</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.85</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3.2</v>
       </c>
-      <c r="L157">
-        <v>1.909</v>
-      </c>
-      <c r="M157">
-        <v>3</v>
-      </c>
-      <c r="N157">
-        <v>2.9</v>
-      </c>
-      <c r="O157">
-        <v>2.375</v>
-      </c>
-      <c r="P157">
-        <v>0.25</v>
-      </c>
-      <c r="Q157">
-        <v>1.8</v>
-      </c>
-      <c r="R157">
-        <v>2</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.825</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>1.9</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14035,85 +14032,85 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
+        <v>0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.8</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>1.9</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.4</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="Q158">
-        <v>1.9</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.85</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>3.2</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14124,16 +14121,16 @@
         <v>7920999</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14142,7 +14139,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>2.2</v>
@@ -14210,16 +14207,16 @@
         <v>7921000</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14228,7 +14225,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>2.375</v>
@@ -14296,16 +14293,16 @@
         <v>7952892</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45366.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14314,7 +14311,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>2.25</v>
@@ -14379,79 +14376,79 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7952905</v>
+        <v>7952893</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J162">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L162">
+        <v>3.25</v>
+      </c>
+      <c r="M162">
+        <v>2.25</v>
+      </c>
+      <c r="N162">
+        <v>3.1</v>
+      </c>
+      <c r="O162">
+        <v>2.9</v>
+      </c>
+      <c r="P162">
+        <v>-0.25</v>
+      </c>
+      <c r="Q162">
+        <v>2.025</v>
+      </c>
+      <c r="R162">
+        <v>1.775</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
         <v>1.8</v>
       </c>
-      <c r="M162">
-        <v>3.75</v>
-      </c>
-      <c r="N162">
-        <v>2.875</v>
-      </c>
-      <c r="O162">
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
         <v>2.1</v>
       </c>
-      <c r="P162">
-        <v>0.25</v>
-      </c>
-      <c r="Q162">
-        <v>1.95</v>
-      </c>
-      <c r="R162">
-        <v>1.85</v>
-      </c>
-      <c r="S162">
-        <v>2</v>
-      </c>
-      <c r="T162">
-        <v>2.025</v>
-      </c>
-      <c r="U162">
-        <v>1.775</v>
-      </c>
-      <c r="V162">
-        <v>2.75</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA162">
         <v>0</v>
@@ -14465,79 +14462,79 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7952893</v>
+        <v>7952905</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J163">
+        <v>3.6</v>
+      </c>
+      <c r="K163">
+        <v>3.6</v>
+      </c>
+      <c r="L163">
+        <v>1.8</v>
+      </c>
+      <c r="M163">
+        <v>3.75</v>
+      </c>
+      <c r="N163">
+        <v>2.875</v>
+      </c>
+      <c r="O163">
         <v>2.1</v>
       </c>
-      <c r="K163">
-        <v>3</v>
-      </c>
-      <c r="L163">
-        <v>3.25</v>
-      </c>
-      <c r="M163">
-        <v>2.25</v>
-      </c>
-      <c r="N163">
-        <v>3.1</v>
-      </c>
-      <c r="O163">
-        <v>2.9</v>
-      </c>
       <c r="P163">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q163">
+        <v>1.95</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>2.025</v>
       </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.775</v>
       </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>1.8</v>
-      </c>
-      <c r="U163">
-        <v>2</v>
-      </c>
       <c r="V163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z163">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
         <v>0</v>
@@ -14554,16 +14551,16 @@
         <v>7952906</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14640,16 +14637,16 @@
         <v>7952907</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45367.78125</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14658,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>1.571</v>
@@ -14726,16 +14723,16 @@
         <v>7952894</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45367.89583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14744,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>1.833</v>
@@ -14812,16 +14809,16 @@
         <v>7952895</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45368.75</v>
       </c>
       <c r="E167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14830,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.833</v>
@@ -14898,16 +14895,16 @@
         <v>7958187</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45370.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14916,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14984,16 +14981,16 @@
         <v>7958188</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45370.78125</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15002,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15070,16 +15067,16 @@
         <v>7958189</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45370.89583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15088,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2.3</v>
@@ -15156,16 +15153,16 @@
         <v>7958190</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45371.66666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15174,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>2.25</v>
@@ -15242,16 +15239,16 @@
         <v>7958191</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45371.78125</v>
       </c>
       <c r="E172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15260,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.615</v>
@@ -15328,16 +15325,16 @@
         <v>7958192</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15414,16 +15411,16 @@
         <v>7958193</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15432,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J174">
         <v>3.75</v>
@@ -15500,16 +15497,16 @@
         <v>7994464</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45373.83333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15586,16 +15583,16 @@
         <v>7995215</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45374.70833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15672,16 +15669,16 @@
         <v>7995216</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15690,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J177">
         <v>1.571</v>
@@ -15758,16 +15755,16 @@
         <v>7995214</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15776,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15844,16 +15841,16 @@
         <v>7995213</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45375.78125</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15862,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>2.8</v>
@@ -15930,16 +15927,16 @@
         <v>7977858</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45375.89583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15948,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J180">
         <v>3.6</v>
@@ -16016,16 +16013,16 @@
         <v>7977856</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45376.75</v>
       </c>
       <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
         <v>39</v>
-      </c>
-      <c r="F181" t="s">
-        <v>40</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16034,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>2.7</v>
@@ -16102,16 +16099,16 @@
         <v>8019496</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45379.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J182">
         <v>1.833</v>
@@ -16188,16 +16185,16 @@
         <v>7977865</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45380.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16206,7 +16203,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>2.1</v>
@@ -16274,16 +16271,16 @@
         <v>7977864</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -16292,7 +16289,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J184">
         <v>2.875</v>
@@ -16360,16 +16357,16 @@
         <v>7977862</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16446,16 +16443,16 @@
         <v>7977863</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45381.89583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16464,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16532,16 +16529,16 @@
         <v>7977380</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16550,7 +16547,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16618,16 +16615,16 @@
         <v>8027687</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16636,7 +16633,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J188">
         <v>1.75</v>
@@ -16704,16 +16701,16 @@
         <v>8054623</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45387.70833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16722,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16790,16 +16787,16 @@
         <v>7977868</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45387.83333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16808,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16876,16 +16873,16 @@
         <v>8054935</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45388.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16894,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>2.3</v>
@@ -16962,16 +16959,16 @@
         <v>8054936</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45388.78125</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16980,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>1.444</v>
@@ -17048,16 +17045,16 @@
         <v>8054937</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17066,7 +17063,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17134,16 +17131,16 @@
         <v>8054938</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17152,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17220,16 +17217,16 @@
         <v>7977869</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17238,7 +17235,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17306,16 +17303,16 @@
         <v>7977874</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45394.83333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17324,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>1.615</v>
@@ -17392,16 +17389,16 @@
         <v>7977384</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17410,7 +17407,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.615</v>
@@ -17478,16 +17475,16 @@
         <v>7977871</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17496,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -17564,16 +17561,16 @@
         <v>7977875</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17582,7 +17579,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J199">
         <v>3</v>
@@ -17650,16 +17647,16 @@
         <v>7977873</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45396.78125</v>
       </c>
       <c r="E200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17668,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17736,16 +17733,16 @@
         <v>7977872</v>
       </c>
       <c r="C201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17754,7 +17751,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J201">
         <v>2.45</v>
@@ -17822,16 +17819,16 @@
         <v>7977383</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17840,7 +17837,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J202">
         <v>1.666</v>
@@ -17908,16 +17905,16 @@
         <v>8111023</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45400.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17991,85 +17988,85 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977876</v>
+        <v>7977880</v>
       </c>
       <c r="C204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J204">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="K204">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M204">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P204">
+        <v>0.25</v>
+      </c>
+      <c r="Q204">
+        <v>1.975</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>2.25</v>
+      </c>
+      <c r="T204">
+        <v>1.95</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>-1</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>1.05</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.825</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="Q204">
-        <v>1.85</v>
-      </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>1.775</v>
-      </c>
-      <c r="U204">
-        <v>2.025</v>
-      </c>
-      <c r="V204">
-        <v>0.8</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z204">
-        <v>-1</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18080,16 +18077,16 @@
         <v>7977386</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18098,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>1.615</v>
@@ -18163,85 +18160,85 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977880</v>
+        <v>7977876</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="s">
         <v>48</v>
       </c>
       <c r="J206">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="K206">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
+        <v>1.8</v>
+      </c>
+      <c r="N206">
         <v>3.2</v>
       </c>
-      <c r="N206">
-        <v>3.1</v>
-      </c>
       <c r="O206">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18252,16 +18249,16 @@
         <v>7977877</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18270,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J207">
         <v>2.1</v>
@@ -18338,16 +18335,16 @@
         <v>7977878</v>
       </c>
       <c r="C208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18356,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>2.25</v>
@@ -18424,16 +18421,16 @@
         <v>7977879</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45403.77083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18442,7 +18439,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J209">
         <v>2.75</v>
@@ -18510,37 +18507,37 @@
         <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
-        <v>45409.70833333334</v>
+        <v>45410.75</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J210">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="K210">
         <v>2.875</v>
       </c>
       <c r="L210">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="M210">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="N210">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O210">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="P210">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q210">
         <v>1.875</v>
@@ -18552,10 +18549,10 @@
         <v>2</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
         <v>0</v>
@@ -18575,52 +18572,52 @@
         <v>28</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
-        <v>45409.875</v>
+        <v>45410.85416666666</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J211">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="K211">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L211">
         <v>4.5</v>
       </c>
       <c r="M211">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="N211">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O211">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P211">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -18629,71 +18626,6 @@
         <v>0</v>
       </c>
       <c r="X211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:28">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" t="s">
-        <v>29</v>
-      </c>
-      <c r="C212" t="s">
-        <v>30</v>
-      </c>
-      <c r="D212" s="2">
-        <v>45410.75</v>
-      </c>
-      <c r="E212" t="s">
-        <v>44</v>
-      </c>
-      <c r="F212" t="s">
-        <v>38</v>
-      </c>
-      <c r="J212">
-        <v>2.05</v>
-      </c>
-      <c r="K212">
-        <v>2.875</v>
-      </c>
-      <c r="L212">
-        <v>3.75</v>
-      </c>
-      <c r="M212">
-        <v>1.727</v>
-      </c>
-      <c r="N212">
-        <v>3.1</v>
-      </c>
-      <c r="O212">
-        <v>5</v>
-      </c>
-      <c r="P212">
-        <v>-0.75</v>
-      </c>
-      <c r="Q212">
-        <v>1.975</v>
-      </c>
-      <c r="R212">
-        <v>1.825</v>
-      </c>
-      <c r="S212">
-        <v>2</v>
-      </c>
-      <c r="T212">
-        <v>1.85</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>0</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
         <v>0</v>
       </c>
     </row>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8145475</t>
-  </si>
-  <si>
-    <t>8145474</t>
   </si>
   <si>
     <t>Venezuela Primera Division</t>
@@ -522,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +613,16 @@
         <v>6236589</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45099.66666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>2.6</v>
@@ -705,16 +699,16 @@
         <v>6236185</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45100.80208333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>1.909</v>
@@ -791,16 +785,16 @@
         <v>6236184</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45100.89583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -809,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1.75</v>
@@ -877,25 +871,25 @@
         <v>6236186</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45101.70833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>44</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
       </c>
       <c r="J5">
         <v>2.15</v>
@@ -963,16 +957,16 @@
         <v>6799213</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45101.80208333334</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -981,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -1049,16 +1043,16 @@
         <v>6799206</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45101.89583333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2.05</v>
@@ -1135,16 +1129,16 @@
         <v>6236588</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45102.70833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1153,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>1.909</v>
@@ -1221,16 +1215,16 @@
         <v>6236190</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45107.79166666666</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1239,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>2.4</v>
@@ -1307,16 +1301,16 @@
         <v>6236591</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45107.88541666666</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1325,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>3.1</v>
@@ -1393,16 +1387,16 @@
         <v>6837829</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45108.80208333334</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1411,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1479,16 +1473,16 @@
         <v>6837828</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45108.89583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1497,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.875</v>
@@ -1565,16 +1559,16 @@
         <v>6236188</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45109.70833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1583,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>2.55</v>
@@ -1651,16 +1645,16 @@
         <v>6236189</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45109.80208333334</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1669,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -1737,16 +1731,16 @@
         <v>6236187</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45109.89583333334</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1755,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>2.8</v>
@@ -1823,16 +1817,16 @@
         <v>6236594</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45113.79166666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1841,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1909,16 +1903,16 @@
         <v>6870184</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45114.70833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1927,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>1.5</v>
@@ -1995,16 +1989,16 @@
         <v>6236195</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45115.70833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2013,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>3.1</v>
@@ -2081,16 +2075,16 @@
         <v>6236593</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45115.80208333334</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2099,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>1.444</v>
@@ -2167,16 +2161,16 @@
         <v>6236194</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45115.89583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2185,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>1.909</v>
@@ -2253,16 +2247,16 @@
         <v>6236193</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45116.79166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2271,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>2.75</v>
@@ -2339,16 +2333,16 @@
         <v>6236196</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45116.88541666666</v>
       </c>
       <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2357,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2425,16 +2419,16 @@
         <v>6236199</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45121.79166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2443,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.95</v>
@@ -2511,16 +2505,16 @@
         <v>6236202</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45121.88541666666</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2529,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>3.2</v>
@@ -2597,16 +2591,16 @@
         <v>6236197</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45122.75</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2615,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>3.6</v>
@@ -2683,16 +2677,16 @@
         <v>6236595</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45122.84375</v>
       </c>
       <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
         <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>2.4</v>
@@ -2769,16 +2763,16 @@
         <v>6236198</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>2.15</v>
@@ -2855,16 +2849,16 @@
         <v>6236201</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45123.80208333334</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2873,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J28">
         <v>2.2</v>
@@ -2941,16 +2935,16 @@
         <v>6236200</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45123.89583333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2959,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3027,16 +3021,16 @@
         <v>6236205</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45128.75</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3045,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>1.666</v>
@@ -3113,16 +3107,16 @@
         <v>6236208</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45128.84027777778</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3131,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3199,16 +3193,16 @@
         <v>6236596</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45129.70833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3217,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J32">
         <v>1.533</v>
@@ -3285,16 +3279,16 @@
         <v>6236204</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45129.80208333334</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3303,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>1.615</v>
@@ -3371,16 +3365,16 @@
         <v>6236207</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45129.89583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3389,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>1.666</v>
@@ -3457,17 +3451,17 @@
         <v>6236203</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45130.75</v>
       </c>
       <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
         <v>34</v>
       </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
       <c r="G35">
         <v>2</v>
       </c>
@@ -3475,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>2.2</v>
@@ -3543,16 +3537,16 @@
         <v>6904420</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45130.85416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3561,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>1.75</v>
@@ -3629,16 +3623,16 @@
         <v>6236597</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45134.75</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3647,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3715,16 +3709,16 @@
         <v>6236213</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45135.70833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3733,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>3.75</v>
@@ -3801,16 +3795,16 @@
         <v>6236598</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45135.80208333334</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3819,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>2.15</v>
@@ -3887,16 +3881,16 @@
         <v>6236209</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45135.89583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3905,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>3.75</v>
@@ -3973,16 +3967,16 @@
         <v>6236212</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45136.70833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3991,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>3.3</v>
@@ -4059,16 +4053,16 @@
         <v>6236211</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45136.80208333334</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4077,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -4145,16 +4139,16 @@
         <v>6236210</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45136.89583333334</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4163,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>1.833</v>
@@ -4231,16 +4225,16 @@
         <v>6236600</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4249,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -4317,16 +4311,16 @@
         <v>6236215</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45143.6875</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4335,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>2.7</v>
@@ -4403,16 +4397,16 @@
         <v>6236216</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45143.80208333334</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4421,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.05</v>
@@ -4489,16 +4483,16 @@
         <v>6236599</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45143.91666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4507,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>1.615</v>
@@ -4575,16 +4569,16 @@
         <v>6236214</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45144.6875</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4593,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>1.909</v>
@@ -4661,16 +4655,16 @@
         <v>6236217</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45144.80208333334</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4679,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>1.571</v>
@@ -4747,16 +4741,16 @@
         <v>7010906</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45144.91666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.4</v>
@@ -4833,16 +4827,16 @@
         <v>6236219</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45149.70833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4851,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.95</v>
@@ -4919,16 +4913,16 @@
         <v>6236223</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45149.83333333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4937,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5005,16 +4999,16 @@
         <v>6236224</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45150.6875</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5023,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -5091,16 +5085,16 @@
         <v>6236220</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45150.79861111111</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5109,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5177,16 +5171,16 @@
         <v>6236601</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45150.90625</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5195,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>2.45</v>
@@ -5263,16 +5257,16 @@
         <v>6236221</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45151.70833333334</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5281,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.75</v>
@@ -5349,16 +5343,16 @@
         <v>6236222</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45151.81944444445</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5367,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J57">
         <v>2.75</v>
@@ -5435,16 +5429,16 @@
         <v>6236225</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5453,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5521,16 +5515,16 @@
         <v>6236229</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45156.81944444445</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5539,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>4.5</v>
@@ -5607,16 +5601,16 @@
         <v>6236602</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45157.66666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5625,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.15</v>
@@ -5693,16 +5687,16 @@
         <v>6236228</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45157.77777777778</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5711,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5779,16 +5773,16 @@
         <v>6236603</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45157.88888888889</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5797,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -5865,16 +5859,16 @@
         <v>6236226</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45158.73611111111</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5883,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -5951,16 +5945,16 @@
         <v>6236227</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45158.84375</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5969,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>1.8</v>
@@ -6037,16 +6031,16 @@
         <v>6236230</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45163.70833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6055,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>2.15</v>
@@ -6123,16 +6117,16 @@
         <v>6236234</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45163.81944444445</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6141,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>2.05</v>
@@ -6209,16 +6203,16 @@
         <v>6236231</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45164.66666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6227,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6295,16 +6289,16 @@
         <v>6236232</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45164.77777777778</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6313,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>2.2</v>
@@ -6381,16 +6375,16 @@
         <v>6236604</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45164.88888888889</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6399,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>2.7</v>
@@ -6467,16 +6461,16 @@
         <v>6236235</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45165.6875</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6485,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>2.45</v>
@@ -6553,16 +6547,16 @@
         <v>7111812</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45165.90625</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6571,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -6639,16 +6633,16 @@
         <v>6236605</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45170.70833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6657,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.666</v>
@@ -6725,16 +6719,16 @@
         <v>6236240</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45170.81944444445</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6743,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J73">
         <v>2.1</v>
@@ -6811,16 +6805,16 @@
         <v>6236606</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45171.66666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6829,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>2.45</v>
@@ -6897,16 +6891,16 @@
         <v>6236238</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45171.77777777778</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>2.5</v>
@@ -6983,16 +6977,16 @@
         <v>6236237</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45171.88888888889</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7001,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>2.8</v>
@@ -7069,16 +7063,16 @@
         <v>6236239</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45172.6875</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7087,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>4.333</v>
@@ -7155,16 +7149,16 @@
         <v>7146850</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45172.79861111111</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7173,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7241,16 +7235,16 @@
         <v>6236607</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45184.75</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>2</v>
@@ -7259,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J79">
         <v>2.5</v>
@@ -7327,16 +7321,16 @@
         <v>6236242</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45184.86111111111</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7345,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>1.8</v>
@@ -7413,16 +7407,16 @@
         <v>6236243</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45185.66666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7431,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>2.7</v>
@@ -7499,16 +7493,16 @@
         <v>6236245</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45185.77777777778</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -7517,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J82">
         <v>2.8</v>
@@ -7585,25 +7579,25 @@
         <v>6236241</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45185.88888888889</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
         <v>44</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>46</v>
       </c>
       <c r="J83">
         <v>1.615</v>
@@ -7671,16 +7665,16 @@
         <v>6236608</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45186.75</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7689,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>1.95</v>
@@ -7757,16 +7751,16 @@
         <v>6236244</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45186.86111111111</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7775,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>1.666</v>
@@ -7843,17 +7837,17 @@
         <v>6236246</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45191.75</v>
       </c>
       <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
         <v>32</v>
       </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
       <c r="G86">
         <v>0</v>
       </c>
@@ -7861,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>3.3</v>
@@ -7929,16 +7923,16 @@
         <v>6236609</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45191.86111111111</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7947,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>2.1</v>
@@ -8015,16 +8009,16 @@
         <v>6236249</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45192.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8033,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J88">
         <v>2.2</v>
@@ -8101,16 +8095,16 @@
         <v>6236250</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45192.77777777778</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>4</v>
@@ -8187,16 +8181,16 @@
         <v>6236248</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45192.88888888889</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8205,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J90">
         <v>1.533</v>
@@ -8273,16 +8267,16 @@
         <v>6236247</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45193.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8291,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.5</v>
@@ -8359,16 +8353,16 @@
         <v>6236610</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45193.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8377,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>3.4</v>
@@ -8442,85 +8436,85 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236611</v>
+        <v>6236612</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>3.2</v>
       </c>
       <c r="K93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O93">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P93">
+        <v>0.5</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
+        <v>2.25</v>
+      </c>
+      <c r="T93">
+        <v>1.925</v>
+      </c>
+      <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
+        <v>-1</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
         <v>0.75</v>
       </c>
-      <c r="Q93">
-        <v>1.95</v>
-      </c>
-      <c r="R93">
-        <v>1.85</v>
-      </c>
-      <c r="S93">
-        <v>2.5</v>
-      </c>
-      <c r="T93">
-        <v>1.825</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
-      <c r="V93">
-        <v>3.2</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8528,85 +8522,85 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236611</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
         <v>46</v>
       </c>
       <c r="J94">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>4.2</v>
+      </c>
+      <c r="N94">
+        <v>3.8</v>
+      </c>
+      <c r="O94">
+        <v>1.65</v>
+      </c>
+      <c r="P94">
+        <v>0.75</v>
+      </c>
+      <c r="Q94">
         <v>1.95</v>
       </c>
-      <c r="M94">
-        <v>2.9</v>
-      </c>
-      <c r="N94">
-        <v>2.875</v>
-      </c>
-      <c r="O94">
-        <v>2.45</v>
-      </c>
-      <c r="P94">
-        <v>0.25</v>
-      </c>
-      <c r="Q94">
-        <v>1.775</v>
-      </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W94">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8614,85 +8608,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236255</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J95">
+        <v>3.75</v>
+      </c>
+      <c r="K95">
         <v>3.1</v>
       </c>
-      <c r="K95">
-        <v>3.2</v>
-      </c>
       <c r="L95">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N95">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O95">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="P95">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
+        <v>1.85</v>
+      </c>
+      <c r="U95">
         <v>1.95</v>
       </c>
-      <c r="U95">
-        <v>1.85</v>
-      </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
+        <v>0.3875</v>
+      </c>
+      <c r="Z95">
         <v>-0.5</v>
       </c>
-      <c r="Z95">
-        <v>0.5</v>
-      </c>
       <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
         <v>0.95</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8700,85 +8694,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236251</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J96">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="M96">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P96">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y96">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8786,85 +8780,85 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236612</v>
+        <v>6236254</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J97">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L97">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="P97">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8875,25 +8869,25 @@
         <v>6236253</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
         <v>44</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>46</v>
       </c>
       <c r="J98">
         <v>1.833</v>
@@ -8961,16 +8955,16 @@
         <v>6236252</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8979,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>1.363</v>
@@ -9047,16 +9041,16 @@
         <v>6236614</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9065,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>2.45</v>
@@ -9133,16 +9127,16 @@
         <v>6236257</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9151,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>2.3</v>
@@ -9219,16 +9213,16 @@
         <v>6236615</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9237,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J102">
         <v>2.375</v>
@@ -9305,16 +9299,16 @@
         <v>6236616</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45206.6875</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9323,7 +9317,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>3.3</v>
@@ -9391,16 +9385,16 @@
         <v>6236613</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45207.45833333334</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,7 +9403,7 @@
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9477,16 +9471,16 @@
         <v>6236256</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45207.79166666666</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9495,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9563,17 +9557,17 @@
         <v>7352243</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45220.75</v>
       </c>
       <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
         <v>34</v>
       </c>
-      <c r="F106" t="s">
-        <v>36</v>
-      </c>
       <c r="G106">
         <v>0</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>2.45</v>
@@ -9649,16 +9643,16 @@
         <v>7352253</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45220.85416666666</v>
       </c>
       <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" t="s">
         <v>37</v>
-      </c>
-      <c r="F107" t="s">
-        <v>39</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9667,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>2.8</v>
@@ -9735,16 +9729,16 @@
         <v>7352244</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45224.75</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9753,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>1.833</v>
@@ -9821,16 +9815,16 @@
         <v>7352245</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45224.85416666666</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -9839,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>1.615</v>
@@ -9907,16 +9901,16 @@
         <v>7352246</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45228.75</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9925,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>2.1</v>
@@ -9993,16 +9987,16 @@
         <v>7352247</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45228.85416666666</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10011,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>2.1</v>
@@ -10079,16 +10073,16 @@
         <v>7352248</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45234.75</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10097,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -10165,16 +10159,16 @@
         <v>7352249</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45234.85416666666</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10183,7 +10177,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>1.8</v>
@@ -10251,16 +10245,16 @@
         <v>7352250</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10269,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>3.1</v>
@@ -10337,16 +10331,16 @@
         <v>7352251</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45238.82291666666</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10355,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>2.1</v>
@@ -10423,16 +10417,16 @@
         <v>7352252</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45242.75</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10441,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10509,16 +10503,16 @@
         <v>7352254</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45242.75</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10595,16 +10589,16 @@
         <v>7474667</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45255.75</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10613,7 +10607,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>2.05</v>
@@ -10681,16 +10675,16 @@
         <v>7776676</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45324.70833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -10699,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>1.95</v>
@@ -10767,16 +10761,16 @@
         <v>7776678</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45324.83333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10785,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10853,16 +10847,16 @@
         <v>7776726</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45325.66666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10871,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10939,16 +10933,16 @@
         <v>7776733</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45325.78125</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -10957,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11025,16 +11019,16 @@
         <v>7777122</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45325.89583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11043,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11111,16 +11105,16 @@
         <v>7776829</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45326.70833333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -11129,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>1.444</v>
@@ -11197,25 +11191,25 @@
         <v>7776830</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45326.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
+        <v>42</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
         <v>44</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>46</v>
       </c>
       <c r="J125">
         <v>2.15</v>
@@ -11283,16 +11277,16 @@
         <v>7790134</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45331.66666666666</v>
       </c>
       <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
         <v>37</v>
-      </c>
-      <c r="F126" t="s">
-        <v>39</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11301,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>2.9</v>
@@ -11369,16 +11363,16 @@
         <v>7790135</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45332.66666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11387,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>3.75</v>
@@ -11455,16 +11449,16 @@
         <v>7790136</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45332.78125</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11473,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>1.615</v>
@@ -11541,16 +11535,16 @@
         <v>7790137</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45332.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11559,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J129">
         <v>2.2</v>
@@ -11627,16 +11621,16 @@
         <v>7790138</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45333.66666666666</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11645,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11713,16 +11707,16 @@
         <v>7790139</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45334.70833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11731,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J131">
         <v>3</v>
@@ -11799,16 +11793,16 @@
         <v>7790140</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45334.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11817,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.909</v>
@@ -11885,16 +11879,16 @@
         <v>7841978</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45338.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -11971,16 +11965,16 @@
         <v>7842503</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45339.66666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11989,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>1.8</v>
@@ -12057,16 +12051,16 @@
         <v>7842507</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12075,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>1.727</v>
@@ -12143,16 +12137,16 @@
         <v>7842504</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45339.78125</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12161,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>2.75</v>
@@ -12229,16 +12223,16 @@
         <v>7842505</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45339.89583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12247,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J137">
         <v>1.444</v>
@@ -12315,16 +12309,16 @@
         <v>7842502</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45340.66666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12333,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>2.3</v>
@@ -12401,16 +12395,16 @@
         <v>7842506</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45340.78125</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12419,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>2.8</v>
@@ -12487,16 +12481,16 @@
         <v>7859976</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45345.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12505,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>3.2</v>
@@ -12573,16 +12567,16 @@
         <v>7859977</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45345.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12591,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12659,16 +12653,16 @@
         <v>7859978</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45346.66666666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12677,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12745,16 +12739,16 @@
         <v>7859980</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45346.78125</v>
       </c>
       <c r="E143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12763,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>3.8</v>
@@ -12831,16 +12825,16 @@
         <v>7859979</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45346.89583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12849,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2.3</v>
@@ -12917,16 +12911,16 @@
         <v>7859981</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45347.70833333334</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12935,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>1.75</v>
@@ -13003,16 +12997,16 @@
         <v>7859982</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45347.83333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13015,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J146">
         <v>1.727</v>
@@ -13089,16 +13083,16 @@
         <v>7889199</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45352.70833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>2.6</v>
@@ -13175,16 +13169,16 @@
         <v>7889200</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E148" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13193,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13261,25 +13255,25 @@
         <v>7889201</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45353.66666666666</v>
       </c>
       <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
         <v>44</v>
-      </c>
-      <c r="F149" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149">
-        <v>2</v>
-      </c>
-      <c r="H149">
-        <v>2</v>
-      </c>
-      <c r="I149" t="s">
-        <v>46</v>
       </c>
       <c r="J149">
         <v>1.909</v>
@@ -13347,16 +13341,16 @@
         <v>7889202</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45353.78125</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13365,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>2.625</v>
@@ -13433,16 +13427,16 @@
         <v>7889203</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45353.89583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13445,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>2.75</v>
@@ -13519,17 +13513,17 @@
         <v>7889204</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45354.70833333334</v>
       </c>
       <c r="E152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" t="s">
         <v>34</v>
       </c>
-      <c r="F152" t="s">
-        <v>36</v>
-      </c>
       <c r="G152">
         <v>0</v>
       </c>
@@ -13537,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.7</v>
@@ -13605,16 +13599,16 @@
         <v>7889205</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13623,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13691,16 +13685,16 @@
         <v>7920995</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45359.79166666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13709,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>1.95</v>
@@ -13777,16 +13771,16 @@
         <v>7920996</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45359.83333333334</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13795,7 +13789,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J155">
         <v>2.375</v>
@@ -13863,25 +13857,25 @@
         <v>7920965</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45360.66666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
         <v>45</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>2</v>
-      </c>
-      <c r="I156" t="s">
-        <v>47</v>
       </c>
       <c r="J156">
         <v>2.2</v>
@@ -13946,85 +13940,85 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
+        <v>32</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157" t="s">
         <v>44</v>
       </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157" t="s">
-        <v>47</v>
-      </c>
       <c r="J157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P157">
+        <v>0.25</v>
+      </c>
+      <c r="Q157">
+        <v>1.8</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.825</v>
+      </c>
+      <c r="U157">
+        <v>1.975</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>1.9</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.4</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="Q157">
-        <v>1.9</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.85</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3.2</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14032,85 +14026,85 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K158">
+        <v>3.1</v>
+      </c>
+      <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>1.833</v>
+      </c>
+      <c r="N158">
+        <v>3.1</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
+        <v>-0.5</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.85</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>3.2</v>
       </c>
-      <c r="L158">
-        <v>1.909</v>
-      </c>
-      <c r="M158">
-        <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>2.375</v>
-      </c>
-      <c r="P158">
-        <v>0.25</v>
-      </c>
-      <c r="Q158">
-        <v>1.8</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.825</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>1.9</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
       <c r="Y158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14121,16 +14115,16 @@
         <v>7920999</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45361.66666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14139,7 +14133,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>2.2</v>
@@ -14207,16 +14201,16 @@
         <v>7921000</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14225,7 +14219,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>2.375</v>
@@ -14293,16 +14287,16 @@
         <v>7952892</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45366.70833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14305,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>2.25</v>
@@ -14379,16 +14373,16 @@
         <v>7952893</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14397,7 +14391,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>2.1</v>
@@ -14465,16 +14459,16 @@
         <v>7952905</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45366.83333333334</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14483,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J163">
         <v>3.6</v>
@@ -14551,16 +14545,16 @@
         <v>7952906</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45367.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14569,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>1.666</v>
@@ -14637,16 +14631,16 @@
         <v>7952907</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45367.78125</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14655,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>1.571</v>
@@ -14723,16 +14717,16 @@
         <v>7952894</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45367.89583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14741,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J166">
         <v>1.833</v>
@@ -14809,16 +14803,16 @@
         <v>7952895</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45368.75</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -14827,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>1.833</v>
@@ -14895,16 +14889,16 @@
         <v>7958187</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45370.66666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14913,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>2.5</v>
@@ -14981,17 +14975,17 @@
         <v>7958188</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45370.78125</v>
       </c>
       <c r="E169" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" t="s">
         <v>41</v>
       </c>
-      <c r="F169" t="s">
-        <v>43</v>
-      </c>
       <c r="G169">
         <v>0</v>
       </c>
@@ -14999,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15067,16 +15061,16 @@
         <v>7958189</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45370.89583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15085,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J170">
         <v>2.3</v>
@@ -15153,16 +15147,16 @@
         <v>7958190</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45371.66666666666</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J171">
         <v>2.25</v>
@@ -15239,16 +15233,16 @@
         <v>7958191</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45371.78125</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15257,7 +15251,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <v>1.615</v>
@@ -15325,16 +15319,16 @@
         <v>7958192</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15343,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>1.666</v>
@@ -15411,16 +15405,16 @@
         <v>7958193</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45371.89583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15429,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J174">
         <v>3.75</v>
@@ -15497,16 +15491,16 @@
         <v>7994464</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45373.83333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15515,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15583,16 +15577,16 @@
         <v>7995215</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45374.70833333334</v>
       </c>
       <c r="E176" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176" t="s">
         <v>31</v>
-      </c>
-      <c r="F176" t="s">
-        <v>33</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15669,16 +15663,16 @@
         <v>7995216</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15687,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J177">
         <v>1.571</v>
@@ -15755,16 +15749,16 @@
         <v>7995214</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45375.66666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -15773,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J178">
         <v>1.727</v>
@@ -15841,16 +15835,16 @@
         <v>7995213</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45375.78125</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15859,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J179">
         <v>2.8</v>
@@ -15927,16 +15921,16 @@
         <v>7977858</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45375.89583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15945,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <v>3.6</v>
@@ -16013,16 +16007,16 @@
         <v>7977856</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45376.75</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16031,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J181">
         <v>2.7</v>
@@ -16099,16 +16093,16 @@
         <v>8019496</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45379.85416666666</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16117,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>1.833</v>
@@ -16185,16 +16179,16 @@
         <v>7977865</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45380.70833333334</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16203,7 +16197,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>2.1</v>
@@ -16271,25 +16265,25 @@
         <v>7977864</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F184" t="s">
+        <v>42</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184" t="s">
         <v>44</v>
-      </c>
-      <c r="G184">
-        <v>2</v>
-      </c>
-      <c r="H184">
-        <v>2</v>
-      </c>
-      <c r="I184" t="s">
-        <v>46</v>
       </c>
       <c r="J184">
         <v>2.875</v>
@@ -16357,16 +16351,16 @@
         <v>7977862</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45381.78125</v>
       </c>
       <c r="E185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16375,7 +16369,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16443,16 +16437,16 @@
         <v>7977863</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45381.89583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J186">
         <v>2.75</v>
@@ -16529,16 +16523,16 @@
         <v>7977380</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45382.70833333334</v>
       </c>
       <c r="E187" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16547,7 +16541,7 @@
         <v>2</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>3.4</v>
@@ -16615,16 +16609,16 @@
         <v>8027687</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16633,7 +16627,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J188">
         <v>1.75</v>
@@ -16701,16 +16695,16 @@
         <v>8054623</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45387.70833333334</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16719,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>2.1</v>
@@ -16787,16 +16781,16 @@
         <v>7977868</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45387.83333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16805,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J190">
         <v>2.5</v>
@@ -16873,16 +16867,16 @@
         <v>8054935</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45388.66666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16891,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>2.3</v>
@@ -16959,16 +16953,16 @@
         <v>8054936</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45388.78125</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16977,7 +16971,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J192">
         <v>1.444</v>
@@ -17045,16 +17039,16 @@
         <v>8054937</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45388.89583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17063,7 +17057,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17131,16 +17125,16 @@
         <v>8054938</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45389.70833333334</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17149,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -17217,16 +17211,16 @@
         <v>7977869</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17235,7 +17229,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17303,16 +17297,16 @@
         <v>7977874</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45394.83333333334</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17321,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J196">
         <v>1.615</v>
@@ -17389,16 +17383,16 @@
         <v>7977384</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45395.70833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17407,7 +17401,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J197">
         <v>1.615</v>
@@ -17475,16 +17469,16 @@
         <v>7977871</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17493,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J198">
         <v>2</v>
@@ -17561,16 +17555,16 @@
         <v>7977875</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45396.66666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17579,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J199">
         <v>3</v>
@@ -17647,16 +17641,16 @@
         <v>7977873</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45396.78125</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17665,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17733,25 +17727,25 @@
         <v>7977872</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45396.89583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F201" t="s">
+        <v>42</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
         <v>44</v>
-      </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-      <c r="H201">
-        <v>2</v>
-      </c>
-      <c r="I201" t="s">
-        <v>46</v>
       </c>
       <c r="J201">
         <v>2.45</v>
@@ -17819,16 +17813,16 @@
         <v>7977383</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45397.83333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17837,7 +17831,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J202">
         <v>1.666</v>
@@ -17905,16 +17899,16 @@
         <v>8111023</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45400.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17923,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17988,67 +17982,67 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977386</v>
+        <v>7977876</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J204">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="K204">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L204">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M204">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="N204">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O204">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q204">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V204">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18057,7 +18051,7 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z204">
         <v>-1</v>
@@ -18066,7 +18060,7 @@
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18074,77 +18068,77 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7977876</v>
+        <v>7977386</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G205">
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" t="s">
+        <v>46</v>
+      </c>
+      <c r="J205">
+        <v>1.615</v>
+      </c>
+      <c r="K205">
+        <v>3.8</v>
+      </c>
+      <c r="L205">
+        <v>4.333</v>
+      </c>
+      <c r="M205">
+        <v>1.727</v>
+      </c>
+      <c r="N205">
+        <v>3.6</v>
+      </c>
+      <c r="O205">
+        <v>3.8</v>
+      </c>
+      <c r="P205">
+        <v>-0.75</v>
+      </c>
+      <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>2.5</v>
+      </c>
+      <c r="T205">
+        <v>1.975</v>
+      </c>
+      <c r="U205">
+        <v>1.825</v>
+      </c>
+      <c r="V205">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
         <v>1</v>
       </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205" t="s">
-        <v>48</v>
-      </c>
-      <c r="J205">
-        <v>1.65</v>
-      </c>
-      <c r="K205">
-        <v>3.5</v>
-      </c>
-      <c r="L205">
-        <v>4.5</v>
-      </c>
-      <c r="M205">
-        <v>1.8</v>
-      </c>
-      <c r="N205">
-        <v>3.2</v>
-      </c>
-      <c r="O205">
-        <v>4.2</v>
-      </c>
-      <c r="P205">
-        <v>-0.5</v>
-      </c>
-      <c r="Q205">
-        <v>1.85</v>
-      </c>
-      <c r="R205">
-        <v>1.95</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
-        <v>1.775</v>
-      </c>
-      <c r="U205">
-        <v>2.025</v>
-      </c>
-      <c r="V205">
-        <v>0.8</v>
-      </c>
-      <c r="W205">
-        <v>-1</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z205">
         <v>-1</v>
       </c>
@@ -18152,7 +18146,7 @@
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18163,17 +18157,17 @@
         <v>7977880</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
+        <v>33</v>
+      </c>
+      <c r="F206" t="s">
         <v>35</v>
       </c>
-      <c r="F206" t="s">
-        <v>37</v>
-      </c>
       <c r="G206">
         <v>0</v>
       </c>
@@ -18181,7 +18175,7 @@
         <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J206">
         <v>3.75</v>
@@ -18246,19 +18240,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7977878</v>
+        <v>7977877</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18267,46 +18261,46 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J207">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K207">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L207">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N207">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O207">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P207">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T207">
+        <v>1.95</v>
+      </c>
+      <c r="U207">
         <v>1.85</v>
       </c>
-      <c r="U207">
-        <v>1.95</v>
-      </c>
       <c r="V207">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
         <v>-1</v>
@@ -18315,7 +18309,7 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="Z207">
         <v>-1</v>
@@ -18324,7 +18318,7 @@
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18332,19 +18326,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7977877</v>
+        <v>7977878</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45402.83333333334</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -18353,46 +18347,46 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J208">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K208">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M208">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N208">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O208">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P208">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q208">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T208">
+        <v>1.85</v>
+      </c>
+      <c r="U208">
         <v>1.95</v>
       </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
       <c r="V208">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18401,7 +18395,7 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="Z208">
         <v>-1</v>
@@ -18410,7 +18404,7 @@
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18421,25 +18415,25 @@
         <v>7977879</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45403.77083333334</v>
       </c>
       <c r="E209" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
         <v>44</v>
-      </c>
-      <c r="F209" t="s">
-        <v>39</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209" t="s">
-        <v>46</v>
       </c>
       <c r="J209">
         <v>2.75</v>
@@ -18507,16 +18501,16 @@
         <v>8146411</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45409.70833333334</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F210" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18525,7 +18519,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J210">
         <v>2.625</v>
@@ -18593,16 +18587,16 @@
         <v>8146410</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45409.875</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18611,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J211">
         <v>1.6</v>
@@ -18679,16 +18673,16 @@
         <v>8146407</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45410.75</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18697,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J212">
         <v>2.05</v>
@@ -18765,16 +18759,16 @@
         <v>8146406</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45410.85416666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18783,7 +18777,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18841,136 +18835,6 @@
       </c>
       <c r="AB213">
         <v>0.8500000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:28">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" t="s">
-        <v>27</v>
-      </c>
-      <c r="C214" t="s">
-        <v>29</v>
-      </c>
-      <c r="D214" s="2">
-        <v>45413.75</v>
-      </c>
-      <c r="E214" t="s">
-        <v>37</v>
-      </c>
-      <c r="F214" t="s">
-        <v>39</v>
-      </c>
-      <c r="J214">
-        <v>2.625</v>
-      </c>
-      <c r="K214">
-        <v>2.875</v>
-      </c>
-      <c r="L214">
-        <v>2.75</v>
-      </c>
-      <c r="M214">
-        <v>3.25</v>
-      </c>
-      <c r="N214">
-        <v>2.9</v>
-      </c>
-      <c r="O214">
-        <v>2.25</v>
-      </c>
-      <c r="P214">
-        <v>0.25</v>
-      </c>
-      <c r="Q214">
-        <v>1.8</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
-        <v>1.9</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>0</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:28">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" t="s">
-        <v>28</v>
-      </c>
-      <c r="C215" t="s">
-        <v>29</v>
-      </c>
-      <c r="D215" s="2">
-        <v>45413.85416666666</v>
-      </c>
-      <c r="E215" t="s">
-        <v>38</v>
-      </c>
-      <c r="F215" t="s">
-        <v>43</v>
-      </c>
-      <c r="J215">
-        <v>3.5</v>
-      </c>
-      <c r="K215">
-        <v>3.1</v>
-      </c>
-      <c r="L215">
-        <v>2</v>
-      </c>
-      <c r="M215">
-        <v>3.1</v>
-      </c>
-      <c r="N215">
-        <v>2.8</v>
-      </c>
-      <c r="O215">
-        <v>2.3</v>
-      </c>
-      <c r="P215">
-        <v>0.25</v>
-      </c>
-      <c r="Q215">
-        <v>1.75</v>
-      </c>
-      <c r="R215">
-        <v>2.05</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2</v>
-      </c>
-      <c r="U215">
-        <v>1.8</v>
-      </c>
-      <c r="V215">
-        <v>0</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -8436,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6236612</v>
+        <v>6236611</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8445,76 +8445,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>3.2</v>
       </c>
       <c r="K93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L93">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O93">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P93">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T93">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB93">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8522,7 +8522,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236611</v>
+        <v>6236255</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8531,76 +8531,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M94">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N94">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O94">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="P94">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q94">
+        <v>1.775</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>2.25</v>
+      </c>
+      <c r="T94">
+        <v>1.85</v>
+      </c>
+      <c r="U94">
         <v>1.95</v>
       </c>
-      <c r="R94">
-        <v>1.85</v>
-      </c>
-      <c r="S94">
-        <v>2.5</v>
-      </c>
-      <c r="T94">
-        <v>1.825</v>
-      </c>
-      <c r="U94">
-        <v>1.975</v>
-      </c>
       <c r="V94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
+        <v>0.3875</v>
+      </c>
+      <c r="Z94">
+        <v>-0.5</v>
+      </c>
+      <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.95</v>
-      </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>0.825</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8608,7 +8608,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236255</v>
+        <v>6236251</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8617,76 +8617,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J95">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K95">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
+        <v>2.15</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>3.6</v>
+      </c>
+      <c r="O95">
+        <v>1.75</v>
+      </c>
+      <c r="P95">
+        <v>0.75</v>
+      </c>
+      <c r="Q95">
+        <v>1.8</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>2.5</v>
+      </c>
+      <c r="T95">
         <v>1.95</v>
       </c>
-      <c r="M95">
-        <v>2.9</v>
-      </c>
-      <c r="N95">
-        <v>2.875</v>
-      </c>
-      <c r="O95">
-        <v>2.45</v>
-      </c>
-      <c r="P95">
-        <v>0.25</v>
-      </c>
-      <c r="Q95">
-        <v>1.775</v>
-      </c>
-      <c r="R95">
-        <v>2.025</v>
-      </c>
-      <c r="S95">
-        <v>2.25</v>
-      </c>
-      <c r="T95">
+      <c r="U95">
         <v>1.85</v>
       </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y95">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,7 +8694,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236251</v>
+        <v>6236254</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8703,76 +8703,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J96">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L96">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="M96">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="P96">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
+        <v>0.4375</v>
+      </c>
+      <c r="Z96">
         <v>-0.5</v>
       </c>
-      <c r="Z96">
-        <v>0.5</v>
-      </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8780,7 +8780,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6236254</v>
+        <v>6236612</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8789,76 +8789,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J97">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="K97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="M97">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O97">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P97">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2.25</v>
+      </c>
+      <c r="T97">
+        <v>1.925</v>
+      </c>
+      <c r="U97">
         <v>1.875</v>
       </c>
-      <c r="R97">
-        <v>1.925</v>
-      </c>
-      <c r="S97">
-        <v>2.5</v>
-      </c>
-      <c r="T97">
-        <v>1.9</v>
-      </c>
-      <c r="U97">
-        <v>1.9</v>
-      </c>
       <c r="V97">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.8</v>
+      </c>
+      <c r="AA97">
+        <v>-0.5</v>
+      </c>
+      <c r="AB97">
         <v>0.4375</v>
-      </c>
-      <c r="Z97">
-        <v>-0.5</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,76 +13949,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J157">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K157">
+        <v>3.1</v>
+      </c>
+      <c r="L157">
+        <v>4.2</v>
+      </c>
+      <c r="M157">
+        <v>1.833</v>
+      </c>
+      <c r="N157">
+        <v>3.1</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>-0.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.9</v>
+      </c>
+      <c r="R157">
+        <v>1.9</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.85</v>
+      </c>
+      <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>3.2</v>
       </c>
-      <c r="L157">
-        <v>1.909</v>
-      </c>
-      <c r="M157">
-        <v>3</v>
-      </c>
-      <c r="N157">
-        <v>2.9</v>
-      </c>
-      <c r="O157">
-        <v>2.375</v>
-      </c>
-      <c r="P157">
-        <v>0.25</v>
-      </c>
-      <c r="Q157">
-        <v>1.8</v>
-      </c>
-      <c r="R157">
-        <v>2</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.825</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>1.9</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14026,7 +14026,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14035,76 +14035,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J158">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M158">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P158">
+        <v>0.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.8</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.825</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>1.9</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0.4</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="Q158">
-        <v>1.9</v>
-      </c>
-      <c r="R158">
-        <v>1.9</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.85</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>3.2</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:28">

--- a/Venezuela Primera Division/Venezuela Primera Division.xlsx
+++ b/Venezuela Primera Division/Venezuela Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB213"/>
+  <dimension ref="A1:AB221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8522,7 +8522,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6236255</v>
+        <v>6236254</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8531,67 +8531,67 @@
         <v>45199.6875</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J94">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="M94">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="P94">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q94">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R94">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W94">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3875</v>
+        <v>0.4375</v>
       </c>
       <c r="Z94">
         <v>-0.5</v>
@@ -8600,7 +8600,7 @@
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8608,7 +8608,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6236251</v>
+        <v>6236253</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -8617,76 +8617,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J95">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="K95">
+        <v>3.25</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
         <v>3.2</v>
       </c>
-      <c r="L95">
-        <v>2.15</v>
-      </c>
-      <c r="M95">
-        <v>4</v>
-      </c>
-      <c r="N95">
-        <v>3.6</v>
-      </c>
       <c r="O95">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T95">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X95">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-0.5</v>
       </c>
       <c r="Z95">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AA95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,7 +8694,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6236254</v>
+        <v>6236252</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -8703,10 +8703,10 @@
         <v>45199.6875</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8718,43 +8718,43 @@
         <v>46</v>
       </c>
       <c r="J96">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L96">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="M96">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O96">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P96">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
         <v>2.5</v>
       </c>
       <c r="T96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>0.6659999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -8763,16 +8763,16 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8866,7 +8866,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6236253</v>
+        <v>6236255</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8875,10 +8875,10 @@
         <v>45199.6875</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8890,25 +8890,25 @@
         <v>44</v>
       </c>
       <c r="J98">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K98">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q98">
         <v>1.775</v>
@@ -8920,31 +8920,31 @@
         <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
+        <v>0.3875</v>
+      </c>
+      <c r="Z98">
         <v>-0.5</v>
       </c>
-      <c r="Z98">
-        <v>0.5125</v>
-      </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8952,7 +8952,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6236252</v>
+        <v>6236251</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8961,76 +8961,76 @@
         <v>45199.6875</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J99">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L99">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O99">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="P99">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S99">
         <v>2.5</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9038,7 +9038,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6236614</v>
+        <v>6236257</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9047,13 +9047,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9062,40 +9062,40 @@
         <v>45</v>
       </c>
       <c r="J100">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="K100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L100">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
         <v>2.75</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
         <v>-1</v>
@@ -9104,19 +9104,19 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9124,7 +9124,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6236257</v>
+        <v>6236614</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9133,13 +9133,13 @@
         <v>45205.70833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9148,40 +9148,40 @@
         <v>45</v>
       </c>
       <c r="J101">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="K101">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L101">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M101">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
         <v>2.75</v>
       </c>
       <c r="T101">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V101">
         <v>-1</v>
@@ -9190,19 +9190,19 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB101">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7920997</v>
+        <v>7920998</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,76 +13949,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J157">
-        <v>1.833</v>
+        <v>3.75</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="M157">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P157">
+        <v>0.25</v>
+      </c>
+      <c r="Q157">
+        <v>1.8</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>1.825</v>
+      </c>
+      <c r="U157">
+        <v>1.975</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>1.9</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>0.4</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="Q157">
-        <v>1.9</v>
-      </c>
-      <c r="R157">
-        <v>1.9</v>
-      </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>1.85</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>-1</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>3.2</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14026,7 +14026,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7920998</v>
+        <v>7920997</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14035,76 +14035,76 @@
         <v>45360.79166666666</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J158">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="K158">
+        <v>3.1</v>
+      </c>
+      <c r="L158">
+        <v>4.2</v>
+      </c>
+      <c r="M158">
+        <v>1.833</v>
+      </c>
+      <c r="N158">
+        <v>3.1</v>
+      </c>
+      <c r="O158">
+        <v>4.2</v>
+      </c>
+      <c r="P158">
+        <v>-0.5</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>1.85</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>3.2</v>
       </c>
-      <c r="L158">
-        <v>1.909</v>
-      </c>
-      <c r="M158">
-        <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.9</v>
-      </c>
-      <c r="O158">
-        <v>2.375</v>
-      </c>
-      <c r="P158">
-        <v>0.25</v>
-      </c>
-      <c r="Q158">
-        <v>1.8</v>
-      </c>
-      <c r="R158">
-        <v>2</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>1.825</v>
-      </c>
-      <c r="U158">
-        <v>1.975</v>
-      </c>
-      <c r="V158">
-        <v>-1</v>
-      </c>
-      <c r="W158">
-        <v>1.9</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
       <c r="Y158">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -17982,7 +17982,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7977876</v>
+        <v>7977880</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -17991,76 +17991,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J204">
-        <v>1.65</v>
+        <v>3.75</v>
       </c>
       <c r="K204">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M204">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="P204">
+        <v>0.25</v>
+      </c>
+      <c r="Q204">
+        <v>1.975</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>2.25</v>
+      </c>
+      <c r="T204">
+        <v>1.95</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>-1</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>1.05</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.825</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="Q204">
-        <v>1.85</v>
-      </c>
-      <c r="R204">
-        <v>1.95</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>1.775</v>
-      </c>
-      <c r="U204">
-        <v>2.025</v>
-      </c>
-      <c r="V204">
-        <v>0.8</v>
-      </c>
-      <c r="W204">
-        <v>-1</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z204">
-        <v>-1</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18154,7 +18154,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7977880</v>
+        <v>7977876</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18163,76 +18163,76 @@
         <v>45401.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J206">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="K206">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
+        <v>1.8</v>
+      </c>
+      <c r="N206">
         <v>3.2</v>
       </c>
-      <c r="N206">
-        <v>3.1</v>
-      </c>
       <c r="O206">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18835,6 +18835,694 @@
       </c>
       <c r="AB213">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>8146408</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45412.75</v>
+      </c>
+      <c r="E214" t="s">
+        <v>43</v>
+      </c>
+      <c r="F214" t="s">
+        <v>39</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214" t="s">
+        <v>45</v>
+      </c>
+      <c r="J214">
+        <v>2.2</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
+        <v>2.5</v>
+      </c>
+      <c r="N214">
+        <v>3.1</v>
+      </c>
+      <c r="O214">
+        <v>2.6</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
+        <v>1.85</v>
+      </c>
+      <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
+        <v>2.75</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
+        